--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MCowan\Projects\ce_expansion\data\bimetallic_results\fcc-cube\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97170B3C-3750-422B-A3E5-1CC631CFC947}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>n_atoms</t>
   </si>
@@ -29,6 +23,12 @@
   </si>
   <si>
     <t>composition_Cu</t>
+  </si>
+  <si>
+    <t>n_Ag</t>
+  </si>
+  <si>
+    <t>n_Cu</t>
   </si>
   <si>
     <t>CE</t>
@@ -40,8 +40,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,14 +104,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -158,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,27 +182,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,24 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,16 +391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E211"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,1334 +414,1808 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-1.9846616725095201</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>-1.98466167250952</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="C3">
-        <v>7.6923076923076927E-2</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D3">
-        <v>-2.0586037445037242</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>-4.5996379604239752E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>-2.058603744503724</v>
+      </c>
+      <c r="G3">
+        <v>-0.04599637960423975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="C4">
-        <v>0.15384615384615391</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>-2.074350761232195</v>
       </c>
-      <c r="E4">
-        <v>-3.3797703942745727E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>-0.03379770394274573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="C5">
-        <v>0.23076923076923081</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D5">
-        <v>-2.0942805999745682</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>-2.578185029515501E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>-2.094280599974568</v>
+      </c>
+      <c r="G5">
+        <v>-0.02578185029515501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="C6">
-        <v>0.30769230769230771</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <v>-2.118393260730846</v>
       </c>
-      <c r="E6">
-        <v>-2.1948818661468032E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>-0.02194881866146803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="C7">
-        <v>0.38461538461538458</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D7">
-        <v>-2.1383230994732201</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>-1.393296501387775E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>-2.13832309947322</v>
+      </c>
+      <c r="G7">
+        <v>-0.01393296501387775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="C8">
-        <v>0.46153846153846162</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D8">
-        <v>-2.1624357602294979</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>-1.0099933380191439E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>-2.162435760229498</v>
+      </c>
+      <c r="G8">
+        <v>-0.01009993338019144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="C9">
-        <v>0.53846153846153844</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D9">
-        <v>-2.1865484209857762</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>-6.2669017465044607E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>-2.186548420985776</v>
+      </c>
+      <c r="G9">
+        <v>-0.006266901746504461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="C10">
-        <v>0.61538461538461542</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
         <v>-2.210661081742054</v>
       </c>
-      <c r="E10">
-        <v>-2.4338701128178149E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>-0.002433870112817815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="C11">
-        <v>0.69230769230769229</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D11">
-        <v>-2.2347737424983318</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>1.3991615208688299E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>-2.234773742498332</v>
+      </c>
+      <c r="G11">
+        <v>0.00139916152086883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="C12">
-        <v>0.76923076923076927</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
         <v>-2.263069225268513</v>
       </c>
-      <c r="E12">
-        <v>1.0493711406518451E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0.001049371140651845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="C13">
-        <v>0.84615384615384615</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D13">
-        <v>-2.2871818860247921</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>4.8824027743382681E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>-2.287181886024792</v>
+      </c>
+      <c r="G13">
+        <v>0.004882402774338268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="C14">
-        <v>0.92307692307692313</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="D14">
-        <v>-2.3154773687949741</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>4.5326123941205609E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>-2.315477368794974</v>
+      </c>
+      <c r="G14">
+        <v>0.004532612394120561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
         <v>-2.347955673579059</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>63</v>
       </c>
       <c r="B16">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>-2.3057230024559918</v>
+        <v>63</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>-2.305723002455992</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>63</v>
       </c>
       <c r="B17">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C17">
-        <v>1.5873015873015869E-2</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="D17">
-        <v>-2.3138394849733741</v>
+        <v>62</v>
       </c>
       <c r="E17">
-        <v>-1.417045222110058E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>-2.313839484973374</v>
+      </c>
+      <c r="G17">
+        <v>-0.001417045222110058</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>63</v>
       </c>
       <c r="B18">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C18">
-        <v>3.1746031746031737E-2</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="D18">
-        <v>-2.3225131103478991</v>
+        <v>61</v>
       </c>
       <c r="E18">
-        <v>-3.3912333013637048E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>-2.322513110347899</v>
+      </c>
+      <c r="G18">
+        <v>-0.003391233301363705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>63</v>
       </c>
       <c r="B19">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C19">
-        <v>4.7619047619047623E-2</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="D19">
-        <v>-2.3317438785795659</v>
+        <v>60</v>
       </c>
       <c r="E19">
-        <v>-5.9225642377587207E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>-2.331743878579566</v>
+      </c>
+      <c r="G19">
+        <v>-0.005922564237758721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>63</v>
       </c>
       <c r="B20">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C20">
-        <v>6.3492063492063489E-2</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="D20">
-        <v>-2.3404175039540909</v>
+        <v>59</v>
       </c>
       <c r="E20">
-        <v>-7.8967523170123677E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>-2.340417503954091</v>
+      </c>
+      <c r="G20">
+        <v>-0.007896752317012368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>63</v>
       </c>
       <c r="B21">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C21">
-        <v>7.9365079365079361E-2</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="D21">
+        <v>58</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
         <v>-2.349648272185759</v>
       </c>
-      <c r="E21">
-        <v>-1.042808325340827E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>-0.01042808325340827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>63</v>
       </c>
       <c r="B22">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C22">
-        <v>9.5238095238095233E-2</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="D22">
+        <v>57</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
         <v>-2.358321897560284</v>
       </c>
-      <c r="E22">
-        <v>-1.2402271332661471E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>-0.01240227133266147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>63</v>
       </c>
       <c r="B23">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C23">
         <v>0.1111111111111111</v>
       </c>
       <c r="D23">
-        <v>-2.3681098086490939</v>
+        <v>56</v>
       </c>
       <c r="E23">
-        <v>-1.5490745126200521E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>-2.368109808649094</v>
+      </c>
+      <c r="G23">
+        <v>-0.01549074512620052</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>63</v>
       </c>
       <c r="B24">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C24">
         <v>0.126984126984127</v>
       </c>
       <c r="D24">
-        <v>-2.3773405768807612</v>
+        <v>55</v>
       </c>
       <c r="E24">
-        <v>-1.8022076062595978E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>-2.377340576880761</v>
+      </c>
+      <c r="G24">
+        <v>-0.01802207606259598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>63</v>
       </c>
       <c r="B25">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C25">
-        <v>0.14285714285714279</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D25">
-        <v>-2.3865713451124311</v>
+        <v>54</v>
       </c>
       <c r="E25">
-        <v>-2.055340699899344E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>-2.386571345112431</v>
+      </c>
+      <c r="G25">
+        <v>-0.02055340699899344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>63</v>
       </c>
       <c r="B26">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C26">
-        <v>0.15873015873015869</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="D26">
-        <v>-2.3968142022552872</v>
+        <v>53</v>
       </c>
       <c r="E26">
-        <v>-2.4096826846578209E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>-2.396814202255287</v>
+      </c>
+      <c r="G26">
+        <v>-0.02409682684657821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>63</v>
       </c>
       <c r="B27">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C27">
-        <v>0.17460317460317459</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="D27">
-        <v>-2.4071592562012398</v>
+        <v>52</v>
       </c>
       <c r="E27">
-        <v>-2.7742443497259961E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>-2.40715925620124</v>
+      </c>
+      <c r="G27">
+        <v>-0.02774244349725996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>63</v>
       </c>
       <c r="B28">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C28">
-        <v>0.19047619047619049</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="D28">
-        <v>-2.4175043101471929</v>
+        <v>51</v>
       </c>
       <c r="E28">
-        <v>-3.1388060147940822E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>-2.417504310147193</v>
+      </c>
+      <c r="G28">
+        <v>-0.03138806014794082</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>63</v>
       </c>
       <c r="B29">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C29">
-        <v>0.20634920634920631</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29">
         <v>-2.42840650695029</v>
       </c>
-      <c r="E29">
-        <v>-3.5590819655765937E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>-0.03559081965576594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>63</v>
       </c>
       <c r="B30">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C30">
-        <v>0.22222222222222221</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D30">
-        <v>-2.4353983842308331</v>
+        <v>49</v>
       </c>
       <c r="E30">
-        <v>-3.5883259641037217E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>-2.435398384230833</v>
+      </c>
+      <c r="G30">
+        <v>-0.03588325964103722</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>63</v>
       </c>
       <c r="B31">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C31">
-        <v>0.23809523809523811</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="D31">
-        <v>-2.4423902615113771</v>
+        <v>48</v>
       </c>
       <c r="E31">
-        <v>-3.6175699626309621E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>-2.442390261511377</v>
+      </c>
+      <c r="G31">
+        <v>-0.03617569962630962</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>63</v>
       </c>
       <c r="B32">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C32">
-        <v>0.25396825396825401</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="D32">
-        <v>-2.4493821387919201</v>
+        <v>47</v>
       </c>
       <c r="E32">
-        <v>-3.6468139611580908E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>-2.44938213879192</v>
+      </c>
+      <c r="G32">
+        <v>-0.03646813961158091</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>63</v>
       </c>
       <c r="B33">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C33">
-        <v>0.26984126984126983</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="D33">
-        <v>-2.4577387317862982</v>
+        <v>46</v>
       </c>
       <c r="E33">
-        <v>-3.8125295310687202E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>-2.457738731786298</v>
+      </c>
+      <c r="G33">
+        <v>-0.0381252953106872</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>63</v>
       </c>
       <c r="B34">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C34">
         <v>0.2857142857142857</v>
       </c>
       <c r="D34">
-        <v>-2.4660953247806772</v>
+        <v>45</v>
       </c>
       <c r="E34">
-        <v>-3.9782451009794828E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>-2.466095324780677</v>
+      </c>
+      <c r="G34">
+        <v>-0.03978245100979483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>63</v>
       </c>
       <c r="B35">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C35">
-        <v>0.30158730158730163</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="D35">
-        <v>-2.4730872020612211</v>
+        <v>44</v>
       </c>
       <c r="E35">
-        <v>-4.0074890995067003E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F35">
+        <v>-2.473087202061221</v>
+      </c>
+      <c r="G35">
+        <v>-0.040074890995067</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>63</v>
       </c>
       <c r="B36">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C36">
-        <v>0.31746031746031739</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="D36">
-        <v>-2.4800790793417642</v>
+        <v>43</v>
       </c>
       <c r="E36">
-        <v>-4.0367330980338963E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>-2.480079079341764</v>
+      </c>
+      <c r="G36">
+        <v>-0.04036733098033896</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>63</v>
       </c>
       <c r="B37">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C37">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D37">
+        <v>42</v>
+      </c>
+      <c r="E37">
+        <v>21</v>
+      </c>
+      <c r="F37">
         <v>-2.487753314479225</v>
       </c>
-      <c r="E37">
-        <v>-4.1342128822527968E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>-0.04134212882252797</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>63</v>
       </c>
       <c r="B38">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C38">
-        <v>0.34920634920634919</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="D38">
-        <v>-2.4940628339028499</v>
+        <v>41</v>
       </c>
       <c r="E38">
-        <v>-4.0952210950881078E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F38">
+        <v>-2.49406283390285</v>
+      </c>
+      <c r="G38">
+        <v>-0.04095221095088108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>63</v>
       </c>
       <c r="B39">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C39">
-        <v>0.36507936507936511</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="D39">
+        <v>40</v>
+      </c>
+      <c r="E39">
+        <v>23</v>
+      </c>
+      <c r="F39">
         <v>-2.501489929783931</v>
       </c>
-      <c r="E39">
-        <v>-4.167986953669045E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>-0.04167986953669045</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>63</v>
       </c>
       <c r="B40">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C40">
-        <v>0.38095238095238088</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="D40">
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <v>24</v>
+      </c>
+      <c r="F40">
         <v>-2.508481807064475</v>
       </c>
-      <c r="E40">
-        <v>-4.1972309521962403E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>-0.0419723095219624</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>63</v>
       </c>
       <c r="B41">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C41">
         <v>0.3968253968253968</v>
       </c>
       <c r="D41">
-        <v>-2.5168384000588531</v>
+        <v>38</v>
       </c>
       <c r="E41">
-        <v>-4.3629465221069363E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F41">
+        <v>-2.517085539315233</v>
+      </c>
+      <c r="G41">
+        <v>-0.04387660447744901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>63</v>
       </c>
       <c r="B42">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C42">
-        <v>0.41269841269841268</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="D42">
-        <v>-2.5238302773393961</v>
+        <v>37</v>
       </c>
       <c r="E42">
-        <v>-4.3921905206340872E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F42">
+        <v>-2.524077416595777</v>
+      </c>
+      <c r="G42">
+        <v>-0.04416904446272141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>63</v>
       </c>
       <c r="B43">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C43">
-        <v>0.42857142857142849</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D43">
-        <v>-2.5328692281906942</v>
+        <v>36</v>
       </c>
       <c r="E43">
-        <v>-4.6261418762367328E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F43">
+        <v>-2.532869228190694</v>
+      </c>
+      <c r="G43">
+        <v>-0.04626141876236733</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>63</v>
       </c>
       <c r="B44">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C44">
-        <v>0.44444444444444442</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D44">
+        <v>35</v>
+      </c>
+      <c r="E44">
+        <v>28</v>
+      </c>
+      <c r="F44">
         <v>-2.540790602584535</v>
       </c>
-      <c r="E44">
-        <v>-4.7483355860936438E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>-0.04748335586093644</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>63</v>
       </c>
       <c r="B45">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C45">
-        <v>0.46031746031746029</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="D45">
-        <v>-2.5482176984656162</v>
+        <v>34</v>
       </c>
       <c r="E45">
-        <v>-4.8211014446745797E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F45">
+        <v>-2.548217698465616</v>
+      </c>
+      <c r="G45">
+        <v>-0.0482110144467458</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>63</v>
       </c>
       <c r="B46">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C46">
-        <v>0.47619047619047622</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="D46">
-        <v>-2.5554567150025389</v>
+        <v>33</v>
       </c>
       <c r="E46">
-        <v>-4.8750593688397403E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <v>-2.555644794346698</v>
+      </c>
+      <c r="G46">
+        <v>-0.04893867303255584</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>63</v>
       </c>
       <c r="B47">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C47">
-        <v>0.49206349206349198</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="D47">
-        <v>-2.5628838108836201</v>
+        <v>32</v>
       </c>
       <c r="E47">
-        <v>-4.9478252274206103E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F47">
+        <v>-2.56288381088362</v>
+      </c>
+      <c r="G47">
+        <v>-0.0494782522742061</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>63</v>
       </c>
       <c r="B48">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C48">
-        <v>0.50793650793650791</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="D48">
-        <v>-2.5721108410790769</v>
+        <v>31</v>
       </c>
       <c r="E48">
-        <v>-5.2005845174391878E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F48">
+        <v>-2.572110841079077</v>
+      </c>
+      <c r="G48">
+        <v>-0.05200584517439188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>63</v>
       </c>
       <c r="B49">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C49">
-        <v>0.52380952380952384</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="D49">
-        <v>-2.5795969968723789</v>
+        <v>30</v>
       </c>
       <c r="E49">
-        <v>-5.2792563672422022E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F49">
+        <v>-2.579596996872379</v>
+      </c>
+      <c r="G49">
+        <v>-0.05279256367242202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>63</v>
       </c>
       <c r="B50">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C50">
-        <v>0.53968253968253965</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="D50">
-        <v>-2.5883888084672968</v>
+        <v>29</v>
       </c>
       <c r="E50">
-        <v>-5.4884937972068837E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F50">
+        <v>-2.588388808467297</v>
+      </c>
+      <c r="G50">
+        <v>-0.05488493797206884</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C51">
-        <v>0.55555555555555558</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D51">
-        <v>-2.5944511886345412</v>
+        <v>28</v>
       </c>
       <c r="E51">
-        <v>-5.424788084404053E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F51">
+        <v>-2.594451188634541</v>
+      </c>
+      <c r="G51">
+        <v>-0.05424788084404053</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>63</v>
       </c>
       <c r="B52">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C52">
         <v>0.5714285714285714</v>
       </c>
       <c r="D52">
-        <v>-2.6025606423725409</v>
+        <v>27</v>
       </c>
       <c r="E52">
-        <v>-5.5657897286769058E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F52">
+        <v>-2.603243000229459</v>
+      </c>
+      <c r="G52">
+        <v>-0.05634025514368723</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>63</v>
       </c>
       <c r="B53">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C53">
-        <v>0.58730158730158732</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="D53">
-        <v>-2.6120938717365969</v>
+        <v>26</v>
       </c>
       <c r="E53">
-        <v>-5.8491689355553822E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="F53">
+        <v>-2.612093871736597</v>
+      </c>
+      <c r="G53">
+        <v>-0.05849168935555382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>63</v>
       </c>
       <c r="B54">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C54">
-        <v>0.60317460317460314</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="D54">
-        <v>-2.6202033254745971</v>
+        <v>25</v>
       </c>
       <c r="E54">
-        <v>-5.9901705798281579E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F54">
+        <v>-2.620203325474597</v>
+      </c>
+      <c r="G54">
+        <v>-0.05990170579828158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>63</v>
       </c>
       <c r="B55">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C55">
-        <v>0.61904761904761907</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="D55">
+        <v>24</v>
+      </c>
+      <c r="E55">
+        <v>39</v>
+      </c>
+      <c r="F55">
         <v>-2.628559918468977</v>
       </c>
-      <c r="E55">
-        <v>-6.1558861497389761E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>-0.06155886149738976</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>63</v>
       </c>
       <c r="B56">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C56">
-        <v>0.63492063492063489</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="D56">
-        <v>-2.6369165114633559</v>
+        <v>23</v>
       </c>
       <c r="E56">
-        <v>-6.3216017196497498E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <v>-2.636916511463356</v>
+      </c>
+      <c r="G56">
+        <v>-0.0632160171964975</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>63</v>
       </c>
       <c r="B57">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C57">
-        <v>0.65079365079365081</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="D57">
-        <v>-2.6450259652013548</v>
+        <v>22</v>
       </c>
       <c r="E57">
-        <v>-6.46260336392247E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F57">
+        <v>-2.645025965201355</v>
+      </c>
+      <c r="G57">
+        <v>-0.0646260336392247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C58">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D58">
-        <v>-2.6522059218260581</v>
+        <v>21</v>
       </c>
       <c r="E58">
-        <v>-6.5106552968655862E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="F58">
+        <v>-2.653135418939355</v>
+      </c>
+      <c r="G58">
+        <v>-0.06603605008195279</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>63</v>
       </c>
       <c r="B59">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C59">
-        <v>0.68253968253968256</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="D59">
-        <v>-2.6612448726773552</v>
+        <v>20</v>
       </c>
       <c r="E59">
-        <v>-6.7446066524681325E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F59">
+        <v>-2.661244872677355</v>
+      </c>
+      <c r="G59">
+        <v>-0.06744606652468133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C60">
-        <v>0.69841269841269837</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="D60">
-        <v>-2.6656102011324938</v>
+        <v>19</v>
       </c>
       <c r="E60">
-        <v>-6.5111957684548694E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F60">
+        <v>-2.665610201132494</v>
+      </c>
+      <c r="G60">
+        <v>-0.06511195768454869</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C61">
         <v>0.7142857142857143</v>
       </c>
       <c r="D61">
-        <v>-2.6699755295876328</v>
+        <v>18</v>
       </c>
       <c r="E61">
-        <v>-6.2777848844416506E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F61">
+        <v>-2.669975529587633</v>
+      </c>
+      <c r="G61">
+        <v>-0.06277784884441651</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>63</v>
       </c>
       <c r="B62">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C62">
-        <v>0.73015873015873012</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="D62">
-        <v>-2.6743408580427732</v>
+        <v>17</v>
       </c>
       <c r="E62">
-        <v>-6.044374000428443E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F62">
+        <v>-2.674340858042773</v>
+      </c>
+      <c r="G62">
+        <v>-0.06044374000428443</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C63">
-        <v>0.74603174603174605</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="D63">
-        <v>-2.6787061864979118</v>
+        <v>16</v>
       </c>
       <c r="E63">
-        <v>-5.8109631164151798E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F63">
+        <v>-2.678706186497912</v>
+      </c>
+      <c r="G63">
+        <v>-0.0581096311641518</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C64">
-        <v>0.76190476190476186</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="D64">
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>48</v>
+      </c>
+      <c r="F64">
         <v>-2.68307151495305</v>
       </c>
-      <c r="E64">
-        <v>-5.5775522324018501E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>-0.0557755223240185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C65">
-        <v>0.77777777777777779</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D65">
+        <v>14</v>
+      </c>
+      <c r="E65">
+        <v>49</v>
+      </c>
+      <c r="F65">
         <v>-2.687436843408189</v>
       </c>
-      <c r="E65">
-        <v>-5.3441413483885418E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>-0.05344141348388542</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>63</v>
       </c>
       <c r="B66">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C66">
-        <v>0.79365079365079361</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="D66">
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <v>50</v>
+      </c>
+      <c r="F66">
         <v>-2.691802171863328</v>
       </c>
-      <c r="E66">
-        <v>-5.110730464375296E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>-0.05110730464375296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>63</v>
       </c>
       <c r="B67">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C67">
-        <v>0.80952380952380953</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="D67">
+        <v>12</v>
+      </c>
+      <c r="E67">
+        <v>51</v>
+      </c>
+      <c r="F67">
         <v>-2.696167500318468</v>
       </c>
-      <c r="E67">
-        <v>-4.8773195803620772E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>-0.04877319580362077</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>63</v>
       </c>
       <c r="B68">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C68">
-        <v>0.82539682539682535</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="D68">
-        <v>-2.7005328287736061</v>
+        <v>11</v>
       </c>
       <c r="E68">
-        <v>-4.6439086963487919E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F68">
+        <v>-2.700532828773606</v>
+      </c>
+      <c r="G68">
+        <v>-0.04643908696348792</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>63</v>
       </c>
       <c r="B69">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C69">
-        <v>0.84126984126984128</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="D69">
-        <v>-2.7048981572287452</v>
+        <v>10</v>
       </c>
       <c r="E69">
-        <v>-4.4104978123355287E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F69">
+        <v>-2.704898157228745</v>
+      </c>
+      <c r="G69">
+        <v>-0.04410497812335529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>63</v>
       </c>
       <c r="B70">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C70">
         <v>0.8571428571428571</v>
       </c>
       <c r="D70">
-        <v>-2.7092634856838842</v>
+        <v>9</v>
       </c>
       <c r="E70">
-        <v>-4.1770869283221927E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F70">
+        <v>-2.709263485683884</v>
+      </c>
+      <c r="G70">
+        <v>-0.04177086928322193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>63</v>
       </c>
       <c r="B71">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C71">
-        <v>0.87301587301587302</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="D71">
-        <v>-2.7136288141390219</v>
+        <v>8</v>
       </c>
       <c r="E71">
-        <v>-3.9436760443088408E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="F71">
+        <v>-2.713628814139022</v>
+      </c>
+      <c r="G71">
+        <v>-0.03943676044308841</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>63</v>
       </c>
       <c r="B72">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C72">
-        <v>0.88888888888888884</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D72">
-        <v>-2.7153986563789081</v>
+        <v>7</v>
       </c>
       <c r="E72">
-        <v>-3.450716538770271E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="F72">
+        <v>-2.715398656378908</v>
+      </c>
+      <c r="G72">
+        <v>-0.03450716538770271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>63</v>
       </c>
       <c r="B73">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C73">
-        <v>0.90476190476190477</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="D73">
-        <v>-2.7171684986187929</v>
+        <v>6</v>
       </c>
       <c r="E73">
-        <v>-2.9577570332316751E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="F73">
+        <v>-2.717168498618793</v>
+      </c>
+      <c r="G73">
+        <v>-0.02957757033231675</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>63</v>
       </c>
       <c r="B74">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C74">
-        <v>0.92063492063492058</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="D74">
-        <v>-2.7189383408586778</v>
+        <v>5</v>
       </c>
       <c r="E74">
-        <v>-2.4647975276930131E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F74">
+        <v>-2.718938340858678</v>
+      </c>
+      <c r="G74">
+        <v>-0.02464797527693013</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>63</v>
       </c>
       <c r="B75">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C75">
-        <v>0.93650793650793651</v>
+        <v>0.9365079365079365</v>
       </c>
       <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>59</v>
+      </c>
+      <c r="F75">
         <v>-2.720708183098564</v>
       </c>
-      <c r="E75">
-        <v>-1.9718380221544211E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>-0.01971838022154421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>63</v>
       </c>
       <c r="B76">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C76">
-        <v>0.95238095238095233</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D76">
-        <v>-2.7224780253384502</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>-1.4788785166158469E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="F76">
+        <v>-2.72247802533845</v>
+      </c>
+      <c r="G76">
+        <v>-0.01478878516615847</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>63</v>
       </c>
       <c r="B77">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C77">
-        <v>0.96825396825396826</v>
+        <v>0.9682539682539683</v>
       </c>
       <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>61</v>
+      </c>
+      <c r="F77">
         <v>-2.724247867578335</v>
       </c>
-      <c r="E77">
-        <v>-9.8591901107721036E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>-0.009859190110772104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>63</v>
       </c>
       <c r="B78">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C78">
-        <v>0.98412698412698407</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="D78">
-        <v>-2.7260177098182208</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>-4.9295950553859269E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="F78">
+        <v>-2.726017709818221</v>
+      </c>
+      <c r="G78">
+        <v>-0.004929595055385927</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>63</v>
       </c>
       <c r="B79">
-        <v>0.72199999999999998</v>
+        <v>0.722</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>63</v>
+      </c>
+      <c r="F79">
         <v>-2.727787552058107</v>
       </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>171</v>
       </c>
@@ -1798,13 +2226,19 @@
         <v>0</v>
       </c>
       <c r="D80">
+        <v>171</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
         <v>-2.501904555654503</v>
       </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>171</v>
       </c>
@@ -1812,16 +2246,22 @@
         <v>1.083</v>
       </c>
       <c r="C81">
-        <v>0.1</v>
+        <v>0.09941520467836257</v>
       </c>
       <c r="D81">
-        <v>-2.5525888071421639</v>
+        <v>154</v>
       </c>
       <c r="E81">
-        <v>-4.886676570595494E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F81">
+        <v>-2.552588807142164</v>
+      </c>
+      <c r="G81">
+        <v>-0.00515449864613382</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>171</v>
       </c>
@@ -1829,16 +2269,22 @@
         <v>1.083</v>
       </c>
       <c r="C82">
-        <v>0.2</v>
+        <v>0.1988304093567251</v>
       </c>
       <c r="D82">
-        <v>-2.6068364542591231</v>
+        <v>137</v>
       </c>
       <c r="E82">
-        <v>-1.333674877048807E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F82">
+        <v>-2.607096557745885</v>
+      </c>
+      <c r="G82">
+        <v>-0.01413249640832692</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>171</v>
       </c>
@@ -1846,16 +2292,22 @@
         <v>1.083</v>
       </c>
       <c r="C83">
-        <v>0.3</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="D83">
+        <v>120</v>
+      </c>
+      <c r="E83">
+        <v>51</v>
+      </c>
+      <c r="F83">
         <v>-2.666942119698688</v>
       </c>
-      <c r="E83">
-        <v>-2.7644839292987781E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>-0.0284483055196032</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>171</v>
       </c>
@@ -1863,16 +2315,22 @@
         <v>1.083</v>
       </c>
       <c r="C84">
-        <v>0.4</v>
+        <v>0.3976608187134503</v>
       </c>
       <c r="D84">
-        <v>-2.7250706843347969</v>
+        <v>103</v>
       </c>
       <c r="E84">
-        <v>-3.9975829012030673E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="F84">
+        <v>-2.725070684334797</v>
+      </c>
+      <c r="G84">
+        <v>-0.0410471173141842</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>171</v>
       </c>
@@ -1880,16 +2338,22 @@
         <v>1.083</v>
       </c>
       <c r="C85">
-        <v>0.5</v>
+        <v>0.4970760233918128</v>
       </c>
       <c r="D85">
-        <v>-2.7661985087077738</v>
+        <v>86</v>
       </c>
       <c r="E85">
-        <v>-3.5306078467941981E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="F85">
+        <v>-2.766198508707774</v>
+      </c>
+      <c r="G85">
+        <v>-0.03664518884563384</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>171</v>
       </c>
@@ -1897,16 +2361,22 @@
         <v>1.083</v>
       </c>
       <c r="C86">
-        <v>0.60000000000000009</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="D86">
+        <v>69</v>
+      </c>
+      <c r="E86">
+        <v>102</v>
+      </c>
+      <c r="F86">
         <v>-2.808804394472701</v>
       </c>
-      <c r="E86">
-        <v>-3.2114389315802898E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>-0.03372132176903331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>171</v>
       </c>
@@ -1914,16 +2384,22 @@
         <v>1.083</v>
       </c>
       <c r="C87">
-        <v>0.70000000000000007</v>
+        <v>0.695906432748538</v>
       </c>
       <c r="D87">
-        <v>-2.8539141273676139</v>
+        <v>52</v>
       </c>
       <c r="E87">
-        <v>-3.1426547293649909E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="F87">
+        <v>-2.853914127367614</v>
+      </c>
+      <c r="G87">
+        <v>-0.03330130182241875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>171</v>
       </c>
@@ -1931,16 +2407,22 @@
         <v>1.083</v>
       </c>
       <c r="C88">
-        <v>0.8</v>
+        <v>0.7953216374269005</v>
       </c>
       <c r="D88">
+        <v>35</v>
+      </c>
+      <c r="E88">
+        <v>136</v>
+      </c>
+      <c r="F88">
         <v>-2.900892374945184</v>
       </c>
-      <c r="E88">
-        <v>-3.2607219954154831E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>-0.03474979655846189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>171</v>
       </c>
@@ -1948,16 +2430,22 @@
         <v>1.083</v>
       </c>
       <c r="C89">
-        <v>0.9</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D89">
+        <v>18</v>
+      </c>
+      <c r="E89">
+        <v>153</v>
+      </c>
+      <c r="F89">
         <v>-2.928853070834172</v>
       </c>
-      <c r="E89">
-        <v>-1.4770340926075711E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>-0.01718073960592126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>171</v>
       </c>
@@ -1968,13 +2456,19 @@
         <v>1</v>
       </c>
       <c r="D90">
-        <v>-2.9598803048251621</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="F90">
+        <v>-2.959880304825162</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>365</v>
       </c>
@@ -1985,13 +2479,19 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>-2.5920590199681941</v>
+        <v>365</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>-2.592059019968194</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>365</v>
       </c>
@@ -1999,16 +2499,22 @@
         <v>1.444</v>
       </c>
       <c r="C92">
-        <v>0.1</v>
+        <v>0.09863013698630137</v>
       </c>
       <c r="D92">
-        <v>-2.6363787481924601</v>
+        <v>329</v>
       </c>
       <c r="E92">
-        <v>3.1281318022702291E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F92">
+        <v>-2.63637874819246</v>
+      </c>
+      <c r="G92">
+        <v>0.002478161116974853</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>365</v>
       </c>
@@ -2019,13 +2525,19 @@
         <v>0.2</v>
       </c>
       <c r="D93">
-        <v>-2.6902648263207092</v>
+        <v>292</v>
       </c>
       <c r="E93">
-        <v>-3.3100862994421831E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F93">
+        <v>-2.690264826320709</v>
+      </c>
+      <c r="G93">
+        <v>-0.003310086299442183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>365</v>
       </c>
@@ -2033,16 +2545,22 @@
         <v>1.444</v>
       </c>
       <c r="C94">
-        <v>0.3</v>
+        <v>0.2986301369863014</v>
       </c>
       <c r="D94">
+        <v>256</v>
+      </c>
+      <c r="E94">
+        <v>109</v>
+      </c>
+      <c r="F94">
         <v>-2.744987364742169</v>
       </c>
-      <c r="E94">
-        <v>-1.0584764694365759E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>-0.01123473537966069</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>365</v>
       </c>
@@ -2053,13 +2571,19 @@
         <v>0.4</v>
       </c>
       <c r="D95">
-        <v>-2.8081041012048589</v>
+        <v>219</v>
       </c>
       <c r="E95">
-        <v>-2.6253641130518979E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="F95">
+        <v>-2.808104101204859</v>
+      </c>
+      <c r="G95">
+        <v>-0.02625364113051898</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>365</v>
       </c>
@@ -2067,16 +2591,22 @@
         <v>1.444</v>
       </c>
       <c r="C96">
-        <v>0.5</v>
+        <v>0.4986301369863014</v>
       </c>
       <c r="D96">
-        <v>-2.8659342165107389</v>
+        <v>183</v>
       </c>
       <c r="E96">
-        <v>-3.6635896409862527E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="F96">
+        <v>-2.865934216510739</v>
+      </c>
+      <c r="G96">
+        <v>-0.03728586709515747</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>365</v>
       </c>
@@ -2084,16 +2614,22 @@
         <v>1.444</v>
       </c>
       <c r="C97">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="D97">
+        <v>146</v>
+      </c>
+      <c r="E97">
+        <v>219</v>
+      </c>
+      <c r="F97">
         <v>-2.906828639123284</v>
       </c>
-      <c r="E97">
-        <v>-3.0082458995871031E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>-0.03008245899587125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>365</v>
       </c>
@@ -2101,16 +2637,22 @@
         <v>1.444</v>
       </c>
       <c r="C98">
-        <v>0.70000000000000007</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="D98">
-        <v>-2.9498897847454111</v>
+        <v>110</v>
       </c>
       <c r="E98">
-        <v>-2.5695744591461182E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="F98">
+        <v>-2.949889784745411</v>
+      </c>
+      <c r="G98">
+        <v>-0.02634571527675611</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>365</v>
       </c>
@@ -2121,13 +2663,19 @@
         <v>0.8</v>
       </c>
       <c r="D99">
-        <v>-2.9978176268299048</v>
+        <v>73</v>
       </c>
       <c r="E99">
-        <v>-2.6175726649419251E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="F99">
+        <v>-2.997817626829905</v>
+      </c>
+      <c r="G99">
+        <v>-0.02617572664941925</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>365</v>
       </c>
@@ -2135,16 +2683,22 @@
         <v>1.444</v>
       </c>
       <c r="C100">
-        <v>0.9</v>
+        <v>0.8986301369863013</v>
       </c>
       <c r="D100">
-        <v>-3.0422432213939961</v>
+        <v>37</v>
       </c>
       <c r="E100">
-        <v>-2.3153461186973531E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="F100">
+        <v>-3.042243221393996</v>
+      </c>
+      <c r="G100">
+        <v>-0.02380343187226852</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>365</v>
       </c>
@@ -2155,948 +2709,1284 @@
         <v>1</v>
       </c>
       <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>365</v>
+      </c>
+      <c r="F101">
         <v>-3.066537620233559</v>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>665</v>
       </c>
       <c r="B102">
-        <v>1.8049999999999999</v>
+        <v>1.805</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>-2.6602745684360398</v>
+        <v>665</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>-2.66027456843604</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>665</v>
       </c>
       <c r="B103">
-        <v>1.8049999999999999</v>
+        <v>1.805</v>
       </c>
       <c r="C103">
-        <v>0.1</v>
+        <v>0.09924812030075188</v>
       </c>
       <c r="D103">
-        <v>-2.7045338735979221</v>
+        <v>599</v>
       </c>
       <c r="E103">
-        <v>4.4372462603359253E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="F103">
+        <v>-2.704533873597922</v>
+      </c>
+      <c r="G103">
+        <v>0.004071106775958455</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>665</v>
       </c>
       <c r="B104">
-        <v>1.8049999999999999</v>
+        <v>1.805</v>
       </c>
       <c r="C104">
         <v>0.2</v>
       </c>
       <c r="D104">
-        <v>-2.7533992412839838</v>
+        <v>532</v>
       </c>
       <c r="E104">
-        <v>4.2684299964910188E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="F104">
+        <v>-2.753779332687201</v>
+      </c>
+      <c r="G104">
+        <v>0.003888338593274199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>665</v>
       </c>
       <c r="B105">
-        <v>1.8049999999999999</v>
+        <v>1.805</v>
       </c>
       <c r="C105">
-        <v>0.3</v>
+        <v>0.2992481203007519</v>
       </c>
       <c r="D105">
-        <v>-2.8075522240331892</v>
+        <v>466</v>
       </c>
       <c r="E105">
-        <v>-1.1880013304965691E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="F105">
+        <v>-2.807552224033189</v>
+      </c>
+      <c r="G105">
+        <v>-0.001554140814874039</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>665</v>
       </c>
       <c r="B106">
-        <v>1.8049999999999999</v>
+        <v>1.805</v>
       </c>
       <c r="C106">
         <v>0.4</v>
       </c>
       <c r="D106">
-        <v>-2.8663983584746009</v>
+        <v>399</v>
       </c>
       <c r="E106">
-        <v>-1.133758434969168E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="F106">
+        <v>-2.866566729482904</v>
+      </c>
+      <c r="G106">
+        <v>-0.01150595535799392</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>665</v>
       </c>
       <c r="B107">
-        <v>1.8049999999999999</v>
+        <v>1.805</v>
       </c>
       <c r="C107">
-        <v>0.5</v>
+        <v>0.4992481203007519</v>
       </c>
       <c r="D107">
-        <v>-2.9307335422329048</v>
+        <v>333</v>
       </c>
       <c r="E107">
-        <v>-2.697621668577788E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="F107">
+        <v>-2.930733542232905</v>
+      </c>
+      <c r="G107">
+        <v>-0.02734235617015557</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>665</v>
       </c>
       <c r="B108">
-        <v>1.8049999999999999</v>
+        <v>1.805</v>
       </c>
       <c r="C108">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="D108">
-        <v>-2.9842073945181631</v>
+        <v>266</v>
       </c>
       <c r="E108">
-        <v>-3.1753517548818833E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="F108">
+        <v>-2.984207394518163</v>
+      </c>
+      <c r="G108">
+        <v>-0.03175351754881883</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>665</v>
       </c>
       <c r="B109">
-        <v>1.8049999999999999</v>
+        <v>1.805</v>
       </c>
       <c r="C109">
-        <v>0.70000000000000007</v>
+        <v>0.6992481203007519</v>
       </c>
       <c r="D109">
-        <v>-3.0244719007786851</v>
+        <v>200</v>
       </c>
       <c r="E109">
-        <v>-2.3321472387123229E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="F109">
+        <v>-3.024471900778685</v>
+      </c>
+      <c r="G109">
+        <v>-0.02368761187150059</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>665</v>
       </c>
       <c r="B110">
-        <v>1.8049999999999999</v>
+        <v>1.805</v>
       </c>
       <c r="C110">
         <v>0.8</v>
       </c>
       <c r="D110">
-        <v>-3.0693443685808419</v>
+        <v>133</v>
       </c>
       <c r="E110">
-        <v>-1.9497388767063081E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="F110">
+        <v>-3.069344368580842</v>
+      </c>
+      <c r="G110">
+        <v>-0.01949738876706308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>665</v>
       </c>
       <c r="B111">
-        <v>1.8049999999999999</v>
+        <v>1.805</v>
       </c>
       <c r="C111">
-        <v>0.9</v>
+        <v>0.8992481203007519</v>
       </c>
       <c r="D111">
+        <v>67</v>
+      </c>
+      <c r="E111">
+        <v>598</v>
+      </c>
+      <c r="F111">
         <v>-3.116409226654731</v>
       </c>
-      <c r="E111">
-        <v>-1.7865695418734728E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <v>-0.01823183490311209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>665</v>
       </c>
       <c r="B112">
-        <v>1.8049999999999999</v>
+        <v>1.805</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>-3.1472400826582141</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+      <c r="F112">
+        <v>-3.147240082658214</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>1099</v>
       </c>
       <c r="B113">
-        <v>2.1659999999999999</v>
+        <v>2.166</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>-2.7018875042227051</v>
+        <v>1099</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>-2.701887504222705</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>1099</v>
       </c>
       <c r="B114">
-        <v>2.1659999999999999</v>
+        <v>2.166</v>
       </c>
       <c r="C114">
-        <v>0.1</v>
+        <v>0.09918107370336669</v>
       </c>
       <c r="D114">
-        <v>-2.7437378601580251</v>
+        <v>990</v>
       </c>
       <c r="E114">
-        <v>7.6079238029915794E-3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F114">
+        <v>-2.743737860158025</v>
+      </c>
+      <c r="G114">
+        <v>0.007202896944352055</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>1099</v>
       </c>
       <c r="B115">
-        <v>2.1659999999999999</v>
+        <v>2.166</v>
       </c>
       <c r="C115">
-        <v>0.2</v>
+        <v>0.1992720655141037</v>
       </c>
       <c r="D115">
-        <v>-2.7908988585365591</v>
+        <v>880</v>
       </c>
       <c r="E115">
-        <v>9.9052051627688265E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="F115">
+        <v>-2.790898858536559</v>
+      </c>
+      <c r="G115">
+        <v>0.009545181288422633</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>1099</v>
       </c>
       <c r="B116">
-        <v>2.1659999999999999</v>
+        <v>2.166</v>
       </c>
       <c r="C116">
-        <v>0.3</v>
+        <v>0.2993630573248408</v>
       </c>
       <c r="D116">
-        <v>-2.8425950707458529</v>
+        <v>770</v>
       </c>
       <c r="E116">
-        <v>7.6672726917861311E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="F116">
+        <v>-2.842595070745853</v>
+      </c>
+      <c r="G116">
+        <v>0.007352251801733489</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>1099</v>
       </c>
       <c r="B117">
-        <v>2.1659999999999999</v>
+        <v>2.166</v>
       </c>
       <c r="C117">
-        <v>0.4</v>
+        <v>0.3994540491355778</v>
       </c>
       <c r="D117">
-        <v>-2.8999112746532458</v>
+        <v>660</v>
       </c>
       <c r="E117">
-        <v>-1.9065147729580009E-4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="F117">
+        <v>-2.899911274653246</v>
+      </c>
+      <c r="G117">
+        <v>-0.0004606693830553343</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>1099</v>
       </c>
       <c r="B118">
-        <v>2.1659999999999999</v>
+        <v>2.166</v>
       </c>
       <c r="C118">
-        <v>0.5</v>
+        <v>0.4995450409463149</v>
       </c>
       <c r="D118">
-        <v>-2.963271133911217</v>
+        <v>550</v>
       </c>
       <c r="E118">
-        <v>-1.4092230996955561E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+      <c r="F118">
+        <v>-2.96382579175883</v>
+      </c>
+      <c r="G118">
+        <v>-0.01487190376603453</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>1099</v>
       </c>
       <c r="B119">
-        <v>2.1659999999999999</v>
+        <v>2.166</v>
       </c>
       <c r="C119">
-        <v>0.60000000000000009</v>
+        <v>0.5996360327570519</v>
       </c>
       <c r="D119">
-        <v>-3.0315809871238129</v>
+        <v>440</v>
       </c>
       <c r="E119">
-        <v>-3.2943804471240012E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+      <c r="F119">
+        <v>-3.031580987123813</v>
+      </c>
+      <c r="G119">
+        <v>-0.03312381640841311</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>1099</v>
       </c>
       <c r="B120">
-        <v>2.1659999999999999</v>
+        <v>2.166</v>
       </c>
       <c r="C120">
-        <v>0.70000000000000007</v>
+        <v>0.6997270245677889</v>
       </c>
       <c r="D120">
+        <v>330</v>
+      </c>
+      <c r="E120">
+        <v>769</v>
+      </c>
+      <c r="F120">
         <v>-3.071752353632784</v>
       </c>
-      <c r="E120">
-        <v>-2.3656891241899399E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <v>-0.02379190019477917</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>1099</v>
       </c>
       <c r="B121">
-        <v>2.1659999999999999</v>
+        <v>2.166</v>
       </c>
       <c r="C121">
-        <v>0.8</v>
+        <v>0.7998180163785259</v>
       </c>
       <c r="D121">
-        <v>-3.1144591227254241</v>
+        <v>220</v>
       </c>
       <c r="E121">
-        <v>-1.69053805962277E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>879</v>
+      </c>
+      <c r="F121">
+        <v>-3.114459122725424</v>
+      </c>
+      <c r="G121">
+        <v>-0.01699538656481436</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>1099</v>
       </c>
       <c r="B122">
-        <v>2.1659999999999999</v>
+        <v>2.166</v>
       </c>
       <c r="C122">
-        <v>0.9</v>
+        <v>0.899909008189263</v>
       </c>
       <c r="D122">
-        <v>-3.1615823592959988</v>
+        <v>110</v>
       </c>
       <c r="E122">
-        <v>-1.4570337428491511E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>989</v>
+      </c>
+      <c r="F122">
+        <v>-3.161762442057014</v>
+      </c>
+      <c r="G122">
+        <v>-0.01479542317379995</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>1099</v>
       </c>
       <c r="B123">
-        <v>2.1659999999999999</v>
+        <v>2.166</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>-3.1964703016058191</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1099</v>
+      </c>
+      <c r="F123">
+        <v>-3.196470301605819</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>1687</v>
       </c>
       <c r="B124">
-        <v>2.5270000000000001</v>
+        <v>2.527</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124">
-        <v>-2.7362011432848909</v>
+        <v>1687</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>-2.736201143284891</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>1687</v>
       </c>
       <c r="B125">
-        <v>2.5270000000000001</v>
+        <v>2.527</v>
       </c>
       <c r="C125">
-        <v>0.1</v>
+        <v>0.09958506224066389</v>
       </c>
       <c r="D125">
-        <v>-2.7777922178988921</v>
+        <v>1519</v>
       </c>
       <c r="E125">
-        <v>8.4953191952785723E-3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="F125">
+        <v>-2.777792217898892</v>
+      </c>
+      <c r="G125">
+        <v>0.008287491835074157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>1687</v>
       </c>
       <c r="B126">
-        <v>2.5270000000000001</v>
+        <v>2.527</v>
       </c>
       <c r="C126">
-        <v>0.2</v>
+        <v>0.1997628927089508</v>
       </c>
       <c r="D126">
-        <v>-2.8225136866037142</v>
+        <v>1350</v>
       </c>
       <c r="E126">
-        <v>1.386024429973576E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="F126">
+        <v>-2.82340439986955</v>
+      </c>
+      <c r="G126">
+        <v>0.01285077254235345</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>1687</v>
       </c>
       <c r="B127">
-        <v>2.5270000000000001</v>
+        <v>2.527</v>
       </c>
       <c r="C127">
-        <v>0.3</v>
+        <v>0.2999407231772377</v>
       </c>
       <c r="D127">
-        <v>-2.8730400984698878</v>
+        <v>1181</v>
       </c>
       <c r="E127">
-        <v>1.342022624284067E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="F127">
+        <v>-2.873040098469888</v>
+      </c>
+      <c r="G127">
+        <v>0.01339053661995404</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>1687</v>
       </c>
       <c r="B128">
-        <v>2.5270000000000001</v>
+        <v>2.527</v>
       </c>
       <c r="C128">
-        <v>0.4</v>
+        <v>0.3995257854179016</v>
       </c>
       <c r="D128">
-        <v>-2.9294503105514669</v>
+        <v>1013</v>
       </c>
       <c r="E128">
-        <v>7.0964079705404526E-3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+      <c r="F128">
+        <v>-2.929450310551467</v>
+      </c>
+      <c r="G128">
+        <v>0.006858890987449628</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>1687</v>
       </c>
       <c r="B129">
-        <v>2.5270000000000001</v>
+        <v>2.527</v>
       </c>
       <c r="C129">
-        <v>0.5</v>
+        <v>0.4997036158861885</v>
       </c>
       <c r="D129">
-        <v>-2.9913745720873131</v>
+        <v>844</v>
       </c>
       <c r="E129">
-        <v>-4.7414597560258009E-3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>843</v>
+      </c>
+      <c r="F129">
+        <v>-2.991374572087313</v>
+      </c>
+      <c r="G129">
+        <v>-0.004889907870457622</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>1687</v>
       </c>
       <c r="B130">
-        <v>2.5270000000000001</v>
+        <v>2.527</v>
       </c>
       <c r="C130">
-        <v>0.60000000000000009</v>
+        <v>0.5998814463544754</v>
       </c>
       <c r="D130">
-        <v>-3.0580805193813432</v>
+        <v>675</v>
       </c>
       <c r="E130">
-        <v>-2.1361013240777101E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1012</v>
+      </c>
+      <c r="F130">
+        <v>-3.058080519381343</v>
+      </c>
+      <c r="G130">
+        <v>-0.02142039248654992</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>1687</v>
       </c>
       <c r="B131">
-        <v>2.5270000000000001</v>
+        <v>2.527</v>
       </c>
       <c r="C131">
-        <v>0.70000000000000007</v>
+        <v>0.6994665085951393</v>
       </c>
       <c r="D131">
-        <v>-3.1116622478766449</v>
+        <v>507</v>
       </c>
       <c r="E131">
-        <v>-2.4856347926800249E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1180</v>
+      </c>
+      <c r="F131">
+        <v>-3.111951769103977</v>
+      </c>
+      <c r="G131">
+        <v>-0.02541307576010932</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>1687</v>
       </c>
       <c r="B132">
-        <v>2.5270000000000001</v>
+        <v>2.527</v>
       </c>
       <c r="C132">
-        <v>0.8</v>
+        <v>0.7996443390634262</v>
       </c>
       <c r="D132">
-        <v>-3.1525858423332451</v>
+        <v>338</v>
       </c>
       <c r="E132">
-        <v>-1.5693548574120642E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1349</v>
+      </c>
+      <c r="F132">
+        <v>-3.152585842333245</v>
+      </c>
+      <c r="G132">
+        <v>-0.01587168631143909</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>1687</v>
       </c>
       <c r="B133">
-        <v>2.5270000000000001</v>
+        <v>2.527</v>
       </c>
       <c r="C133">
-        <v>0.9</v>
+        <v>0.8998221695317131</v>
       </c>
       <c r="D133">
+        <v>169</v>
+      </c>
+      <c r="E133">
+        <v>1518</v>
+      </c>
+      <c r="F133">
         <v>-3.198278593312708</v>
       </c>
-      <c r="E133">
-        <v>-1.1299905744304671E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <v>-0.01138897461296368</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>1687</v>
       </c>
       <c r="B134">
-        <v>2.5270000000000001</v>
+        <v>2.527</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>-3.2370650813776831</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1687</v>
+      </c>
+      <c r="F134">
+        <v>-3.237065081377683</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>2457</v>
       </c>
       <c r="B135">
-        <v>2.8879999999999999</v>
+        <v>2.888</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
+        <v>2457</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
         <v>-2.760064722715406</v>
       </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>2457</v>
       </c>
       <c r="B136">
-        <v>2.8879999999999999</v>
+        <v>2.888</v>
       </c>
       <c r="C136">
-        <v>0.1</v>
+        <v>0.09971509971509972</v>
       </c>
       <c r="D136">
-        <v>-2.7999565242847422</v>
+        <v>2212</v>
       </c>
       <c r="E136">
-        <v>1.063141708375381E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="F136">
+        <v>-2.799956524284742</v>
+      </c>
+      <c r="G136">
+        <v>0.01048747628987012</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>2457</v>
       </c>
       <c r="B137">
-        <v>2.8879999999999999</v>
+        <v>2.888</v>
       </c>
       <c r="C137">
-        <v>0.2</v>
+        <v>0.1998371998371998</v>
       </c>
       <c r="D137">
-        <v>-2.8449057223550329</v>
+        <v>1966</v>
       </c>
       <c r="E137">
-        <v>1.6205437666552139E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="F137">
+        <v>-2.844905722355033</v>
+      </c>
+      <c r="G137">
+        <v>0.01612318578433314</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>2457</v>
       </c>
       <c r="B138">
-        <v>2.8879999999999999</v>
+        <v>2.888</v>
       </c>
       <c r="C138">
-        <v>0.3</v>
+        <v>0.2999592999593</v>
       </c>
       <c r="D138">
-        <v>-2.8941897654434658</v>
+        <v>1720</v>
       </c>
       <c r="E138">
-        <v>1.744461323120872E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+      <c r="F138">
+        <v>-2.894410299276742</v>
+      </c>
+      <c r="G138">
+        <v>0.01720351642737805</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>2457</v>
       </c>
       <c r="B139">
-        <v>2.8879999999999999</v>
+        <v>2.888</v>
       </c>
       <c r="C139">
-        <v>0.4</v>
+        <v>0.3996743996743997</v>
       </c>
       <c r="D139">
-        <v>-2.9493694848511498</v>
+        <v>1475</v>
       </c>
       <c r="E139">
-        <v>1.278811247661427E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>982</v>
+      </c>
+      <c r="F139">
+        <v>-2.94936948485115</v>
+      </c>
+      <c r="G139">
+        <v>0.01262360871217605</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>2457</v>
       </c>
       <c r="B140">
-        <v>2.8879999999999999</v>
+        <v>2.888</v>
       </c>
       <c r="C140">
-        <v>0.5</v>
+        <v>0.4997964997964998</v>
       </c>
       <c r="D140">
-        <v>-3.0095105072292512</v>
+        <v>1229</v>
       </c>
       <c r="E140">
-        <v>3.1703087516030681E-3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1228</v>
+      </c>
+      <c r="F140">
+        <v>-3.009795102227627</v>
+      </c>
+      <c r="G140">
+        <v>0.002782898900453468</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>2457</v>
       </c>
       <c r="B141">
-        <v>2.8879999999999999</v>
+        <v>2.888</v>
       </c>
       <c r="C141">
-        <v>0.60000000000000009</v>
+        <v>0.5999185999186</v>
       </c>
       <c r="D141">
-        <v>-3.0754053337054059</v>
+        <v>983</v>
       </c>
       <c r="E141">
-        <v>-1.2201299071461721E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1474</v>
+      </c>
+      <c r="F141">
+        <v>-3.075483109690572</v>
+      </c>
+      <c r="G141">
+        <v>-0.0123202009977379</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>2457</v>
       </c>
       <c r="B142">
-        <v>2.8879999999999999</v>
+        <v>2.888</v>
       </c>
       <c r="C142">
-        <v>0.70000000000000007</v>
+        <v>0.6996336996336996</v>
       </c>
       <c r="D142">
-        <v>-3.1407821576287418</v>
+        <v>738</v>
       </c>
       <c r="E142">
-        <v>-2.7054904341708541E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1719</v>
+      </c>
+      <c r="F142">
+        <v>-3.14081162466198</v>
+      </c>
+      <c r="G142">
+        <v>-0.02726943810993931</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>2457</v>
       </c>
       <c r="B143">
-        <v>2.8879999999999999</v>
+        <v>2.888</v>
       </c>
       <c r="C143">
-        <v>0.8</v>
+        <v>0.7997557997557998</v>
       </c>
       <c r="D143">
-        <v>-3.179786579682363</v>
+        <v>492</v>
       </c>
       <c r="E143">
-        <v>-1.5536107742240009E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1965</v>
+      </c>
+      <c r="F143">
+        <v>-3.179895082197853</v>
+      </c>
+      <c r="G143">
+        <v>-0.01576798808105817</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>2457</v>
       </c>
       <c r="B144">
-        <v>2.8879999999999999</v>
+        <v>2.888</v>
       </c>
       <c r="C144">
-        <v>0.9</v>
+        <v>0.8998778998778999</v>
       </c>
       <c r="D144">
-        <v>-3.2247439813204011</v>
+        <v>246</v>
       </c>
       <c r="E144">
-        <v>-9.9702907271879138E-3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2211</v>
+      </c>
+      <c r="F144">
+        <v>-3.224743981320401</v>
+      </c>
+      <c r="G144">
+        <v>-0.01003197963885216</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>2457</v>
       </c>
       <c r="B145">
-        <v>2.8879999999999999</v>
+        <v>2.888</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>-3.2652969092463029</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2457</v>
+      </c>
+      <c r="F145">
+        <v>-3.265296909246303</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>3429</v>
       </c>
       <c r="B146">
-        <v>3.2490000000000001</v>
+        <v>3.249</v>
       </c>
       <c r="C146">
         <v>0</v>
       </c>
       <c r="D146">
-        <v>-2.7806625550166801</v>
+        <v>3429</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>-2.78066255501668</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>3429</v>
       </c>
       <c r="B147">
-        <v>3.2490000000000001</v>
+        <v>3.249</v>
       </c>
       <c r="C147">
-        <v>0.1</v>
+        <v>0.09973753280839895</v>
       </c>
       <c r="D147">
-        <v>-2.8198173608495249</v>
+        <v>3087</v>
       </c>
       <c r="E147">
-        <v>1.17454578860956E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="F147">
+        <v>-2.820191428814307</v>
+      </c>
+      <c r="G147">
+        <v>0.01123779342861297</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>3429</v>
       </c>
       <c r="B148">
-        <v>3.2490000000000001</v>
+        <v>3.249</v>
       </c>
       <c r="C148">
-        <v>0.2</v>
+        <v>0.199766695829688</v>
       </c>
       <c r="D148">
-        <v>-2.864010308797396</v>
+        <v>2744</v>
       </c>
       <c r="E148">
-        <v>1.84527736571658E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+      <c r="F148">
+        <v>-2.864325712509463</v>
+      </c>
+      <c r="G148">
+        <v>0.01801861750714195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>3429</v>
       </c>
       <c r="B149">
-        <v>3.2490000000000001</v>
+        <v>3.249</v>
       </c>
       <c r="C149">
-        <v>0.3</v>
+        <v>0.299795858850977</v>
       </c>
       <c r="D149">
-        <v>-2.9124447612302822</v>
+        <v>2401</v>
       </c>
       <c r="E149">
-        <v>2.091858494322052E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+      <c r="F149">
+        <v>-2.912884815196636</v>
+      </c>
+      <c r="G149">
+        <v>0.02037462259365452</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>3429</v>
       </c>
       <c r="B150">
-        <v>3.2490000000000001</v>
+        <v>3.249</v>
       </c>
       <c r="C150">
-        <v>0.4</v>
+        <v>0.399825021872266</v>
       </c>
       <c r="D150">
-        <v>-2.9673075715264732</v>
+        <v>2058</v>
       </c>
       <c r="E150">
-        <v>1.6956038365969931E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1371</v>
+      </c>
+      <c r="F150">
+        <v>-2.967307571526473</v>
+      </c>
+      <c r="G150">
+        <v>0.0168669740375027</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>3429</v>
       </c>
       <c r="B151">
-        <v>3.2490000000000001</v>
+        <v>3.249</v>
       </c>
       <c r="C151">
-        <v>0.5</v>
+        <v>0.499854184893555</v>
       </c>
       <c r="D151">
-        <v>-3.0270612912497752</v>
+        <v>1715</v>
       </c>
       <c r="E151">
-        <v>8.1025823616089898E-3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1714</v>
+      </c>
+      <c r="F151">
+        <v>-3.027061291249775</v>
+      </c>
+      <c r="G151">
+        <v>0.008028362087886487</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>3429</v>
       </c>
       <c r="B152">
-        <v>3.2490000000000001</v>
+        <v>3.249</v>
       </c>
       <c r="C152">
-        <v>0.60000000000000009</v>
+        <v>0.599883347914844</v>
       </c>
       <c r="D152">
+        <v>1372</v>
+      </c>
+      <c r="E152">
+        <v>2057</v>
+      </c>
+      <c r="F152">
         <v>-3.091028698027825</v>
       </c>
-      <c r="E152">
-        <v>-4.9645606974999526E-3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <v>-0.005023936916478178</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>3429</v>
       </c>
       <c r="B153">
-        <v>3.2490000000000001</v>
+        <v>3.249</v>
       </c>
       <c r="C153">
-        <v>0.70000000000000007</v>
+        <v>0.6999125109361329</v>
       </c>
       <c r="D153">
-        <v>-3.160503308621855</v>
+        <v>1029</v>
       </c>
       <c r="E153">
-        <v>-2.3538907572589141E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2400</v>
+      </c>
+      <c r="F153">
+        <v>-3.160524633688155</v>
+      </c>
+      <c r="G153">
+        <v>-0.02360476480312368</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>3429</v>
       </c>
       <c r="B154">
-        <v>3.2490000000000001</v>
+        <v>3.249</v>
       </c>
       <c r="C154">
-        <v>0.8</v>
+        <v>0.799941673957422</v>
       </c>
       <c r="D154">
+        <v>686</v>
+      </c>
+      <c r="E154">
+        <v>2743</v>
+      </c>
+      <c r="F154">
         <v>-3.204088082835193</v>
       </c>
-      <c r="E154">
-        <v>-1.6223418066986461E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <v>-0.01625310617647591</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>3429</v>
       </c>
       <c r="B155">
-        <v>3.2490000000000001</v>
+        <v>3.249</v>
       </c>
       <c r="C155">
-        <v>0.9</v>
+        <v>0.8999708369787109</v>
       </c>
       <c r="D155">
-        <v>-3.2476230336280172</v>
+        <v>343</v>
       </c>
       <c r="E155">
-        <v>-8.8581051408700429E-3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3086</v>
+      </c>
+      <c r="F155">
+        <v>-3.247623033628017</v>
+      </c>
+      <c r="G155">
+        <v>-0.008872949195614821</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>3429</v>
       </c>
       <c r="B156">
-        <v>3.2490000000000001</v>
+        <v>3.249</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>-3.2896651922060869</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3429</v>
+      </c>
+      <c r="F156">
+        <v>-3.289665192206087</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>4631</v>
       </c>
@@ -3107,13 +3997,19 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>-2.7961165001085089</v>
+        <v>4631</v>
       </c>
       <c r="E157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>-2.796116500108509</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>4631</v>
       </c>
@@ -3121,16 +4017,22 @@
         <v>3.61</v>
       </c>
       <c r="C158">
-        <v>0.1</v>
+        <v>0.09997840639170806</v>
       </c>
       <c r="D158">
+        <v>4168</v>
+      </c>
+      <c r="E158">
+        <v>463</v>
+      </c>
+      <c r="F158">
         <v>-2.834573058637631</v>
       </c>
-      <c r="E158">
-        <v>1.272659096436346E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <v>0.01271553867555042</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>4631</v>
       </c>
@@ -3138,16 +4040,22 @@
         <v>3.61</v>
       </c>
       <c r="C159">
-        <v>0.2</v>
+        <v>0.1999568127834161</v>
       </c>
       <c r="D159">
-        <v>-2.8785151722467561</v>
+        <v>3705</v>
       </c>
       <c r="E159">
-        <v>1.9967626848724329E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+      <c r="F159">
+        <v>-2.878769380145376</v>
+      </c>
+      <c r="G159">
+        <v>0.01969131437247862</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>4631</v>
       </c>
@@ -3155,16 +4063,22 @@
         <v>3.61</v>
       </c>
       <c r="C160">
-        <v>0.3</v>
+        <v>0.2999352191751242</v>
       </c>
       <c r="D160">
-        <v>-2.9271098739448398</v>
+        <v>3242</v>
       </c>
       <c r="E160">
-        <v>2.255607464412579E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+      <c r="F160">
+        <v>-2.92710987394484</v>
+      </c>
+      <c r="G160">
+        <v>0.02252291777768667</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>4631</v>
       </c>
@@ -3172,16 +4086,22 @@
         <v>3.61</v>
       </c>
       <c r="C161">
-        <v>0.4</v>
+        <v>0.3999136255668322</v>
       </c>
       <c r="D161">
-        <v>-2.9803235621708808</v>
+        <v>2779</v>
       </c>
       <c r="E161">
-        <v>2.0525535911571021E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1852</v>
+      </c>
+      <c r="F161">
+        <v>-2.980342047678735</v>
+      </c>
+      <c r="G161">
+        <v>0.0204628412484642</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>4631</v>
       </c>
@@ -3189,16 +4109,22 @@
         <v>3.61</v>
       </c>
       <c r="C162">
-        <v>0.5</v>
+        <v>0.4998920319585403</v>
       </c>
       <c r="D162">
-        <v>-3.0388618826839662</v>
+        <v>2316</v>
       </c>
       <c r="E162">
-        <v>1.3170364891970991E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2315</v>
+      </c>
+      <c r="F162">
+        <v>-3.039041888206531</v>
+      </c>
+      <c r="G162">
+        <v>0.01293509792534087</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>4631</v>
       </c>
@@ -3206,16 +4132,22 @@
         <v>3.61</v>
       </c>
       <c r="C163">
-        <v>0.60000000000000009</v>
+        <v>0.5998704383502483</v>
       </c>
       <c r="D163">
-        <v>-3.1027176137052099</v>
+        <v>1853</v>
       </c>
       <c r="E163">
-        <v>4.9778336421235636E-4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2778</v>
+      </c>
+      <c r="F163">
+        <v>-3.10271761370521</v>
+      </c>
+      <c r="G163">
+        <v>0.0004314696313336697</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>4631</v>
       </c>
@@ -3223,16 +4155,22 @@
         <v>3.61</v>
       </c>
       <c r="C164">
-        <v>0.70000000000000007</v>
+        <v>0.6998488447419564</v>
       </c>
       <c r="D164">
+        <v>1390</v>
+      </c>
+      <c r="E164">
+        <v>3241</v>
+      </c>
+      <c r="F164">
         <v>-3.171153896574348</v>
       </c>
-      <c r="E164">
-        <v>-1.675535001143913E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <v>-0.01683271603313086</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>4631</v>
       </c>
@@ -3240,16 +4178,22 @@
         <v>3.61</v>
       </c>
       <c r="C165">
-        <v>0.8</v>
+        <v>0.7998272511336645</v>
       </c>
       <c r="D165">
+        <v>927</v>
+      </c>
+      <c r="E165">
+        <v>3704</v>
+      </c>
+      <c r="F165">
         <v>-3.222456674602773</v>
       </c>
-      <c r="E165">
-        <v>-1.6874978546378431E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <v>-0.01696339685688319</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>4631</v>
       </c>
@@ -3257,16 +4201,22 @@
         <v>3.61</v>
       </c>
       <c r="C166">
-        <v>0.9</v>
+        <v>0.8998056575253724</v>
       </c>
       <c r="D166">
-        <v>-3.2650545118848942</v>
+        <v>464</v>
       </c>
       <c r="E166">
-        <v>-8.2896663350148225E-3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4167</v>
+      </c>
+      <c r="F166">
+        <v>-3.265054511884894</v>
+      </c>
+      <c r="G166">
+        <v>-0.008389136934332908</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>4631</v>
       </c>
@@ -3277,757 +4227,1027 @@
         <v>1</v>
       </c>
       <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>4631</v>
+      </c>
+      <c r="F167">
         <v>-3.307947995043365</v>
       </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>6083</v>
       </c>
       <c r="B168">
-        <v>3.9710000000000001</v>
+        <v>3.971</v>
       </c>
       <c r="C168">
         <v>0</v>
       </c>
       <c r="D168">
-        <v>-2.8098379591160438</v>
+        <v>6083</v>
       </c>
       <c r="E168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>-2.809837959116044</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>6083</v>
       </c>
       <c r="B169">
-        <v>3.9710000000000001</v>
+        <v>3.971</v>
       </c>
       <c r="C169">
-        <v>0.1</v>
+        <v>0.09995068222916324</v>
       </c>
       <c r="D169">
-        <v>-2.8483725136746618</v>
+        <v>5475</v>
       </c>
       <c r="E169">
-        <v>1.289976740483967E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+      <c r="F169">
+        <v>-2.848372513674662</v>
+      </c>
+      <c r="G169">
+        <v>0.01287440114380178</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>6083</v>
       </c>
       <c r="B170">
-        <v>3.9710000000000001</v>
+        <v>3.971</v>
       </c>
       <c r="C170">
-        <v>0.2</v>
+        <v>0.1999013644583265</v>
       </c>
       <c r="D170">
-        <v>-2.8913472159312841</v>
+        <v>4867</v>
       </c>
       <c r="E170">
-        <v>2.1359387111675069E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1216</v>
+      </c>
+      <c r="F170">
+        <v>-2.89141559657153</v>
+      </c>
+      <c r="G170">
+        <v>0.02124027394935402</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>6083</v>
       </c>
       <c r="B171">
-        <v>3.9710000000000001</v>
+        <v>3.971</v>
       </c>
       <c r="C171">
-        <v>0.3</v>
+        <v>0.2998520466874897</v>
       </c>
       <c r="D171">
+        <v>4259</v>
+      </c>
+      <c r="E171">
+        <v>1824</v>
+      </c>
+      <c r="F171">
         <v>-2.939146944871319</v>
       </c>
-      <c r="E171">
-        <v>2.4993980135097571E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <v>0.02491788135198569</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>6083</v>
       </c>
       <c r="B172">
-        <v>3.9710000000000001</v>
+        <v>3.971</v>
       </c>
       <c r="C172">
-        <v>0.4</v>
+        <v>0.3999671214861088</v>
       </c>
       <c r="D172">
+        <v>3650</v>
+      </c>
+      <c r="E172">
+        <v>2433</v>
+      </c>
+      <c r="F172">
         <v>-2.992547434764036</v>
       </c>
-      <c r="E172">
-        <v>2.3027812205836939E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <v>0.02301090136514539</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>6083</v>
       </c>
       <c r="B173">
-        <v>3.9710000000000001</v>
+        <v>3.971</v>
       </c>
       <c r="C173">
-        <v>0.5</v>
+        <v>0.4999178037152721</v>
       </c>
       <c r="D173">
-        <v>-3.0501539045234911</v>
+        <v>3042</v>
       </c>
       <c r="E173">
-        <v>1.6855664409839429E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3041</v>
+      </c>
+      <c r="F173">
+        <v>-3.050153904523491</v>
+      </c>
+      <c r="G173">
+        <v>0.01681338730811044</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>6083</v>
       </c>
       <c r="B174">
-        <v>3.9710000000000001</v>
+        <v>3.971</v>
       </c>
       <c r="C174">
-        <v>0.60000000000000009</v>
+        <v>0.5998684859444353</v>
       </c>
       <c r="D174">
+        <v>2434</v>
+      </c>
+      <c r="E174">
+        <v>3649</v>
+      </c>
+      <c r="F174">
         <v>-3.113380935655818</v>
       </c>
-      <c r="E174">
-        <v>5.0629552409700018E-3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <v>0.004995311878203568</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>6083</v>
       </c>
       <c r="B175">
-        <v>3.9710000000000001</v>
+        <v>3.971</v>
       </c>
       <c r="C175">
-        <v>0.70000000000000007</v>
+        <v>0.6999835607430545</v>
       </c>
       <c r="D175">
+        <v>1825</v>
+      </c>
+      <c r="E175">
+        <v>4258</v>
+      </c>
+      <c r="F175">
         <v>-3.180987167474838</v>
       </c>
-      <c r="E175">
-        <v>-1.1108954614593051E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <v>-0.01111741003493882</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>6083</v>
       </c>
       <c r="B176">
-        <v>3.9710000000000001</v>
+        <v>3.971</v>
       </c>
       <c r="C176">
-        <v>0.8</v>
+        <v>0.7999342429722176</v>
       </c>
       <c r="D176">
-        <v>-3.2389962480385961</v>
+        <v>1217</v>
       </c>
       <c r="E176">
-        <v>-1.768371321489326E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4866</v>
+      </c>
+      <c r="F176">
+        <v>-3.239083892037637</v>
+      </c>
+      <c r="G176">
+        <v>-0.01780517889531774</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>6083</v>
       </c>
       <c r="B177">
-        <v>3.9710000000000001</v>
+        <v>3.971</v>
       </c>
       <c r="C177">
-        <v>0.9</v>
+        <v>0.8998849252013809</v>
       </c>
       <c r="D177">
-        <v>-3.2804606692940022</v>
+        <v>609</v>
       </c>
       <c r="E177">
-        <v>-7.7138125068423316E-3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5474</v>
+      </c>
+      <c r="F177">
+        <v>-3.280460669294002</v>
+      </c>
+      <c r="G177">
+        <v>-0.007773000449262546</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>6083</v>
       </c>
       <c r="B178">
-        <v>3.9710000000000001</v>
+        <v>3.971</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>-3.3241811787506168</v>
+        <v>0</v>
       </c>
       <c r="E178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6083</v>
+      </c>
+      <c r="F178">
+        <v>-3.324181178750617</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>7813</v>
       </c>
       <c r="B179">
-        <v>4.3319999999999999</v>
+        <v>4.332</v>
       </c>
       <c r="C179">
         <v>0</v>
       </c>
       <c r="D179">
-        <v>-2.8206558085258311</v>
+        <v>7813</v>
       </c>
       <c r="E179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <v>-2.820655808525831</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>7813</v>
       </c>
       <c r="B180">
-        <v>4.3319999999999999</v>
+        <v>4.332</v>
       </c>
       <c r="C180">
-        <v>0.1</v>
+        <v>0.09996160245744272</v>
       </c>
       <c r="D180">
-        <v>-2.8585520044026178</v>
+        <v>7032</v>
       </c>
       <c r="E180">
-        <v>1.373614773690646E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+        <v>781</v>
+      </c>
+      <c r="F180">
+        <v>-2.858552004402618</v>
+      </c>
+      <c r="G180">
+        <v>0.01371632218579411</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>7813</v>
       </c>
       <c r="B181">
-        <v>4.3319999999999999</v>
+        <v>4.332</v>
       </c>
       <c r="C181">
-        <v>0.2</v>
+        <v>0.1999232049148854</v>
       </c>
       <c r="D181">
-        <v>-2.9012489229046499</v>
+        <v>6251</v>
       </c>
       <c r="E181">
-        <v>2.2671572848568019E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1562</v>
+      </c>
+      <c r="F181">
+        <v>-2.901388318885938</v>
+      </c>
+      <c r="G181">
+        <v>0.02249252576505567</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>7813</v>
       </c>
       <c r="B182">
-        <v>4.3319999999999999</v>
+        <v>4.332</v>
       </c>
       <c r="C182">
-        <v>0.3</v>
+        <v>0.2998848073723281</v>
       </c>
       <c r="D182">
-        <v>-2.9490890722275109</v>
+        <v>5470</v>
       </c>
       <c r="E182">
-        <v>2.646376713940057E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2343</v>
+      </c>
+      <c r="F182">
+        <v>-2.949089072227511</v>
+      </c>
+      <c r="G182">
+        <v>0.02640429048606352</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>7813</v>
       </c>
       <c r="B183">
-        <v>4.3319999999999999</v>
+        <v>4.332</v>
       </c>
       <c r="C183">
-        <v>0.4</v>
+        <v>0.3999744016382952</v>
       </c>
       <c r="D183">
-        <v>-3.0009814659088798</v>
+        <v>4688</v>
       </c>
       <c r="E183">
-        <v>2.620371707172553E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3125</v>
+      </c>
+      <c r="F183">
+        <v>-3.001333558228901</v>
+      </c>
+      <c r="G183">
+        <v>0.02583840771763013</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>7813</v>
       </c>
       <c r="B184">
-        <v>4.3319999999999999</v>
+        <v>4.332</v>
       </c>
       <c r="C184">
-        <v>0.5</v>
+        <v>0.4999360040957379</v>
       </c>
       <c r="D184">
-        <v>-3.0590289525695682</v>
+        <v>3907</v>
       </c>
       <c r="E184">
-        <v>1.9788574024731439E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3906</v>
+      </c>
+      <c r="F184">
+        <v>-3.059028952569568</v>
+      </c>
+      <c r="G184">
+        <v>0.01975553143954389</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>7813</v>
       </c>
       <c r="B185">
-        <v>4.3319999999999999</v>
+        <v>4.332</v>
       </c>
       <c r="C185">
-        <v>0.60000000000000009</v>
+        <v>0.5998976065531806</v>
       </c>
       <c r="D185">
+        <v>3126</v>
+      </c>
+      <c r="E185">
+        <v>4687</v>
+      </c>
+      <c r="F185">
         <v>-3.121374949610574</v>
       </c>
-      <c r="E185">
-        <v>9.0749205974187674E-3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G185">
+        <v>0.00902205246111909</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>7813</v>
       </c>
       <c r="B186">
-        <v>4.3319999999999999</v>
+        <v>4.332</v>
       </c>
       <c r="C186">
-        <v>0.70000000000000007</v>
+        <v>0.6999872008191476</v>
       </c>
       <c r="D186">
-        <v>-3.1885464851147538</v>
+        <v>2344</v>
       </c>
       <c r="E186">
-        <v>-6.4642712930677027E-3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5469</v>
+      </c>
+      <c r="F186">
+        <v>-3.188591782440583</v>
+      </c>
+      <c r="G186">
+        <v>-0.006516177135934442</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>7813</v>
       </c>
       <c r="B187">
-        <v>4.3319999999999999</v>
+        <v>4.332</v>
       </c>
       <c r="C187">
-        <v>0.8</v>
+        <v>0.7999488032765903</v>
       </c>
       <c r="D187">
-        <v>-3.2524177346579952</v>
+        <v>1563</v>
       </c>
       <c r="E187">
-        <v>-1.8703177222614938E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6250</v>
+      </c>
+      <c r="F187">
+        <v>-3.252417734657995</v>
+      </c>
+      <c r="G187">
+        <v>-0.01872961129076489</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>7813</v>
       </c>
       <c r="B188">
-        <v>4.3319999999999999</v>
+        <v>4.332</v>
       </c>
       <c r="C188">
-        <v>0.9</v>
+        <v>0.899910405734033</v>
       </c>
       <c r="D188">
-        <v>-3.2930128953523652</v>
+        <v>782</v>
       </c>
       <c r="E188">
-        <v>-7.6659943032916233E-3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7031</v>
+      </c>
+      <c r="F188">
+        <v>-3.293012895352365</v>
+      </c>
+      <c r="G188">
+        <v>-0.007712253922553869</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>7813</v>
       </c>
       <c r="B189">
-        <v>4.3319999999999999</v>
+        <v>4.332</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>-3.3369792446627669</v>
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7813</v>
+      </c>
+      <c r="F189">
+        <v>-3.336979244662767</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>9841</v>
       </c>
       <c r="B190">
-        <v>4.6929999999999996</v>
+        <v>4.693</v>
       </c>
       <c r="C190">
         <v>0</v>
       </c>
       <c r="D190">
+        <v>9841</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
         <v>-2.830446960793839</v>
       </c>
-      <c r="E190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>9841</v>
       </c>
       <c r="B191">
-        <v>4.6929999999999996</v>
+        <v>4.693</v>
       </c>
       <c r="C191">
-        <v>0.1</v>
+        <v>0.09998983843105376</v>
       </c>
       <c r="D191">
+        <v>8857</v>
+      </c>
+      <c r="E191">
+        <v>984</v>
+      </c>
+      <c r="F191">
         <v>-2.868308168955167</v>
       </c>
-      <c r="E191">
-        <v>1.3950363324405579E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G191">
+        <v>0.01394509845584668</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>9841</v>
       </c>
       <c r="B192">
-        <v>4.6929999999999996</v>
+        <v>4.693</v>
       </c>
       <c r="C192">
-        <v>0.2</v>
+        <v>0.1999796768621075</v>
       </c>
       <c r="D192">
-        <v>-2.9106660134998359</v>
+        <v>7873</v>
       </c>
       <c r="E192">
-        <v>2.34040902654713E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1968</v>
+      </c>
+      <c r="F192">
+        <v>-2.910666013499836</v>
+      </c>
+      <c r="G192">
+        <v>0.02339356052835395</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>9841</v>
       </c>
       <c r="B193">
-        <v>4.6929999999999996</v>
+        <v>4.693</v>
       </c>
       <c r="C193">
-        <v>0.3</v>
+        <v>0.2999695152931612</v>
       </c>
       <c r="D193">
-        <v>-2.9578727371756361</v>
+        <v>6889</v>
       </c>
       <c r="E193">
-        <v>2.8008938075405831E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2952</v>
+      </c>
+      <c r="F193">
+        <v>-2.957944860217919</v>
+      </c>
+      <c r="G193">
+        <v>0.0279210204274476</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>9841</v>
       </c>
       <c r="B194">
-        <v>4.6929999999999996</v>
+        <v>4.693</v>
       </c>
       <c r="C194">
-        <v>0.4</v>
+        <v>0.399959353724215</v>
       </c>
       <c r="D194">
-        <v>-3.0101779216547762</v>
+        <v>5905</v>
       </c>
       <c r="E194">
-        <v>2.751532508200016E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3936</v>
+      </c>
+      <c r="F194">
+        <v>-3.010177921654776</v>
+      </c>
+      <c r="G194">
+        <v>0.02749426560776569</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>9841</v>
       </c>
       <c r="B195">
-        <v>4.6929999999999996</v>
+        <v>4.693</v>
       </c>
       <c r="C195">
-        <v>0.5</v>
+        <v>0.4999491921552688</v>
       </c>
       <c r="D195">
-        <v>-3.0670807035831551</v>
+        <v>4921</v>
       </c>
       <c r="E195">
-        <v>2.2424114639355789E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4920</v>
+      </c>
+      <c r="F195">
+        <v>-3.067080703583155</v>
+      </c>
+      <c r="G195">
+        <v>0.02239779029656241</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>9841</v>
       </c>
       <c r="B196">
-        <v>4.6929999999999996</v>
+        <v>4.693</v>
       </c>
       <c r="C196">
-        <v>0.60000000000000009</v>
+        <v>0.5999390305863225</v>
       </c>
       <c r="D196">
+        <v>3937</v>
+      </c>
+      <c r="E196">
+        <v>5904</v>
+      </c>
+      <c r="F196">
         <v>-3.129010876247484</v>
       </c>
-      <c r="E196">
-        <v>1.230551346076192E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G196">
+        <v>0.0122739242494101</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>9841</v>
       </c>
       <c r="B197">
-        <v>4.6929999999999996</v>
+        <v>4.693</v>
       </c>
       <c r="C197">
-        <v>0.70000000000000007</v>
+        <v>0.6999288690173763</v>
       </c>
       <c r="D197">
-        <v>-3.1954816246508941</v>
+        <v>2953</v>
       </c>
       <c r="E197">
-        <v>-2.3536634569135679E-3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6888</v>
+      </c>
+      <c r="F197">
+        <v>-3.195738740162295</v>
+      </c>
+      <c r="G197">
+        <v>-0.002647633048225684</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>9841</v>
       </c>
       <c r="B198">
-        <v>4.6929999999999996</v>
+        <v>4.693</v>
       </c>
       <c r="C198">
-        <v>0.8</v>
+        <v>0.7999187074484301</v>
       </c>
       <c r="D198">
-        <v>-3.2647462158989402</v>
+        <v>1969</v>
       </c>
       <c r="E198">
-        <v>-1.9806683219225629E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7872</v>
+      </c>
+      <c r="F198">
+        <v>-3.26474621589894</v>
+      </c>
+      <c r="G198">
+        <v>-0.0198488021676948</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>9841</v>
       </c>
       <c r="B199">
-        <v>4.6929999999999996</v>
+        <v>4.693</v>
       </c>
       <c r="C199">
-        <v>0.9</v>
+        <v>0.8999085458794838</v>
       </c>
       <c r="D199">
-        <v>-3.3042581729998068</v>
+        <v>985</v>
       </c>
       <c r="E199">
-        <v>-7.5070688343585878E-3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8856</v>
+      </c>
+      <c r="F199">
+        <v>-3.304258172999807</v>
+      </c>
+      <c r="G199">
+        <v>-0.007554452651386323</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>9841</v>
       </c>
       <c r="B200">
-        <v>4.6929999999999996</v>
+        <v>4.693</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>-3.3485626756511828</v>
+        <v>0</v>
       </c>
       <c r="E200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9841</v>
+      </c>
+      <c r="F200">
+        <v>-3.348562675651183</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>12195</v>
       </c>
       <c r="B201">
-        <v>5.0540000000000003</v>
+        <v>5.054</v>
       </c>
       <c r="C201">
         <v>0</v>
       </c>
       <c r="D201">
-        <v>-2.8384406710735379</v>
+        <v>12195</v>
       </c>
       <c r="E201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201">
+        <v>-2.838440671073538</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>12195</v>
       </c>
       <c r="B202">
-        <v>5.0540000000000003</v>
+        <v>5.054</v>
       </c>
       <c r="C202">
-        <v>0.1</v>
+        <v>0.09995899958999591</v>
       </c>
       <c r="D202">
-        <v>-2.8759995456606018</v>
+        <v>10976</v>
       </c>
       <c r="E202">
-        <v>1.439902244274638E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1219</v>
+      </c>
+      <c r="F202">
+        <v>-2.875999545660602</v>
+      </c>
+      <c r="G202">
+        <v>0.01437771949193412</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>12195</v>
       </c>
       <c r="B203">
-        <v>5.0540000000000003</v>
+        <v>5.054</v>
       </c>
       <c r="C203">
         <v>0.2</v>
       </c>
       <c r="D203">
-        <v>-2.91800498198082</v>
+        <v>9756</v>
       </c>
       <c r="E203">
-        <v>2.435148315233748E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2439</v>
+      </c>
+      <c r="F203">
+        <v>-2.918222720571989</v>
+      </c>
+      <c r="G203">
+        <v>0.02413374456116868</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>12195</v>
       </c>
       <c r="B204">
-        <v>5.0540000000000003</v>
+        <v>5.054</v>
       </c>
       <c r="C204">
-        <v>0.3</v>
+        <v>0.2999589995899959</v>
       </c>
       <c r="D204">
-        <v>-2.9653557375790038</v>
+        <v>8537</v>
       </c>
       <c r="E204">
-        <v>2.895862458396414E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3658</v>
+      </c>
+      <c r="F204">
+        <v>-2.965355737579004</v>
+      </c>
+      <c r="G204">
+        <v>0.02893732163315255</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>12195</v>
       </c>
       <c r="B205">
-        <v>5.0540000000000003</v>
+        <v>5.054</v>
       </c>
       <c r="C205">
         <v>0.4</v>
       </c>
       <c r="D205">
-        <v>-3.0171280451915381</v>
+        <v>7317</v>
       </c>
       <c r="E205">
-        <v>2.9144214001240121E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4878</v>
+      </c>
+      <c r="F205">
+        <v>-3.017128045191538</v>
+      </c>
+      <c r="G205">
+        <v>0.02914421400124012</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>12195</v>
       </c>
       <c r="B206">
-        <v>5.0540000000000003</v>
+        <v>5.054</v>
       </c>
       <c r="C206">
-        <v>0.5</v>
+        <v>0.4999589995899959</v>
       </c>
       <c r="D206">
-        <v>-3.0735737271528669</v>
+        <v>6098</v>
       </c>
       <c r="E206">
-        <v>2.465642906972065E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6097</v>
+      </c>
+      <c r="F206">
+        <v>-3.073658320171178</v>
+      </c>
+      <c r="G206">
+        <v>0.0245505331005984</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>12195</v>
       </c>
       <c r="B207">
-        <v>5.0540000000000003</v>
+        <v>5.054</v>
       </c>
       <c r="C207">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="D207">
-        <v>-3.134763917942093</v>
+        <v>4878</v>
       </c>
       <c r="E207">
-        <v>1.5424135310304621E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7317</v>
+      </c>
+      <c r="F207">
+        <v>-3.134854583453265</v>
+      </c>
+      <c r="G207">
+        <v>0.01533346979913275</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>12195</v>
       </c>
       <c r="B208">
-        <v>5.0540000000000003</v>
+        <v>5.054</v>
       </c>
       <c r="C208">
-        <v>0.70000000000000007</v>
+        <v>0.6999589995899959</v>
       </c>
       <c r="D208">
-        <v>-3.2011974893250512</v>
+        <v>3659</v>
       </c>
       <c r="E208">
-        <v>9.4846095715650502E-4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8536</v>
+      </c>
+      <c r="F208">
+        <v>-3.201282974759634</v>
+      </c>
+      <c r="G208">
+        <v>0.000841672571761376</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>12195</v>
       </c>
       <c r="B209">
-        <v>5.0540000000000003</v>
+        <v>5.054</v>
       </c>
       <c r="C209">
         <v>0.8</v>
       </c>
       <c r="D209">
-        <v>-3.2723256619136811</v>
+        <v>2439</v>
       </c>
       <c r="E209">
-        <v>-1.8221814601663722E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9756</v>
+      </c>
+      <c r="F209">
+        <v>-3.272325661913681</v>
+      </c>
+      <c r="G209">
+        <v>-0.01822181460166372</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>12195</v>
       </c>
       <c r="B210">
-        <v>5.0540000000000003</v>
+        <v>5.054</v>
       </c>
       <c r="C210">
-        <v>0.9</v>
+        <v>0.8999589995899959</v>
       </c>
       <c r="D210">
-        <v>-3.3136911936964388</v>
+        <v>1220</v>
       </c>
       <c r="E210">
-        <v>-7.6294493546117392E-3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10975</v>
+      </c>
+      <c r="F210">
+        <v>-3.313691193696439</v>
+      </c>
+      <c r="G210">
+        <v>-0.007650752305423669</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>12195</v>
       </c>
       <c r="B211">
-        <v>5.0540000000000003</v>
+        <v>5.054</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>-3.3580196413716372</v>
+        <v>0</v>
       </c>
       <c r="E211">
+        <v>12195</v>
+      </c>
+      <c r="F211">
+        <v>-3.358019641371637</v>
+      </c>
+      <c r="G211">
         <v>0</v>
       </c>
     </row>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.386571345112431</v>
+        <v>-2.387026291166476</v>
       </c>
       <c r="G25">
         <v>-0.02055340699899344</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.44938213879192</v>
+        <v>-2.450064496648838</v>
       </c>
       <c r="G32">
         <v>-0.03646813961158091</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.501489929783931</v>
+        <v>-2.501737069040311</v>
       </c>
       <c r="G39">
         <v>-0.04167986953669045</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.508481807064475</v>
+        <v>-2.50984652277831</v>
       </c>
       <c r="G40">
         <v>-0.0419723095219624</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.517085539315233</v>
+        <v>-2.517767897172152</v>
       </c>
       <c r="G41">
         <v>-0.04387660447744901</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.524077416595777</v>
+        <v>-2.524512635196314</v>
       </c>
       <c r="G42">
         <v>-0.04416904446272141</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.56288381088362</v>
+        <v>-2.563566168740538</v>
       </c>
       <c r="G47">
         <v>-0.0494782522742061</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.552588807142164</v>
+        <v>-2.554342668790242</v>
       </c>
       <c r="G81">
         <v>-0.00515449864613382</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.607096557745885</v>
+        <v>-2.607751150903224</v>
       </c>
       <c r="G82">
         <v>-0.01413249640832692</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-2.666942119698688</v>
+        <v>-2.667726810345924</v>
       </c>
       <c r="G83">
         <v>-0.0284483055196032</v>
@@ -2324,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-2.725070684334797</v>
+        <v>-2.725301873596344</v>
       </c>
       <c r="G84">
         <v>-0.0410471173141842</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-2.808804394472701</v>
+        <v>-2.809045686603432</v>
       </c>
       <c r="G86">
         <v>-0.03372132176903331</v>
@@ -2439,7 +2439,7 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-2.928853070834172</v>
+        <v>-2.929395910502819</v>
       </c>
       <c r="G89">
         <v>-0.01718073960592126</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-2.63637874819246</v>
+        <v>-2.637358571288096</v>
       </c>
       <c r="G92">
         <v>0.002478161116974853</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-2.744987364742169</v>
+        <v>-2.7454334690073</v>
       </c>
       <c r="G94">
         <v>-0.01123473537966069</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.808104101204859</v>
+        <v>-2.808532587453714</v>
       </c>
       <c r="G95">
         <v>-0.02625364113051898</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-2.906828639123284</v>
+        <v>-2.907464913338933</v>
       </c>
       <c r="G97">
         <v>-0.03008245899587125</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-2.949889784745411</v>
+        <v>-2.950314229702587</v>
       </c>
       <c r="G98">
         <v>-0.02634571527675611</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-2.997817626829905</v>
+        <v>-2.998176418114278</v>
       </c>
       <c r="G99">
         <v>-0.02617572664941925</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.753779332687201</v>
+        <v>-2.753836238350858</v>
       </c>
       <c r="G104">
         <v>0.003888338593274199</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-2.930733542232905</v>
+        <v>-2.930786027900111</v>
       </c>
       <c r="G107">
         <v>-0.02734235617015557</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-2.984207394518163</v>
+        <v>-2.984406523565105</v>
       </c>
       <c r="G108">
         <v>-0.03175351754881883</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.116409226654731</v>
+        <v>-3.116484262605872</v>
       </c>
       <c r="G111">
         <v>-0.01823183490311209</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.743737860158025</v>
+        <v>-2.744173456367417</v>
       </c>
       <c r="G114">
         <v>0.007202896944352055</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-2.842595070745853</v>
+        <v>-2.842728674545618</v>
       </c>
       <c r="G116">
         <v>0.007352251801733489</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-2.899911274653246</v>
+        <v>-2.900138771028868</v>
       </c>
       <c r="G117">
         <v>-0.0004606693830553343</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.071752353632784</v>
+        <v>-3.072029309953218</v>
       </c>
       <c r="G120">
         <v>-0.02379190019477917</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.114459122725424</v>
+        <v>-3.114576209699289</v>
       </c>
       <c r="G121">
         <v>-0.01699538656481436</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-2.873040098469888</v>
+        <v>-2.873983985656562</v>
       </c>
       <c r="G127">
         <v>0.01339053661995404</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.058080519381343</v>
+        <v>-3.05809936818416</v>
       </c>
       <c r="G130">
         <v>-0.02142039248654992</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.198278593312708</v>
+        <v>-3.198305099617166</v>
       </c>
       <c r="G133">
         <v>-0.01138897461296368</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-2.894410299276742</v>
+        <v>-2.894531012596581</v>
       </c>
       <c r="G138">
         <v>0.01720351642737805</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-2.94936948485115</v>
+        <v>-2.949619087183043</v>
       </c>
       <c r="G139">
         <v>0.01262360871217605</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.009795102227627</v>
+        <v>-3.010135582698935</v>
       </c>
       <c r="G140">
         <v>0.002782898900453468</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.075483109690572</v>
+        <v>-3.075549223576122</v>
       </c>
       <c r="G141">
         <v>-0.0123202009977379</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.179895082197853</v>
+        <v>-3.180094573407112</v>
       </c>
       <c r="G143">
         <v>-0.01576798808105817</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-2.912884815196636</v>
+        <v>-2.912968686105928</v>
       </c>
       <c r="G149">
         <v>0.02037462259365452</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-2.967307571526473</v>
+        <v>-2.96751674056882</v>
       </c>
       <c r="G150">
         <v>0.0168669740375027</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.091028698027825</v>
+        <v>-3.091116222967576</v>
       </c>
       <c r="G152">
         <v>-0.005023936916478178</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.204088082835193</v>
+        <v>-3.204181382138731</v>
       </c>
       <c r="G154">
         <v>-0.01625310617647591</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.834573058637631</v>
+        <v>-2.835122434402994</v>
       </c>
       <c r="G158">
         <v>0.01271553867555042</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-2.980342047678735</v>
+        <v>-2.98037299473762</v>
       </c>
       <c r="G161">
         <v>0.0204628412484642</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.171153896574348</v>
+        <v>-3.171278489694969</v>
       </c>
       <c r="G164">
         <v>-0.01683271603313086</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-2.939146944871319</v>
+        <v>-2.939375694826081</v>
       </c>
       <c r="G171">
         <v>0.02491788135198569</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.050153904523491</v>
+        <v>-3.050288858626593</v>
       </c>
       <c r="G173">
         <v>0.01681338730811044</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.180987167474838</v>
+        <v>-3.181057949962694</v>
       </c>
       <c r="G175">
         <v>-0.01111741003493882</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.239083892037637</v>
+        <v>-3.23912686202795</v>
       </c>
       <c r="G176">
         <v>-0.01780517889531774</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.280460669294002</v>
+        <v>-3.280487801271222</v>
       </c>
       <c r="G177">
         <v>-0.007773000449262546</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.858552004402618</v>
+        <v>-2.858702256426616</v>
       </c>
       <c r="G180">
         <v>0.01371632218579411</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-2.901388318885938</v>
+        <v>-2.901577801251487</v>
       </c>
       <c r="G181">
         <v>0.02249252576505567</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.001333558228901</v>
+        <v>-3.001879199785396</v>
       </c>
       <c r="G183">
         <v>0.02583840771763013</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.188591782440583</v>
+        <v>-3.188732200158988</v>
       </c>
       <c r="G186">
         <v>-0.006516177135934442</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.252417734657995</v>
+        <v>-3.252445279559852</v>
       </c>
       <c r="G187">
         <v>-0.01872961129076489</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.868308168955167</v>
+        <v>-2.868339083380381</v>
       </c>
       <c r="G191">
         <v>0.01394509845584668</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-2.910666013499836</v>
+        <v>-2.910750487801556</v>
       </c>
       <c r="G192">
         <v>0.02339356052835395</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-2.957944860217919</v>
+        <v>-2.958104990588943</v>
       </c>
       <c r="G193">
         <v>0.0279210204274476</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.067080703583155</v>
+        <v>-3.067280149447566</v>
       </c>
       <c r="G195">
         <v>0.02239779029656241</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.129010876247484</v>
+        <v>-3.129021735756484</v>
       </c>
       <c r="G196">
         <v>0.0122739242494101</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.304258172999807</v>
+        <v>-3.30429557718929</v>
       </c>
       <c r="G199">
         <v>-0.007554452651386323</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-2.918222720571989</v>
+        <v>-2.918456831629367</v>
       </c>
       <c r="G203">
         <v>0.02413374456116868</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.134854583453265</v>
+        <v>-3.135088090220106</v>
       </c>
       <c r="G207">
         <v>0.01533346979913275</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.201282974759634</v>
+        <v>-3.201439997849587</v>
       </c>
       <c r="G208">
         <v>0.000841672571761376</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.524512635196314</v>
+        <v>-2.524759774452694</v>
       </c>
       <c r="G42">
         <v>-0.04416904446272141</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.555644794346698</v>
+        <v>-2.556574291459996</v>
       </c>
       <c r="G46">
         <v>-0.04893867303255584</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.579596996872379</v>
+        <v>-2.579844136128759</v>
       </c>
       <c r="G49">
         <v>-0.05279256367242202</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-2.809045686603432</v>
+        <v>-2.809820077341554</v>
       </c>
       <c r="G86">
         <v>-0.03372132176903331</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-2.637358571288096</v>
+        <v>-2.638224072172077</v>
       </c>
       <c r="G92">
         <v>0.002478161116974853</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-2.865934216510739</v>
+        <v>-2.866174503306909</v>
       </c>
       <c r="G96">
         <v>-0.03728586709515747</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-2.950314229702587</v>
+        <v>-2.950779876267255</v>
       </c>
       <c r="G98">
         <v>-0.02634571527675611</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-2.704533873597922</v>
+        <v>-2.704831189959056</v>
       </c>
       <c r="G103">
         <v>0.004071106775958455</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.024471900778685</v>
+        <v>-3.024637257377214</v>
       </c>
       <c r="G109">
         <v>-0.02368761187150059</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.116484262605872</v>
+        <v>-3.116546309153775</v>
       </c>
       <c r="G111">
         <v>-0.01823183490311209</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-2.929450310551467</v>
+        <v>-2.929858931595974</v>
       </c>
       <c r="G128">
         <v>0.006858890987449628</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.198305099617166</v>
+        <v>-3.198386666652199</v>
       </c>
       <c r="G133">
         <v>-0.01138897461296368</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.799956524284742</v>
+        <v>-2.800502159058269</v>
       </c>
       <c r="G136">
         <v>0.01048747628987012</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-2.894531012596581</v>
+        <v>-2.894682054983102</v>
       </c>
       <c r="G138">
         <v>0.01720351642737805</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-2.949619087183043</v>
+        <v>-2.949780040398724</v>
       </c>
       <c r="G139">
         <v>0.01262360871217605</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.010135582698935</v>
+        <v>-3.010528920885541</v>
       </c>
       <c r="G140">
         <v>0.002782898900453468</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.224743981320401</v>
+        <v>-3.224801401030148</v>
       </c>
       <c r="G144">
         <v>-0.01003197963885216</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-2.912968686105928</v>
+        <v>-2.913056217889646</v>
       </c>
       <c r="G149">
         <v>0.02037462259365452</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.091116222967576</v>
+        <v>-3.091374798994695</v>
       </c>
       <c r="G152">
         <v>-0.005023936916478178</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.160524633688155</v>
+        <v>-3.160561885329863</v>
       </c>
       <c r="G153">
         <v>-0.02360476480312368</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.247623033628017</v>
+        <v>-3.24764810714506</v>
       </c>
       <c r="G155">
         <v>-0.008872949195614821</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.039041888206531</v>
+        <v>-3.039205094524081</v>
       </c>
       <c r="G162">
         <v>0.01293509792534087</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.10271761370521</v>
+        <v>-3.102826968088055</v>
       </c>
       <c r="G163">
         <v>0.0004314696313336697</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-2.939375694826081</v>
+        <v>-2.939565600294058</v>
       </c>
       <c r="G171">
         <v>0.02491788135198569</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.059028952569568</v>
+        <v>-3.059123318547576</v>
       </c>
       <c r="G184">
         <v>0.01975553143954389</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.121374949610574</v>
+        <v>-3.121388026724854</v>
       </c>
       <c r="G185">
         <v>0.00902205246111909</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.293012895352365</v>
+        <v>-3.293056688941472</v>
       </c>
       <c r="G188">
         <v>-0.007712253922553869</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.067280149447566</v>
+        <v>-3.067292110072298</v>
       </c>
       <c r="G195">
         <v>0.02239779029656241</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.30429557718929</v>
+        <v>-3.304363188005428</v>
       </c>
       <c r="G199">
         <v>-0.007554452651386323</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.073658320171178</v>
+        <v>-3.073683726023883</v>
       </c>
       <c r="G206">
         <v>0.0245505331005984</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.442390261511377</v>
+        <v>-2.443072619368293</v>
       </c>
       <c r="G31">
         <v>-0.03617569962630962</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.457738731786298</v>
+        <v>-2.458421089643217</v>
       </c>
       <c r="G33">
         <v>-0.0381252953106872</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.49406283390285</v>
+        <v>-2.494745191759768</v>
       </c>
       <c r="G38">
         <v>-0.04095221095088108</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.501737069040311</v>
+        <v>-2.50192514838447</v>
       </c>
       <c r="G39">
         <v>-0.04167986953669045</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.50984652277831</v>
+        <v>-2.510093662034691</v>
       </c>
       <c r="G40">
         <v>-0.0419723095219624</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.556574291459996</v>
+        <v>-2.556821430716375</v>
       </c>
       <c r="G46">
         <v>-0.04893867303255584</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.563566168740538</v>
+        <v>-2.564248526597456</v>
       </c>
       <c r="G47">
         <v>-0.0494782522742061</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.594451188634541</v>
+        <v>-2.596063043604757</v>
       </c>
       <c r="G51">
         <v>-0.05424788084404053</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.612093871736597</v>
+        <v>-2.612776229593516</v>
       </c>
       <c r="G53">
         <v>-0.05849168935555382</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-2.667726810345924</v>
+        <v>-2.668006224181479</v>
       </c>
       <c r="G83">
         <v>-0.0284483055196032</v>
@@ -2324,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-2.725301873596344</v>
+        <v>-2.725322079334714</v>
       </c>
       <c r="G84">
         <v>-0.0410471173141842</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-2.766198508707774</v>
+        <v>-2.766419595100136</v>
       </c>
       <c r="G85">
         <v>-0.03664518884563384</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-2.809820077341554</v>
+        <v>-2.809840283079924</v>
       </c>
       <c r="G86">
         <v>-0.03372132176903331</v>
@@ -2393,7 +2393,7 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-2.853914127367614</v>
+        <v>-2.853934333105985</v>
       </c>
       <c r="G87">
         <v>-0.03330130182241875</v>
@@ -2439,7 +2439,7 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-2.929395910502819</v>
+        <v>-2.929489055467864</v>
       </c>
       <c r="G89">
         <v>-0.01718073960592126</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-2.998176418114278</v>
+        <v>-2.998449167920537</v>
       </c>
       <c r="G99">
         <v>-0.02617572664941925</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-2.866566729482904</v>
+        <v>-2.867319411782156</v>
       </c>
       <c r="G106">
         <v>-0.01150595535799392</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-2.930786027900111</v>
+        <v>-2.930982745869735</v>
       </c>
       <c r="G107">
         <v>-0.02734235617015557</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-2.984406523565105</v>
+        <v>-2.984613446253998</v>
       </c>
       <c r="G108">
         <v>-0.03175351754881883</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-2.900138771028868</v>
+        <v>-2.900359319058939</v>
       </c>
       <c r="G117">
         <v>-0.0004606693830553343</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.072029309953218</v>
+        <v>-3.072284461368678</v>
       </c>
       <c r="G120">
         <v>-0.02379190019477917</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.114576209699289</v>
+        <v>-3.114865761272247</v>
       </c>
       <c r="G121">
         <v>-0.01699538656481436</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-2.873983985656562</v>
+        <v>-2.874403934704516</v>
       </c>
       <c r="G127">
         <v>0.01339053661995404</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-2.929858931595974</v>
+        <v>-2.930246980063498</v>
       </c>
       <c r="G128">
         <v>0.006858890987449628</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.111951769103977</v>
+        <v>-3.111974179165091</v>
       </c>
       <c r="G131">
         <v>-0.02541307576010932</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.152585842333245</v>
+        <v>-3.152910967135278</v>
       </c>
       <c r="G132">
         <v>-0.01587168631143909</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-2.894682054983102</v>
+        <v>-2.895426348996775</v>
       </c>
       <c r="G138">
         <v>0.01720351642737805</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.160561885329863</v>
+        <v>-3.160621425021147</v>
       </c>
       <c r="G153">
         <v>-0.02360476480312368</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-2.98037299473762</v>
+        <v>-2.98048744742421</v>
       </c>
       <c r="G161">
         <v>0.0204628412484642</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.039205094524081</v>
+        <v>-3.039344182624676</v>
       </c>
       <c r="G162">
         <v>0.01293509792534087</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-2.89141559657153</v>
+        <v>-2.891650988503376</v>
       </c>
       <c r="G170">
         <v>0.02124027394935402</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-2.992547434764036</v>
+        <v>-2.992668195253204</v>
       </c>
       <c r="G172">
         <v>0.02301090136514539</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.050288858626593</v>
+        <v>-3.050711015714205</v>
       </c>
       <c r="G173">
         <v>0.01681338730811044</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.181057949962694</v>
+        <v>-3.181098374893471</v>
       </c>
       <c r="G175">
         <v>-0.01111741003493882</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.280487801271222</v>
+        <v>-3.280540645210347</v>
       </c>
       <c r="G177">
         <v>-0.007773000449262546</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.858702256426616</v>
+        <v>-2.858779952495334</v>
       </c>
       <c r="G180">
         <v>0.01371632218579411</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-2.901577801251487</v>
+        <v>-2.901848600702861</v>
       </c>
       <c r="G181">
         <v>0.02249252576505567</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.059123318547576</v>
+        <v>-3.059188190619775</v>
       </c>
       <c r="G184">
         <v>0.01975553143954389</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.121388026724854</v>
+        <v>-3.121451823619487</v>
       </c>
       <c r="G185">
         <v>0.00902205246111909</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-2.958104990588943</v>
+        <v>-2.958149789117791</v>
       </c>
       <c r="G193">
         <v>0.0279210204274476</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.135088090220106</v>
+        <v>-3.13510569755797</v>
       </c>
       <c r="G207">
         <v>0.01533346979913275</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.313691193696439</v>
+        <v>-3.313713740891226</v>
       </c>
       <c r="G210">
         <v>-0.007650752305423669</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.517767897172152</v>
+        <v>-2.518638334373228</v>
       </c>
       <c r="G41">
         <v>-0.04387660447744901</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.524759774452694</v>
+        <v>-2.525194993053233</v>
       </c>
       <c r="G42">
         <v>-0.04416904446272141</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.579844136128759</v>
+        <v>-2.580714573329834</v>
       </c>
       <c r="G49">
         <v>-0.05279256367242202</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.603243000229459</v>
+        <v>-2.604419636599136</v>
       </c>
       <c r="G52">
         <v>-0.05634025514368723</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.607751150903224</v>
+        <v>-2.609728479574625</v>
       </c>
       <c r="G82">
         <v>-0.01413249640832692</v>
@@ -2393,7 +2393,7 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-2.853934333105985</v>
+        <v>-2.854406814498264</v>
       </c>
       <c r="G87">
         <v>-0.03330130182241875</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-2.690264826320709</v>
+        <v>-2.690659113296769</v>
       </c>
       <c r="G93">
         <v>-0.003310086299442183</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-2.930982745869735</v>
+        <v>-2.931126432650348</v>
       </c>
       <c r="G107">
         <v>-0.02734235617015557</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-2.991374572087313</v>
+        <v>-2.991640988252577</v>
       </c>
       <c r="G129">
         <v>-0.004889907870457622</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.111974179165091</v>
+        <v>-3.112049601835111</v>
       </c>
       <c r="G131">
         <v>-0.02541307576010932</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.844905722355033</v>
+        <v>-2.845217631397768</v>
       </c>
       <c r="G137">
         <v>0.01612318578433314</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.848372513674662</v>
+        <v>-2.848484261357038</v>
       </c>
       <c r="G169">
         <v>0.01287440114380178</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.010177921654776</v>
+        <v>-3.010275210243351</v>
       </c>
       <c r="G194">
         <v>0.02749426560776569</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.875999545660602</v>
+        <v>-2.876046122709242</v>
       </c>
       <c r="G202">
         <v>0.01437771949193412</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.073683726023883</v>
+        <v>-3.073750916566847</v>
       </c>
       <c r="G206">
         <v>0.0245505331005984</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>n_atoms</t>
+    <t>num_atoms</t>
   </si>
   <si>
     <t>diameter</t>
@@ -438,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-1.98466167250952</v>
+        <v>-1.984661672509521</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-1.77635683940025e-15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -484,10 +484,10 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>-2.074350761232195</v>
+        <v>-2.074350761232194</v>
       </c>
       <c r="G4">
-        <v>-0.03379770394274573</v>
+        <v>-0.03379770394274528</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -556,7 +556,7 @@
         <v>-2.13832309947322</v>
       </c>
       <c r="G7">
-        <v>-0.01393296501387775</v>
+        <v>-0.01393296501387731</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -576,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>-2.162435760229498</v>
+        <v>-2.162435760229497</v>
       </c>
       <c r="G8">
-        <v>-0.01009993338019144</v>
+        <v>-0.01009993338019055</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -599,10 +599,10 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>-2.186548420985776</v>
+        <v>-2.186548420985775</v>
       </c>
       <c r="G9">
-        <v>-0.006266901746504461</v>
+        <v>-0.006266901746503128</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -622,10 +622,10 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>-2.210661081742054</v>
+        <v>-2.210661081742052</v>
       </c>
       <c r="G10">
-        <v>-0.002433870112817815</v>
+        <v>-0.002433870112816039</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -645,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>-2.234773742498332</v>
+        <v>-2.23477374249833</v>
       </c>
       <c r="G11">
-        <v>0.00139916152086883</v>
+        <v>0.001399161520871051</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -668,10 +668,10 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>-2.263069225268513</v>
+        <v>-2.263069225268511</v>
       </c>
       <c r="G12">
-        <v>0.001049371140651845</v>
+        <v>0.001049371140654065</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -691,10 +691,10 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>-2.287181886024792</v>
+        <v>-2.287181886024789</v>
       </c>
       <c r="G13">
-        <v>0.004882402774338268</v>
+        <v>0.004882402774341377</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -714,10 +714,10 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>-2.315477368794974</v>
+        <v>-2.31547736879497</v>
       </c>
       <c r="G14">
-        <v>0.004532612394120561</v>
+        <v>0.004532612394124558</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -737,10 +737,10 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>-2.347955673579059</v>
+        <v>-2.347955673579055</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>4.440892098500626e-15</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-2.305723002455992</v>
+        <v>-2.305723002455989</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>3.552713678800501e-15</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -783,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>-2.313839484973374</v>
+        <v>-2.313839484973372</v>
       </c>
       <c r="G17">
-        <v>-0.001417045222110058</v>
+        <v>-0.001417045222107838</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -806,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>-2.322513110347899</v>
+        <v>-2.322513110347897</v>
       </c>
       <c r="G18">
-        <v>-0.003391233301363705</v>
+        <v>-0.003391233301361485</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -829,10 +829,10 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>-2.331743878579566</v>
+        <v>-2.331743878579564</v>
       </c>
       <c r="G19">
-        <v>-0.005922564237758721</v>
+        <v>-0.005922564237756944</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.340417503954091</v>
+        <v>-2.340417503954089</v>
       </c>
       <c r="G20">
-        <v>-0.007896752317012368</v>
+        <v>-0.007896752317009703</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.349648272185759</v>
+        <v>-2.349648272185753</v>
       </c>
       <c r="G21">
-        <v>-0.01042808325340827</v>
+        <v>-0.01042808325340294</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.358321897560284</v>
+        <v>-2.357764754703136</v>
       </c>
       <c r="G22">
-        <v>-0.01240227133266147</v>
+        <v>-0.01184512847551389</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.368109808649094</v>
+        <v>-2.366995522934804</v>
       </c>
       <c r="G23">
-        <v>-0.01549074512620052</v>
+        <v>-0.01437645941191024</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.377340576880761</v>
+        <v>-2.376226291166471</v>
       </c>
       <c r="G24">
-        <v>-0.01802207606259598</v>
+        <v>-0.01690779034830614</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.387026291166476</v>
+        <v>-2.387026291166474</v>
       </c>
       <c r="G25">
-        <v>-0.02055340699899344</v>
+        <v>-0.0210083530530365</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.396814202255287</v>
+        <v>-2.396814202255285</v>
       </c>
       <c r="G26">
-        <v>-0.02409682684657821</v>
+        <v>-0.02409682684657555</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.40715925620124</v>
+        <v>-2.407159256201238</v>
       </c>
       <c r="G27">
-        <v>-0.02774244349725996</v>
+        <v>-0.02774244349725818</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.417504310147193</v>
+        <v>-2.417504310147192</v>
       </c>
       <c r="G28">
-        <v>-0.03138806014794082</v>
+        <v>-0.03138806014793993</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.42840650695029</v>
+        <v>-2.428406506950289</v>
       </c>
       <c r="G29">
-        <v>-0.03559081965576594</v>
+        <v>-0.03559081965576505</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.435398384230833</v>
+        <v>-2.435398384230832</v>
       </c>
       <c r="G30">
-        <v>-0.03588325964103722</v>
+        <v>-0.03588325964103678</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.443072619368293</v>
+        <v>-2.443072619368295</v>
       </c>
       <c r="G31">
-        <v>-0.03617569962630962</v>
+        <v>-0.03685805748322779</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.450064496648838</v>
+        <v>-2.449382138791919</v>
       </c>
       <c r="G32">
-        <v>-0.03646813961158091</v>
+        <v>-0.03646813961158002</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.458421089643217</v>
+        <v>-2.457056373929379</v>
       </c>
       <c r="G33">
-        <v>-0.0381252953106872</v>
+        <v>-0.03744293745376859</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.466095324780677</v>
+        <v>-2.464730609066842</v>
       </c>
       <c r="G34">
-        <v>-0.03978245100979483</v>
+        <v>-0.03841773529595982</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.473087202061221</v>
+        <v>-2.471040128490467</v>
       </c>
       <c r="G35">
-        <v>-0.040074890995067</v>
+        <v>-0.03802781742431338</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.480079079341764</v>
+        <v>-2.479396721484846</v>
       </c>
       <c r="G36">
-        <v>-0.04036733098033896</v>
+        <v>-0.03968497312342123</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.487753314479225</v>
+        <v>-2.487753314479226</v>
       </c>
       <c r="G37">
-        <v>-0.04134212882252797</v>
+        <v>-0.0413421288225293</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.494745191759768</v>
+        <v>-2.494062833902851</v>
       </c>
       <c r="G38">
-        <v>-0.04095221095088108</v>
+        <v>-0.04095221095088197</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.50192514838447</v>
+        <v>-2.501054711183393</v>
       </c>
       <c r="G39">
-        <v>-0.04167986953669045</v>
+        <v>-0.04124465093615326</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.510093662034691</v>
+        <v>-2.509164164921398</v>
       </c>
       <c r="G40">
-        <v>-0.0419723095219624</v>
+        <v>-0.04265466737888546</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.518638334373228</v>
+        <v>-2.516403181458318</v>
       </c>
       <c r="G41">
-        <v>-0.04387660447744901</v>
+        <v>-0.04319424662053395</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.525194993053233</v>
+        <v>-2.523830277339397</v>
       </c>
       <c r="G42">
-        <v>-0.04416904446272141</v>
+        <v>-0.04392190520634176</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.532869228190694</v>
+        <v>-2.532869228190699</v>
       </c>
       <c r="G43">
-        <v>-0.04626141876236733</v>
+        <v>-0.04626141876237266</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.540790602584535</v>
+        <v>-2.537814031900484</v>
       </c>
       <c r="G44">
-        <v>-0.04748335586093644</v>
+        <v>-0.04450678517688589</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.548217698465616</v>
+        <v>-2.542264557097517</v>
       </c>
       <c r="G45">
-        <v>-0.0482110144467458</v>
+        <v>-0.04225787307864648</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.556821430716375</v>
+        <v>-2.554032939376486</v>
       </c>
       <c r="G46">
-        <v>-0.04893867303255584</v>
+        <v>-0.04732681806234429</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.564248526597456</v>
+        <v>-2.564683745197998</v>
       </c>
       <c r="G47">
-        <v>-0.0494782522742061</v>
+        <v>-0.05127818658858452</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.572110841079077</v>
+        <v>-2.570310906764709</v>
       </c>
       <c r="G48">
-        <v>-0.05200584517439188</v>
+        <v>-0.05020591086002368</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.580714573329834</v>
+        <v>-2.57773800264579</v>
       </c>
       <c r="G49">
-        <v>-0.05279256367242202</v>
+        <v>-0.05093356944583349</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.588388808467297</v>
+        <v>-2.58770645061038</v>
       </c>
       <c r="G50">
-        <v>-0.05488493797206884</v>
+        <v>-0.054202580115152</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.596063043604757</v>
+        <v>-2.592156975807411</v>
       </c>
       <c r="G51">
-        <v>-0.05424788084404053</v>
+        <v>-0.05195366801691037</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.604419636599136</v>
+        <v>-2.602125423772011</v>
       </c>
       <c r="G52">
-        <v>-0.05634025514368723</v>
+        <v>-0.05522267868623898</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.612776229593516</v>
+        <v>-2.610234877510011</v>
       </c>
       <c r="G53">
-        <v>-0.05849168935555382</v>
+        <v>-0.05663269512896707</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.620203325474597</v>
+        <v>-2.619520967617688</v>
       </c>
       <c r="G54">
-        <v>-0.05990170579828158</v>
+        <v>-0.05921934794137318</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.628559918468977</v>
+        <v>-2.626948063498769</v>
       </c>
       <c r="G55">
-        <v>-0.06155886149738976</v>
+        <v>-0.05994700652718177</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.636916511463356</v>
+        <v>-2.63481037798039</v>
       </c>
       <c r="G56">
-        <v>-0.0632160171964975</v>
+        <v>-0.0611098837135311</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.645025965201355</v>
+        <v>-2.645025965201368</v>
       </c>
       <c r="G57">
-        <v>-0.0646260336392247</v>
+        <v>-0.06462603363923802</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.653135418939355</v>
+        <v>-2.652205921826067</v>
       </c>
       <c r="G58">
-        <v>-0.06603605008195279</v>
+        <v>-0.06510655296866519</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.661244872677355</v>
+        <v>-2.661244872677367</v>
       </c>
       <c r="G59">
-        <v>-0.06744606652468133</v>
+        <v>-0.06744606652469376</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.665610201132494</v>
+        <v>-2.665610201132506</v>
       </c>
       <c r="G60">
-        <v>-0.06511195768454869</v>
+        <v>-0.06511195768456068</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.669975529587633</v>
+        <v>-2.669975529587645</v>
       </c>
       <c r="G61">
-        <v>-0.06277784884441651</v>
+        <v>-0.06277784884442805</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.674340858042773</v>
+        <v>-2.674340858042784</v>
       </c>
       <c r="G62">
-        <v>-0.06044374000428443</v>
+        <v>-0.06044374000429598</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.678706186497912</v>
+        <v>-2.678706186497925</v>
       </c>
       <c r="G63">
-        <v>-0.0581096311641518</v>
+        <v>-0.05810963116416468</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-2.68307151495305</v>
+        <v>-2.683071514953064</v>
       </c>
       <c r="G64">
-        <v>-0.0557755223240185</v>
+        <v>-0.05577552232403182</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.687436843408189</v>
+        <v>-2.687436843408202</v>
       </c>
       <c r="G65">
-        <v>-0.05344141348388542</v>
+        <v>-0.05344141348389875</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1910,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.691802171863328</v>
+        <v>-2.691802171863341</v>
       </c>
       <c r="G66">
-        <v>-0.05110730464375296</v>
+        <v>-0.05110730464376584</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1933,10 +1933,10 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-2.696167500318468</v>
+        <v>-2.696167500318481</v>
       </c>
       <c r="G67">
-        <v>-0.04877319580362077</v>
+        <v>-0.04877319580363454</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1956,10 +1956,10 @@
         <v>52</v>
       </c>
       <c r="F68">
-        <v>-2.700532828773606</v>
+        <v>-2.700532828773619</v>
       </c>
       <c r="G68">
-        <v>-0.04643908696348792</v>
+        <v>-0.04643908696350124</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1979,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="F69">
-        <v>-2.704898157228745</v>
+        <v>-2.704898157228758</v>
       </c>
       <c r="G69">
-        <v>-0.04410497812335529</v>
+        <v>-0.04410497812336861</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2002,10 +2002,10 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-2.709263485683884</v>
+        <v>-2.709263485683898</v>
       </c>
       <c r="G70">
-        <v>-0.04177086928322193</v>
+        <v>-0.0417708692832357</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2025,10 +2025,10 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.713628814139022</v>
+        <v>-2.713628814139036</v>
       </c>
       <c r="G71">
-        <v>-0.03943676044308841</v>
+        <v>-0.03943676044310263</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2048,10 +2048,10 @@
         <v>56</v>
       </c>
       <c r="F72">
-        <v>-2.715398656378908</v>
+        <v>-2.715398656378923</v>
       </c>
       <c r="G72">
-        <v>-0.03450716538770271</v>
+        <v>-0.03450716538771781</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2071,10 +2071,10 @@
         <v>57</v>
       </c>
       <c r="F73">
-        <v>-2.717168498618793</v>
+        <v>-2.717168498618809</v>
       </c>
       <c r="G73">
-        <v>-0.02957757033231675</v>
+        <v>-0.02957757033233274</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2094,10 +2094,10 @@
         <v>58</v>
       </c>
       <c r="F74">
-        <v>-2.718938340858678</v>
+        <v>-2.718938340858696</v>
       </c>
       <c r="G74">
-        <v>-0.02464797527693013</v>
+        <v>-0.0246479752769479</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2117,10 +2117,10 @@
         <v>59</v>
       </c>
       <c r="F75">
-        <v>-2.720708183098564</v>
+        <v>-2.720708183098582</v>
       </c>
       <c r="G75">
-        <v>-0.01971838022154421</v>
+        <v>-0.01971838022156197</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2140,10 +2140,10 @@
         <v>60</v>
       </c>
       <c r="F76">
-        <v>-2.72247802533845</v>
+        <v>-2.722478025338468</v>
       </c>
       <c r="G76">
-        <v>-0.01478878516615847</v>
+        <v>-0.01478878516617624</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2163,10 +2163,10 @@
         <v>61</v>
       </c>
       <c r="F77">
-        <v>-2.724247867578335</v>
+        <v>-2.724247867578353</v>
       </c>
       <c r="G77">
-        <v>-0.009859190110772104</v>
+        <v>-0.009859190110789867</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2186,10 +2186,10 @@
         <v>62</v>
       </c>
       <c r="F78">
-        <v>-2.726017709818221</v>
+        <v>-2.726017709818239</v>
       </c>
       <c r="G78">
-        <v>-0.004929595055385927</v>
+        <v>-0.00492959505540369</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2209,10 +2209,10 @@
         <v>63</v>
       </c>
       <c r="F79">
-        <v>-2.727787552058107</v>
+        <v>-2.727787552058123</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>-1.643130076445232e-14</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2232,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-2.501904555654503</v>
+        <v>-2.501904555654492</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1.110223024625157e-14</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,10 +2255,10 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.554342668790242</v>
+        <v>-2.549285011787959</v>
       </c>
       <c r="G81">
-        <v>-0.00515449864613382</v>
+        <v>-0.001850703291928379</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2278,10 +2278,10 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.609728479574625</v>
+        <v>-2.606500124367517</v>
       </c>
       <c r="G82">
-        <v>-0.01413249640832692</v>
+        <v>-0.0135360630299588</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,10 +2301,10 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-2.668006224181479</v>
+        <v>-2.667615008214498</v>
       </c>
       <c r="G83">
-        <v>-0.0284483055196032</v>
+        <v>-0.02912119403541324</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-2.725322079334714</v>
+        <v>-2.725060581465631</v>
       </c>
       <c r="G84">
-        <v>-0.0410471173141842</v>
+        <v>-0.04103701444501806</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-2.766419595100136</v>
+        <v>-2.765444323708043</v>
       </c>
       <c r="G85">
-        <v>-0.03664518884563384</v>
+        <v>-0.03589100384590305</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-2.809840283079924</v>
+        <v>-2.808342015949625</v>
       </c>
       <c r="G86">
-        <v>-0.03372132176903331</v>
+        <v>-0.03325894324595757</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-2.854406814498264</v>
+        <v>-2.853652629498526</v>
       </c>
       <c r="G87">
-        <v>-0.03330130182241875</v>
+        <v>-0.03303980395333139</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>136</v>
       </c>
       <c r="F88">
-        <v>-2.900892374945184</v>
+        <v>-2.900686806304248</v>
       </c>
       <c r="G88">
-        <v>-0.03474979655846189</v>
+        <v>-0.03454422791752509</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,10 +2439,10 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-2.929489055467864</v>
+        <v>-2.928965494510091</v>
       </c>
       <c r="G89">
-        <v>-0.01718073960592126</v>
+        <v>-0.01729316328184061</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2462,10 +2462,10 @@
         <v>171</v>
       </c>
       <c r="F90">
-        <v>-2.959880304825162</v>
+        <v>-2.959880304825194</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>-3.197442310920451e-14</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>-2.592059019968194</v>
+        <v>-2.592059019968109</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>8.482103908136196e-14</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2508,10 +2508,10 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-2.638224072172077</v>
+        <v>-2.637384760554462</v>
       </c>
       <c r="G92">
-        <v>0.002478161116974853</v>
+        <v>0.001472148754973368</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,10 +2531,10 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-2.690659113296769</v>
+        <v>-2.688148087394881</v>
       </c>
       <c r="G93">
-        <v>-0.003310086299442183</v>
+        <v>-0.001193347373614095</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-2.7454334690073</v>
+        <v>-2.746272219381207</v>
       </c>
       <c r="G94">
-        <v>-0.01123473537966069</v>
+        <v>-0.01251959001869851</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2577,10 +2577,10 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.808532587453714</v>
+        <v>-2.808734027282874</v>
       </c>
       <c r="G95">
-        <v>-0.02625364113051898</v>
+        <v>-0.02688356720853369</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-2.866174503306909</v>
+        <v>-2.865217361594741</v>
       </c>
       <c r="G96">
-        <v>-0.03728586709515747</v>
+        <v>-0.03656901217915975</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,10 +2623,10 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-2.907464913338933</v>
+        <v>-2.908350940600901</v>
       </c>
       <c r="G97">
-        <v>-0.03008245899587125</v>
+        <v>-0.03160476047348793</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-2.950779876267255</v>
+        <v>-2.950172728454442</v>
       </c>
       <c r="G98">
-        <v>-0.02634571527675611</v>
+        <v>-0.02662865898578737</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-2.998449167920537</v>
+        <v>-2.997747240032194</v>
       </c>
       <c r="G99">
-        <v>-0.02617572664941925</v>
+        <v>-0.02610533985170804</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>328</v>
       </c>
       <c r="F100">
-        <v>-3.042243221393996</v>
+        <v>-3.042243221394119</v>
       </c>
       <c r="G100">
-        <v>-0.02380343187226852</v>
+        <v>-0.02380343187239109</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2715,10 +2715,10 @@
         <v>365</v>
       </c>
       <c r="F101">
-        <v>-3.066537620233559</v>
+        <v>-3.066537620233681</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>-1.221245327087672e-13</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2738,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>-2.66027456843604</v>
+        <v>-2.660274568436135</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>-9.50350909079134e-14</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,10 +2761,10 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-2.704831189959056</v>
+        <v>-2.705195923832435</v>
       </c>
       <c r="G103">
-        <v>0.004071106775958455</v>
+        <v>0.003409056541445299</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2784,10 +2784,10 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.753836238350858</v>
+        <v>-2.753437933203417</v>
       </c>
       <c r="G104">
-        <v>0.003888338593274199</v>
+        <v>0.004229738077058176</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.807552224033189</v>
+        <v>-2.809216538835108</v>
       </c>
       <c r="G105">
-        <v>-0.001554140814874039</v>
+        <v>-0.00321845561679357</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,10 +2830,10 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-2.867319411782156</v>
+        <v>-2.8684524700088</v>
       </c>
       <c r="G106">
-        <v>-0.01150595535799392</v>
+        <v>-0.01339169588389066</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2853,10 +2853,10 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-2.931126432650348</v>
+        <v>-2.931802939788077</v>
       </c>
       <c r="G107">
-        <v>-0.02734235617015557</v>
+        <v>-0.02841175372532767</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2876,10 +2876,10 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-2.984613446253998</v>
+        <v>-2.984468570112783</v>
       </c>
       <c r="G108">
-        <v>-0.03175351754881883</v>
+        <v>-0.03201469314343863</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.024637257377214</v>
+        <v>-3.026268955374659</v>
       </c>
       <c r="G109">
-        <v>-0.02368761187150059</v>
+        <v>-0.02548466646747527</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,10 +2922,10 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.069344368580842</v>
+        <v>-3.06980467322245</v>
       </c>
       <c r="G110">
-        <v>-0.01949738876706308</v>
+        <v>-0.01995769340867137</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2945,10 +2945,10 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.116546309153775</v>
+        <v>-3.116417020296531</v>
       </c>
       <c r="G111">
-        <v>-0.01823183490311209</v>
+        <v>-0.01823962854491246</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2968,10 +2968,10 @@
         <v>665</v>
       </c>
       <c r="F112">
-        <v>-3.147240082658214</v>
+        <v>-3.147240082658058</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1.554312234475219e-13</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>-2.701887504222705</v>
+        <v>-2.701887504222825</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>-1.194599974496668e-13</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,10 +3014,10 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.744173456367417</v>
+        <v>-2.743252557058471</v>
       </c>
       <c r="G114">
-        <v>0.007202896944352055</v>
+        <v>0.007688200043905802</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3037,10 +3037,10 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-2.790898858536559</v>
+        <v>-2.791804455846859</v>
       </c>
       <c r="G115">
-        <v>0.009545181288422633</v>
+        <v>0.008639583978122367</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-2.842728674545618</v>
+        <v>-2.846285329796368</v>
       </c>
       <c r="G116">
-        <v>0.007352251801733489</v>
+        <v>0.003661992751218479</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-2.900359319058939</v>
+        <v>-2.90339326882355</v>
       </c>
       <c r="G117">
-        <v>-0.0004606693830553343</v>
+        <v>-0.003942663553359038</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,10 +3106,10 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-2.96382579175883</v>
+        <v>-2.966214554277652</v>
       </c>
       <c r="G118">
-        <v>-0.01487190376603453</v>
+        <v>-0.01726066628485623</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3129,10 +3129,10 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.031580987123813</v>
+        <v>-3.031586852657205</v>
       </c>
       <c r="G119">
-        <v>-0.03312381640841311</v>
+        <v>-0.03312968194180499</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3152,10 +3152,10 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.072284461368678</v>
+        <v>-3.072672477991586</v>
       </c>
       <c r="G120">
-        <v>-0.02379190019477917</v>
+        <v>-0.02471202455358135</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3175,10 +3175,10 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.114865761272247</v>
+        <v>-3.116136841500698</v>
       </c>
       <c r="G121">
-        <v>-0.01699538656481436</v>
+        <v>-0.01867310534008826</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,10 +3198,10 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.161762442057014</v>
+        <v>-3.16198901736749</v>
       </c>
       <c r="G122">
-        <v>-0.01479542317379995</v>
+        <v>-0.01502199848427571</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3221,10 +3221,10 @@
         <v>1099</v>
       </c>
       <c r="F123">
-        <v>-3.196470301605819</v>
+        <v>-3.196470301605968</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>-1.49213974509621e-13</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3244,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>-2.736201143284891</v>
+        <v>-2.736201143285282</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>-3.907985046680551e-13</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.777792217898892</v>
+        <v>-2.778645490332376</v>
       </c>
       <c r="G125">
-        <v>0.008287491835074157</v>
+        <v>0.00743421940159017</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,10 +3290,10 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.82340439986955</v>
+        <v>-2.825922646572776</v>
       </c>
       <c r="G126">
-        <v>0.01285077254235345</v>
+        <v>0.01033252583912736</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3313,10 +3313,10 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-2.874403934704516</v>
+        <v>-2.878005349301303</v>
       </c>
       <c r="G127">
-        <v>0.01339053661995404</v>
+        <v>0.008425285788538961</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,10 +3336,10 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-2.930246980063498</v>
+        <v>-2.933785616510124</v>
       </c>
       <c r="G128">
-        <v>0.006858890987449628</v>
+        <v>0.002523585028792796</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3359,10 +3359,10 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-2.991640988252577</v>
+        <v>-2.995732188308214</v>
       </c>
       <c r="G129">
-        <v>-0.004889907870457622</v>
+        <v>-0.009247524091359205</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.05809936818416</v>
+        <v>-3.059249373568137</v>
       </c>
       <c r="G130">
-        <v>-0.02142039248654992</v>
+        <v>-0.0225892466733435</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.112049601835111</v>
+        <v>-3.112205567479747</v>
       </c>
       <c r="G131">
-        <v>-0.02541307576010932</v>
+        <v>-0.02566687413587865</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.152910967135278</v>
+        <v>-3.153554167591322</v>
       </c>
       <c r="G132">
-        <v>-0.01587168631143909</v>
+        <v>-0.01684001156951631</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.198386666652199</v>
+        <v>-3.198972758256181</v>
       </c>
       <c r="G133">
-        <v>-0.01138897461296368</v>
+        <v>-0.01208313955643697</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3474,10 +3474,10 @@
         <v>1687</v>
       </c>
       <c r="F134">
-        <v>-3.237065081377683</v>
+        <v>-3.237065081378505</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>-8.220091274324659e-13</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3497,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>-2.760064722715406</v>
+        <v>-2.760064722716048</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>-6.425970866530406e-13</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.800502159058269</v>
+        <v>-2.801411370662623</v>
       </c>
       <c r="G136">
-        <v>0.01048747628987012</v>
+        <v>0.009032629911988721</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.845217631397768</v>
+        <v>-2.847725245747595</v>
       </c>
       <c r="G137">
-        <v>0.01612318578433314</v>
+        <v>0.01330366239177128</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-2.895426348996775</v>
+        <v>-2.89867808742506</v>
       </c>
       <c r="G138">
-        <v>0.01720351642737805</v>
+        <v>0.01293572827905987</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,10 +3589,10 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-2.949780040398724</v>
+        <v>-2.953950118659125</v>
       </c>
       <c r="G139">
-        <v>0.01262360871217605</v>
+        <v>0.008042974904201694</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3612,10 +3612,10 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.010528920885541</v>
+        <v>-3.014152010877314</v>
       </c>
       <c r="G140">
-        <v>0.002782898900453468</v>
+        <v>-0.001574009749234051</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.075549223576122</v>
+        <v>-3.077679219140669</v>
       </c>
       <c r="G141">
-        <v>-0.0123202009977379</v>
+        <v>-0.01451631044783452</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.14081162466198</v>
+        <v>-3.140863410598465</v>
       </c>
       <c r="G142">
-        <v>-0.02726943810993931</v>
+        <v>-0.02732122404642368</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.180094573407112</v>
+        <v>-3.180667833715784</v>
       </c>
       <c r="G143">
-        <v>-0.01576798808105817</v>
+        <v>-0.01654073959898916</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.224801401030148</v>
+        <v>-3.22544806304739</v>
       </c>
       <c r="G144">
-        <v>-0.01003197963885216</v>
+        <v>-0.01073606136584071</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3727,10 +3727,10 @@
         <v>2457</v>
       </c>
       <c r="F145">
-        <v>-3.265296909246303</v>
+        <v>-3.265296909247503</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>-1.199929045014869e-12</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>-2.78066255501668</v>
+        <v>-2.780662555016065</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>6.155076448521868e-13</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3773,10 +3773,10 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.820191428814307</v>
+        <v>-2.821113715943592</v>
       </c>
       <c r="G147">
-        <v>0.01123779342861297</v>
+        <v>0.01031550629932809</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,10 +3796,10 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.864325712509463</v>
+        <v>-2.866881295102383</v>
       </c>
       <c r="G148">
-        <v>0.01801861750714195</v>
+        <v>0.01546303491422218</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3819,10 +3819,10 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-2.913056217889646</v>
+        <v>-2.916968430692071</v>
       </c>
       <c r="G149">
-        <v>0.02037462259365452</v>
+        <v>0.01629100709821985</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3842,10 +3842,10 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-2.96751674056882</v>
+        <v>-2.972011744537615</v>
       </c>
       <c r="G150">
-        <v>0.0168669740375027</v>
+        <v>0.01216280102636103</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.027061291249775</v>
+        <v>-3.030498671056763</v>
       </c>
       <c r="G151">
-        <v>0.008028362087886487</v>
+        <v>0.004590982280898492</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.091374798994695</v>
+        <v>-3.093462139907352</v>
       </c>
       <c r="G152">
-        <v>-0.005023936916478178</v>
+        <v>-0.007457378796005276</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.160621425021147</v>
+        <v>-3.160903318665614</v>
       </c>
       <c r="G153">
-        <v>-0.02360476480312368</v>
+        <v>-0.02398344978058242</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.204181382138731</v>
+        <v>-3.204456183189951</v>
       </c>
       <c r="G154">
-        <v>-0.01625310617647591</v>
+        <v>-0.01662120653123411</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.24764810714506</v>
+        <v>-3.248199724519035</v>
       </c>
       <c r="G155">
-        <v>-0.008872949195614821</v>
+        <v>-0.009449640086633571</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3980,10 +3980,10 @@
         <v>3429</v>
       </c>
       <c r="F156">
-        <v>-3.289665192206087</v>
+        <v>-3.289665192204814</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>1.27320376464013e-12</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4003,10 +4003,10 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>-2.796116500108509</v>
+        <v>-2.796116500105523</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>2.986499936241671e-12</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,10 +4026,10 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.835122434402994</v>
+        <v>-2.836484741203019</v>
       </c>
       <c r="G158">
-        <v>0.01271553867555042</v>
+        <v>0.01080385611016332</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4049,10 +4049,10 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-2.878769380145376</v>
+        <v>-2.881458196905871</v>
       </c>
       <c r="G159">
-        <v>0.01969131437247862</v>
+        <v>0.01700249761198291</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-2.92710987394484</v>
+        <v>-2.930410513575046</v>
       </c>
       <c r="G160">
-        <v>0.02252291777768667</v>
+        <v>0.01922227814748068</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-2.98048744742421</v>
+        <v>-2.983921477940329</v>
       </c>
       <c r="G161">
-        <v>0.0204628412484642</v>
+        <v>0.01688341098687052</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.039344182624676</v>
+        <v>-3.042332337986028</v>
       </c>
       <c r="G162">
-        <v>0.01293509792534087</v>
+        <v>0.009644648145843426</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.102826968088055</v>
+        <v>-3.105019466267861</v>
       </c>
       <c r="G163">
-        <v>0.0004314696313336697</v>
+        <v>-0.001870382931316694</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.171278489694969</v>
+        <v>-3.172109942026796</v>
       </c>
       <c r="G164">
-        <v>-0.01683271603313086</v>
+        <v>-0.01778876148557884</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.222456674602773</v>
+        <v>-3.222660149618042</v>
       </c>
       <c r="G165">
-        <v>-0.01696339685688319</v>
+        <v>-0.01716687187215293</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,10 +4210,10 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.265054511884894</v>
+        <v>-3.265530807885086</v>
       </c>
       <c r="G166">
-        <v>-0.008389136934332908</v>
+        <v>-0.008865432934524298</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4233,10 +4233,10 @@
         <v>4631</v>
       </c>
       <c r="F167">
-        <v>-3.307947995043365</v>
+        <v>-3.307947995040268</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>3.096634060284487e-12</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4256,10 +4256,10 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>-2.809837959116044</v>
+        <v>-2.809837959111862</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>4.18198808915804e-12</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,10 +4279,10 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.848484261357038</v>
+        <v>-2.849580689998821</v>
       </c>
       <c r="G169">
-        <v>0.01287440114380178</v>
+        <v>0.0116662248196433</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4302,10 +4302,10 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-2.891650988503376</v>
+        <v>-2.894023098370998</v>
       </c>
       <c r="G170">
-        <v>0.02124027394935402</v>
+        <v>0.01863277214988601</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-2.939565600294058</v>
+        <v>-2.942832586566626</v>
       </c>
       <c r="G171">
-        <v>0.02491788135198569</v>
+        <v>0.02123223965667864</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,10 +4348,10 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-2.992668195253204</v>
+        <v>-2.995688562766017</v>
       </c>
       <c r="G172">
-        <v>0.02301090136514539</v>
+        <v>0.01986977336316453</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4371,10 +4371,10 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.050711015714205</v>
+        <v>-3.053274963844888</v>
       </c>
       <c r="G173">
-        <v>0.01681338730811044</v>
+        <v>0.01369232798671405</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4394,10 +4394,10 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.113380935655818</v>
+        <v>-3.11604141310621</v>
       </c>
       <c r="G174">
-        <v>0.004995311878203568</v>
+        <v>0.002334834427811794</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.181098374893471</v>
+        <v>-3.182229235411495</v>
       </c>
       <c r="G175">
-        <v>-0.01111741003493882</v>
+        <v>-0.01235947797159553</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,10 +4440,10 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.23912686202795</v>
+        <v>-3.239168127996354</v>
       </c>
       <c r="G176">
-        <v>-0.01780517889531774</v>
+        <v>-0.0178894148540345</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4463,10 +4463,10 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.280540645210347</v>
+        <v>-3.280865476161837</v>
       </c>
       <c r="G177">
-        <v>-0.007773000449262546</v>
+        <v>-0.008177807317097829</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4486,10 +4486,10 @@
         <v>6083</v>
       </c>
       <c r="F178">
-        <v>-3.324181178750617</v>
+        <v>-3.324181178747053</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>3.563371819836902e-12</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4509,10 +4509,10 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>-2.820655808525831</v>
+        <v>-2.820655808524256</v>
       </c>
       <c r="G179">
-        <v>0</v>
+        <v>1.575184427338172e-12</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,10 +4532,10 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.858779952495334</v>
+        <v>-2.860110210263781</v>
       </c>
       <c r="G180">
-        <v>0.01371632218579411</v>
+        <v>0.0121581163246316</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4555,10 +4555,10 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-2.901848600702861</v>
+        <v>-2.904095355234135</v>
       </c>
       <c r="G181">
-        <v>0.02249252576505567</v>
+        <v>0.01978548941685832</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-2.949089072227511</v>
+        <v>-2.951981773182879</v>
       </c>
       <c r="G182">
-        <v>0.02640429048606352</v>
+        <v>0.02351158953069543</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.001879199785396</v>
+        <v>-3.004299940820984</v>
       </c>
       <c r="G183">
-        <v>0.02583840771763013</v>
+        <v>0.02287202512554654</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.059188190619775</v>
+        <v>-3.061565129140888</v>
       </c>
       <c r="G184">
-        <v>0.01975553143954389</v>
+        <v>0.01721935486822357</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.121451823619487</v>
+        <v>-3.1237110833177</v>
       </c>
       <c r="G185">
-        <v>0.00902205246111909</v>
+        <v>0.006685918753992715</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,10 +4670,10 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.188732200158988</v>
+        <v>-3.190024719391447</v>
       </c>
       <c r="G186">
-        <v>-0.006516177135934442</v>
+        <v>-0.007949114086797882</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4693,10 +4693,10 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.252445279559852</v>
+        <v>-3.252413119688048</v>
       </c>
       <c r="G187">
-        <v>-0.01872961129076489</v>
+        <v>-0.01872499632081737</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.293056688941472</v>
+        <v>-3.293439247989419</v>
       </c>
       <c r="G188">
-        <v>-0.007712253922553869</v>
+        <v>-0.008138606559607686</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4739,10 +4739,10 @@
         <v>7813</v>
       </c>
       <c r="F189">
-        <v>-3.336979244662767</v>
+        <v>-3.336979244658423</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>4.344524739963163e-12</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4762,10 +4762,10 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>-2.830446960793839</v>
+        <v>-2.830446960794371</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>-5.329070518200751e-13</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.868339083380381</v>
+        <v>-2.869424374829431</v>
       </c>
       <c r="G191">
-        <v>0.01394509845584668</v>
+        <v>0.0128288925815836</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,10 +4808,10 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-2.910750487801556</v>
+        <v>-2.91245267771952</v>
       </c>
       <c r="G192">
-        <v>0.02339356052835395</v>
+        <v>0.02160689630867063</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4831,10 +4831,10 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-2.958149789117791</v>
+        <v>-2.960401814566822</v>
       </c>
       <c r="G193">
-        <v>0.0279210204274476</v>
+        <v>0.02546406607854412</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4854,10 +4854,10 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.010275210243351</v>
+        <v>-3.012500126591591</v>
       </c>
       <c r="G194">
-        <v>0.02749426560776569</v>
+        <v>0.02517206067095112</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.067292110072298</v>
+        <v>-3.069517146548656</v>
       </c>
       <c r="G195">
-        <v>0.02239779029656241</v>
+        <v>0.01996134733106181</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.129021735756484</v>
+        <v>-3.131003198923055</v>
       </c>
       <c r="G196">
-        <v>0.0122739242494101</v>
+        <v>0.01028160157383851</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.195738740162295</v>
+        <v>-3.197072040487365</v>
       </c>
       <c r="G197">
-        <v>-0.002647633048225684</v>
+        <v>-0.003980933373296081</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,10 +4946,10 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.26474621589894</v>
+        <v>-3.264746040343312</v>
       </c>
       <c r="G198">
-        <v>-0.0198488021676948</v>
+        <v>-0.01984862661206699</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4969,10 +4969,10 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.304363188005428</v>
+        <v>-3.304570956304672</v>
       </c>
       <c r="G199">
-        <v>-0.007554452651386323</v>
+        <v>-0.007867235956251384</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4992,10 +4992,10 @@
         <v>9841</v>
       </c>
       <c r="F200">
-        <v>-3.348562675651183</v>
+        <v>-3.348562675646026</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>5.157652083198627e-12</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5015,10 +5015,10 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>-2.838440671073538</v>
+        <v>-2.838440671075613</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>-2.074340699209642e-12</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.876046122709242</v>
+        <v>-2.877044997352165</v>
       </c>
       <c r="G202">
-        <v>0.01437771949193412</v>
+        <v>0.01333226780037178</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-2.918456831629367</v>
+        <v>-2.91996365156889</v>
       </c>
       <c r="G203">
-        <v>0.02413374456116868</v>
+        <v>0.02239281356426792</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-2.965355737579004</v>
+        <v>-2.967442981400243</v>
       </c>
       <c r="G204">
-        <v>0.02893732163315255</v>
+        <v>0.02685007781191295</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.017128045191538</v>
+        <v>-3.019153518885785</v>
       </c>
       <c r="G205">
-        <v>0.02914421400124012</v>
+        <v>0.02711874030699302</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.073750916566847</v>
+        <v>-3.075707887910798</v>
       </c>
       <c r="G206">
-        <v>0.0245505331005984</v>
+        <v>0.02250096536097823</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.13510569755797</v>
+        <v>-3.137145207631041</v>
       </c>
       <c r="G207">
-        <v>0.01533346979913275</v>
+        <v>0.01304284562135627</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,10 +5176,10 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.201439997849587</v>
+        <v>-3.202592248326473</v>
       </c>
       <c r="G208">
-        <v>0.000841672571761376</v>
+        <v>-0.0004676009950771443</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5199,10 +5199,10 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.272325661913681</v>
+        <v>-3.272459307611997</v>
       </c>
       <c r="G209">
-        <v>-0.01822181460166372</v>
+        <v>-0.01835546029997981</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.313713740891226</v>
+        <v>-3.313841091110136</v>
       </c>
       <c r="G210">
-        <v>-0.007650752305423669</v>
+        <v>-0.0078006497191212</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5245,10 +5245,10 @@
         <v>12195</v>
       </c>
       <c r="F211">
-        <v>-3.358019641371637</v>
+        <v>-3.358019641366265</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>5.371703082346357e-12</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.357764754703136</v>
+        <v>-2.35832189756028</v>
       </c>
       <c r="G22">
         <v>-0.01184512847551389</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.366995522934804</v>
+        <v>-2.368109808649091</v>
       </c>
       <c r="G23">
         <v>-0.01437645941191024</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.464730609066842</v>
+        <v>-2.465412966923759</v>
       </c>
       <c r="G34">
         <v>-0.03841773529595982</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.494062833902851</v>
+        <v>-2.496109907473607</v>
       </c>
       <c r="G38">
         <v>-0.04095221095088197</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.537814031900484</v>
+        <v>-2.53893160835794</v>
       </c>
       <c r="G44">
         <v>-0.04450678517688589</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.542264557097517</v>
+        <v>-2.545923485638486</v>
       </c>
       <c r="G45">
         <v>-0.04225787307864648</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.554032939376486</v>
+        <v>-2.554527217889244</v>
       </c>
       <c r="G46">
         <v>-0.04732681806234429</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.570310906764709</v>
+        <v>-2.571922761734919</v>
       </c>
       <c r="G48">
         <v>-0.05020591086002368</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.57773800264579</v>
+        <v>-2.580032215472921</v>
       </c>
       <c r="G49">
         <v>-0.05093356944583349</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.58770645061038</v>
+        <v>-2.588824027067839</v>
       </c>
       <c r="G50">
         <v>-0.054202580115152</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.592156975807411</v>
+        <v>-2.594204049378167</v>
       </c>
       <c r="G51">
         <v>-0.05195366801691037</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.602125423772011</v>
+        <v>-2.603925358086385</v>
       </c>
       <c r="G52">
         <v>-0.05522267868623898</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.626948063498769</v>
+        <v>-2.627630421355686</v>
       </c>
       <c r="G55">
         <v>-0.05994700652718177</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.63481037798039</v>
+        <v>-2.636669372206984</v>
       </c>
       <c r="G56">
         <v>-0.0611098837135311</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.549285011787959</v>
+        <v>-2.5512078203561</v>
       </c>
       <c r="G81">
         <v>-0.001850703291928379</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.606500124367517</v>
+        <v>-2.606631191101225</v>
       </c>
       <c r="G82">
         <v>-0.0135360630299588</v>
@@ -2324,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-2.725060581465631</v>
+        <v>-2.725322079334733</v>
       </c>
       <c r="G84">
         <v>-0.04103701444501806</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-2.765444323708043</v>
+        <v>-2.766701298707629</v>
       </c>
       <c r="G85">
         <v>-0.03589100384590305</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-2.637384760554462</v>
+        <v>-2.638337293328131</v>
       </c>
       <c r="G92">
         <v>0.001472148754973368</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-2.688148087394881</v>
+        <v>-2.68995871515376</v>
       </c>
       <c r="G93">
         <v>-0.001193347373614095</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.808734027282874</v>
+        <v>-2.808803419724365</v>
       </c>
       <c r="G95">
         <v>-0.02688356720853369</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-2.865217361594741</v>
+        <v>-2.865255285382468</v>
       </c>
       <c r="G96">
         <v>-0.03656901217915975</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-2.950172728454442</v>
+        <v>-2.951718026691986</v>
       </c>
       <c r="G98">
         <v>-0.02662865898578737</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.753437933203417</v>
+        <v>-2.754815584653407</v>
       </c>
       <c r="G104">
         <v>0.004229738077058176</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-2.8684524700088</v>
+        <v>-2.868744856141875</v>
       </c>
       <c r="G106">
         <v>-0.01339169588389066</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-2.984468570112783</v>
+        <v>-2.984737539349571</v>
       </c>
       <c r="G108">
         <v>-0.03201469314343863</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.743252557058471</v>
+        <v>-2.74440288877992</v>
       </c>
       <c r="G114">
         <v>0.007688200043905802</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-2.90339326882355</v>
+        <v>-2.90346280997185</v>
       </c>
       <c r="G117">
         <v>-0.003942663553359038</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.031586852657205</v>
+        <v>-3.031612925249329</v>
       </c>
       <c r="G119">
         <v>-0.03312968194180499</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.116136841500698</v>
+        <v>-3.116511799059511</v>
       </c>
       <c r="G121">
         <v>-0.01867310534008826</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.825922646572776</v>
+        <v>-2.825933647379637</v>
       </c>
       <c r="G126">
         <v>0.01033252583912736</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-2.933785616510124</v>
+        <v>-2.934278858791391</v>
       </c>
       <c r="G128">
         <v>0.002523585028792796</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.153554167591322</v>
+        <v>-3.153991461976192</v>
       </c>
       <c r="G132">
         <v>-0.01684001156951631</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-2.953950118659125</v>
+        <v>-2.95401535701661</v>
       </c>
       <c r="G139">
         <v>0.008042974904201694</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.821113715943592</v>
+        <v>-2.82123575314287</v>
       </c>
       <c r="G147">
         <v>0.01031550629932809</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.866881295102383</v>
+        <v>-2.86748614561843</v>
       </c>
       <c r="G148">
         <v>0.01546303491422218</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-2.916968430692071</v>
+        <v>-2.917182262801904</v>
       </c>
       <c r="G149">
         <v>0.01629100709821985</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.093462139907352</v>
+        <v>-3.093857369682861</v>
       </c>
       <c r="G152">
         <v>-0.007457378796005276</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.204456183189951</v>
+        <v>-3.204505826406441</v>
       </c>
       <c r="G154">
         <v>-0.01662120653123411</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-2.930410513575046</v>
+        <v>-2.930508541526209</v>
       </c>
       <c r="G160">
         <v>0.01922227814748068</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-2.983921477940329</v>
+        <v>-2.984072484740635</v>
       </c>
       <c r="G161">
         <v>0.01688341098687052</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.042332337986028</v>
+        <v>-3.042921635516987</v>
       </c>
       <c r="G162">
         <v>0.009644648145843426</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.105019466267861</v>
+        <v>-3.105450815720777</v>
       </c>
       <c r="G163">
         <v>-0.001870382931316694</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.172109942026796</v>
+        <v>-3.172284313151099</v>
       </c>
       <c r="G164">
         <v>-0.01778876148557884</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.265530807885086</v>
+        <v>-3.265540889479107</v>
       </c>
       <c r="G166">
         <v>-0.008865432934524298</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.849580689998821</v>
+        <v>-2.849809508592532</v>
       </c>
       <c r="G169">
         <v>0.0116662248196433</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-2.894023098370998</v>
+        <v>-2.894384317555606</v>
       </c>
       <c r="G170">
         <v>0.01863277214988601</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-2.942832586566626</v>
+        <v>-2.943192514163045</v>
       </c>
       <c r="G171">
         <v>0.02123223965667864</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-2.995688562766017</v>
+        <v>-2.995915778813097</v>
       </c>
       <c r="G172">
         <v>0.01986977336316453</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.053274963844888</v>
+        <v>-3.053388667710648</v>
       </c>
       <c r="G173">
         <v>0.01369232798671405</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.182229235411495</v>
+        <v>-3.18237547846506</v>
       </c>
       <c r="G175">
         <v>-0.01235947797159553</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.239168127996354</v>
+        <v>-3.239254919986201</v>
       </c>
       <c r="G176">
         <v>-0.0178894148540345</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.280865476161837</v>
+        <v>-3.28093163516573</v>
       </c>
       <c r="G177">
         <v>-0.008177807317097829</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-2.951981773182879</v>
+        <v>-2.952217033025073</v>
       </c>
       <c r="G182">
         <v>0.02351158953069543</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.004299940820984</v>
+        <v>-3.004812859867897</v>
       </c>
       <c r="G183">
         <v>0.02287202512554654</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.061565129140888</v>
+        <v>-3.061758009630257</v>
       </c>
       <c r="G184">
         <v>0.01721935486822357</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.190024719391447</v>
+        <v>-3.190228107939677</v>
       </c>
       <c r="G186">
         <v>-0.007949114086797882</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.869424374829431</v>
+        <v>-2.869711712865356</v>
       </c>
       <c r="G191">
         <v>0.0128288925815836</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-2.91245267771952</v>
+        <v>-2.912842475833563</v>
       </c>
       <c r="G192">
         <v>0.02160689630867063</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-2.960401814566822</v>
+        <v>-2.960646010968215</v>
       </c>
       <c r="G193">
         <v>0.02546406607854412</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.012500126591591</v>
+        <v>-3.013135001891096</v>
       </c>
       <c r="G194">
         <v>0.02517206067095112</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.069517146548656</v>
+        <v>-3.069594264861521</v>
       </c>
       <c r="G195">
         <v>0.01996134733106181</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.131003198923055</v>
+        <v>-3.131234246290242</v>
       </c>
       <c r="G196">
         <v>0.01028160157383851</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.877044997352165</v>
+        <v>-2.877073252327542</v>
       </c>
       <c r="G202">
         <v>0.01333226780037178</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-2.91996365156889</v>
+        <v>-2.920233914296593</v>
       </c>
       <c r="G203">
         <v>0.02239281356426792</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.019153518885785</v>
+        <v>-3.019169252866815</v>
       </c>
       <c r="G205">
         <v>0.02711874030699302</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.075707887910798</v>
+        <v>-3.075965824123115</v>
       </c>
       <c r="G206">
         <v>0.02250096536097823</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.35832189756028</v>
+        <v>-2.358879040417424</v>
       </c>
       <c r="G22">
         <v>-0.01184512847551389</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.376226291166471</v>
+        <v>-2.376783434023614</v>
       </c>
       <c r="G24">
         <v>-0.01690779034830614</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.501054711183393</v>
+        <v>-2.502419426897229</v>
       </c>
       <c r="G39">
         <v>-0.04124465093615326</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.5512078203561</v>
+        <v>-2.551978568368753</v>
       </c>
       <c r="G81">
         <v>-0.001850703291928379</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.545923485638486</v>
+        <v>-2.547970559209242</v>
       </c>
       <c r="G45">
         <v>-0.04225787307864648</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.551978568368753</v>
+        <v>-2.552416700895052</v>
       </c>
       <c r="G81">
         <v>-0.001850703291928379</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
@@ -441,7 +441,7 @@
         <v>-1.984661672509521</v>
       </c>
       <c r="G2">
-        <v>-1.77635683940025e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,7 +464,7 @@
         <v>-2.058603744503724</v>
       </c>
       <c r="G3">
-        <v>-0.04599637960423975</v>
+        <v>-0.04599637960423864</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,7 +487,7 @@
         <v>-2.074350761232194</v>
       </c>
       <c r="G4">
-        <v>-0.03379770394274528</v>
+        <v>-0.03379770394274462</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,7 +510,7 @@
         <v>-2.094280599974568</v>
       </c>
       <c r="G5">
-        <v>-0.02578185029515501</v>
+        <v>-0.02578185029515478</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,7 +533,7 @@
         <v>-2.118393260730846</v>
       </c>
       <c r="G6">
-        <v>-0.02194881866146803</v>
+        <v>-0.02194881866146825</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,7 +556,7 @@
         <v>-2.13832309947322</v>
       </c>
       <c r="G7">
-        <v>-0.01393296501387731</v>
+        <v>-0.01393296501387775</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,7 +579,7 @@
         <v>-2.162435760229497</v>
       </c>
       <c r="G8">
-        <v>-0.01009993338019055</v>
+        <v>-0.01009993338019166</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -602,7 +602,7 @@
         <v>-2.186548420985775</v>
       </c>
       <c r="G9">
-        <v>-0.006266901746503128</v>
+        <v>-0.006266901746504794</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>-2.210661081742052</v>
       </c>
       <c r="G10">
-        <v>-0.002433870112816039</v>
+        <v>-0.002433870112818037</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -648,7 +648,7 @@
         <v>-2.23477374249833</v>
       </c>
       <c r="G11">
-        <v>0.001399161520871051</v>
+        <v>0.001399161520868497</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,7 +671,7 @@
         <v>-2.263069225268511</v>
       </c>
       <c r="G12">
-        <v>0.001049371140654065</v>
+        <v>0.001049371140651123</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -694,7 +694,7 @@
         <v>-2.287181886024789</v>
       </c>
       <c r="G13">
-        <v>0.004882402774341377</v>
+        <v>0.00488240277433788</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -717,7 +717,7 @@
         <v>-2.31547736879497</v>
       </c>
       <c r="G14">
-        <v>0.004532612394124558</v>
+        <v>0.0045326123941207</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -740,7 +740,7 @@
         <v>-2.347955673579055</v>
       </c>
       <c r="G15">
-        <v>4.440892098500626e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -763,7 +763,7 @@
         <v>-2.305723002455989</v>
       </c>
       <c r="G16">
-        <v>3.552713678800501e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -786,7 +786,7 @@
         <v>-2.313839484973372</v>
       </c>
       <c r="G17">
-        <v>-0.001417045222107838</v>
+        <v>-0.001417045222111391</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -809,7 +809,7 @@
         <v>-2.322513110347897</v>
       </c>
       <c r="G18">
-        <v>-0.003391233301361485</v>
+        <v>-0.003391233301364149</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -829,10 +829,10 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>-2.331743878579564</v>
+        <v>-2.331743878579565</v>
       </c>
       <c r="G19">
-        <v>-0.005922564237756944</v>
+        <v>-0.005922564237760053</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.340417503954089</v>
+        <v>-2.340417503954088</v>
       </c>
       <c r="G20">
-        <v>-0.007896752317009703</v>
+        <v>-0.00789675231701148</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.349648272185753</v>
+        <v>-2.349091129328612</v>
       </c>
       <c r="G21">
-        <v>-0.01042808325340294</v>
+        <v>-0.009870940396263794</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.358879040417424</v>
+        <v>-2.357764754703136</v>
       </c>
       <c r="G22">
-        <v>-0.01184512847551389</v>
+        <v>-0.01184512847551522</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.368109808649091</v>
+        <v>-2.367552665791947</v>
       </c>
       <c r="G23">
-        <v>-0.01437645941191024</v>
+        <v>-0.01493360226905471</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.376783434023614</v>
+        <v>-2.37500980864909</v>
       </c>
       <c r="G24">
-        <v>-0.01690779034830614</v>
+        <v>-0.01569130783092554</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.387026291166474</v>
+        <v>-2.38311597164392</v>
       </c>
       <c r="G25">
-        <v>-0.0210083530530365</v>
+        <v>-0.01709803353048334</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.396814202255285</v>
+        <v>-2.391324331441843</v>
       </c>
       <c r="G26">
-        <v>-0.02409682684657555</v>
+        <v>-0.018606956033135</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.407159256201238</v>
+        <v>-2.399997956816368</v>
       </c>
       <c r="G27">
-        <v>-0.02774244349725818</v>
+        <v>-0.02058114411238798</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.417504310147192</v>
+        <v>-2.407444780150958</v>
       </c>
       <c r="G28">
-        <v>-0.03138806014793993</v>
+        <v>-0.0213285301517061</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.428406506950289</v>
+        <v>-2.409412052194663</v>
       </c>
       <c r="G29">
-        <v>-0.03559081965576505</v>
+        <v>-0.01659636490013883</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.435398384230832</v>
+        <v>-2.420353838300969</v>
       </c>
       <c r="G30">
-        <v>-0.03588325964103678</v>
+        <v>-0.02083871371117207</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.443072619368295</v>
+        <v>-2.438479941988822</v>
       </c>
       <c r="G31">
-        <v>-0.03685805748322779</v>
+        <v>-0.03226538010375357</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.449382138791919</v>
+        <v>-2.431752399750131</v>
       </c>
       <c r="G32">
-        <v>-0.03646813961158002</v>
+        <v>-0.01883840056979058</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.457056373929379</v>
+        <v>-2.446109970021731</v>
       </c>
       <c r="G33">
-        <v>-0.03744293745376859</v>
+        <v>-0.02649653354611847</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.465412966923759</v>
+        <v>-2.455050718950641</v>
       </c>
       <c r="G34">
-        <v>-0.03841773529595982</v>
+        <v>-0.02873784517975686</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.471040128490467</v>
+        <v>-2.454759372589711</v>
       </c>
       <c r="G35">
-        <v>-0.03802781742431338</v>
+        <v>-0.02174706152355466</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.479396721484846</v>
+        <v>-2.465525073888449</v>
       </c>
       <c r="G36">
-        <v>-0.03968497312342123</v>
+        <v>-0.02581332552702054</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.487753314479226</v>
+        <v>-2.481858528885803</v>
       </c>
       <c r="G37">
-        <v>-0.0413421288225293</v>
+        <v>-0.03544734322910292</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.496109907473607</v>
+        <v>-2.486057663101252</v>
       </c>
       <c r="G38">
-        <v>-0.04095221095088197</v>
+        <v>-0.03294704014927974</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.502419426897229</v>
+        <v>-2.490006110472649</v>
       </c>
       <c r="G39">
-        <v>-0.04124465093615326</v>
+        <v>-0.03019605022540461</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.509164164921398</v>
+        <v>-2.502877040773814</v>
       </c>
       <c r="G40">
-        <v>-0.04265466737888546</v>
+        <v>-0.03636754323129776</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.516403181458318</v>
+        <v>-2.500430559267695</v>
       </c>
       <c r="G41">
-        <v>-0.04319424662053395</v>
+        <v>-0.02722162442990728</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.523830277339397</v>
+        <v>-2.519798033560245</v>
       </c>
       <c r="G42">
-        <v>-0.04392190520634176</v>
+        <v>-0.03988966142718509</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.532869228190699</v>
+        <v>-2.519272495765265</v>
       </c>
       <c r="G43">
-        <v>-0.04626141876237266</v>
+        <v>-0.03266468633693309</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.53893160835794</v>
+        <v>-2.516812749355885</v>
       </c>
       <c r="G44">
-        <v>-0.04450678517688589</v>
+        <v>-0.02350550263228124</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.547970559209242</v>
+        <v>-2.548217698465619</v>
       </c>
       <c r="G45">
-        <v>-0.04225787307864648</v>
+        <v>-0.04821101444674336</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.554527217889244</v>
+        <v>-2.5400412634529</v>
       </c>
       <c r="G46">
-        <v>-0.04732681806234429</v>
+        <v>-0.03333514213875244</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.564683745197998</v>
+        <v>-2.544800546640323</v>
       </c>
       <c r="G47">
-        <v>-0.05127818658858452</v>
+        <v>-0.03139498803090346</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.571922761734919</v>
+        <v>-2.559602009731559</v>
       </c>
       <c r="G48">
-        <v>-0.05020591086002368</v>
+        <v>-0.03949701382686688</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.580032215472921</v>
+        <v>-2.568699800472204</v>
       </c>
       <c r="G49">
-        <v>-0.05093356944583349</v>
+        <v>-0.04189536727224041</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.588824027067839</v>
+        <v>-2.572483293308479</v>
       </c>
       <c r="G50">
-        <v>-0.054202580115152</v>
+        <v>-0.03897942281324318</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.594204049378167</v>
+        <v>-2.574694620091083</v>
       </c>
       <c r="G51">
-        <v>-0.05195366801691037</v>
+        <v>-0.03449131230057523</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.603925358086385</v>
+        <v>-2.590639762353928</v>
       </c>
       <c r="G52">
-        <v>-0.05522267868623898</v>
+        <v>-0.0437370172681486</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.610234877510011</v>
+        <v>-2.607855467940989</v>
       </c>
       <c r="G53">
-        <v>-0.05663269512896707</v>
+        <v>-0.05425328555993725</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.619520967617688</v>
+        <v>-2.611448056466229</v>
       </c>
       <c r="G54">
-        <v>-0.05921934794137318</v>
+        <v>-0.0511464367899056</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.627630421355686</v>
+        <v>-2.614044772767753</v>
       </c>
       <c r="G55">
-        <v>-0.05994700652718177</v>
+        <v>-0.04704371579615763</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.636669372206984</v>
+        <v>-2.616711402729575</v>
       </c>
       <c r="G56">
-        <v>-0.0611098837135311</v>
+        <v>-0.04301090846270794</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.645025965201368</v>
+        <v>-2.626923451400676</v>
       </c>
       <c r="G57">
-        <v>-0.06462603363923802</v>
+        <v>-0.04652351983853609</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.652205921826067</v>
+        <v>-2.622756191351625</v>
       </c>
       <c r="G58">
-        <v>-0.06510655296866519</v>
+        <v>-0.03565682249421365</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.661244872677367</v>
+        <v>-2.634670477065916</v>
       </c>
       <c r="G59">
-        <v>-0.06744606652469376</v>
+        <v>-0.04087167091323252</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.665610201132506</v>
+        <v>-2.645465799092145</v>
       </c>
       <c r="G60">
-        <v>-0.06511195768456068</v>
+        <v>-0.04496755564418964</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.669975529587645</v>
+        <v>-2.655181922469277</v>
       </c>
       <c r="G61">
-        <v>-0.06277784884442805</v>
+        <v>-0.04798424172604943</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.674340858042784</v>
+        <v>-2.653255370400428</v>
       </c>
       <c r="G62">
-        <v>-0.06044374000429598</v>
+        <v>-0.03935825236192891</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.678706186497925</v>
+        <v>-2.661181707396372</v>
       </c>
       <c r="G63">
-        <v>-0.05810963116416468</v>
+        <v>-0.04058515206260016</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-2.683071514953064</v>
+        <v>-2.667505167904801</v>
       </c>
       <c r="G64">
-        <v>-0.05577552232403182</v>
+        <v>-0.04020917527575707</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.687436843408202</v>
+        <v>-2.68199048108215</v>
       </c>
       <c r="G65">
-        <v>-0.05344141348389875</v>
+        <v>-0.04799505115783431</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1910,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.691802171863341</v>
+        <v>-2.685462560365227</v>
       </c>
       <c r="G66">
-        <v>-0.05110730464376584</v>
+        <v>-0.04476769314563972</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1933,10 +1933,10 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-2.696167500318481</v>
+        <v>-2.690721137992429</v>
       </c>
       <c r="G67">
-        <v>-0.04877319580363454</v>
+        <v>-0.04332683347756916</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1959,7 +1959,7 @@
         <v>-2.700532828773619</v>
       </c>
       <c r="G68">
-        <v>-0.04643908696350124</v>
+        <v>-0.04643908696348764</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1979,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="F69">
-        <v>-2.704898157228758</v>
+        <v>-2.704898157228759</v>
       </c>
       <c r="G69">
-        <v>-0.04410497812336861</v>
+        <v>-0.04410497812335629</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2002,10 +2002,10 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-2.709263485683898</v>
+        <v>-2.704072513253391</v>
       </c>
       <c r="G70">
-        <v>-0.0417708692832357</v>
+        <v>-0.03657989685271584</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2025,10 +2025,10 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.713628814139036</v>
+        <v>-2.708437841708533</v>
       </c>
       <c r="G71">
-        <v>-0.03943676044310263</v>
+        <v>-0.03424578801258538</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2048,10 +2048,10 @@
         <v>56</v>
       </c>
       <c r="F72">
-        <v>-2.715398656378923</v>
+        <v>-2.71280317016367</v>
       </c>
       <c r="G72">
-        <v>-0.03450716538771781</v>
+        <v>-0.03191167917245114</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2071,10 +2071,10 @@
         <v>57</v>
       </c>
       <c r="F73">
-        <v>-2.717168498618809</v>
+        <v>-2.714573012403556</v>
       </c>
       <c r="G73">
-        <v>-0.02957757033233274</v>
+        <v>-0.02698208411706471</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2094,10 +2094,10 @@
         <v>58</v>
       </c>
       <c r="F74">
-        <v>-2.718938340858696</v>
+        <v>-2.716342854643444</v>
       </c>
       <c r="G74">
-        <v>-0.0246479752769479</v>
+        <v>-0.02205248906168111</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2117,10 +2117,10 @@
         <v>59</v>
       </c>
       <c r="F75">
-        <v>-2.720708183098582</v>
+        <v>-2.720708183098583</v>
       </c>
       <c r="G75">
-        <v>-0.01971838022156197</v>
+        <v>-0.01971838022154754</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2143,7 +2143,7 @@
         <v>-2.722478025338468</v>
       </c>
       <c r="G76">
-        <v>-0.01478878516617624</v>
+        <v>-0.01478878516616086</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2166,7 +2166,7 @@
         <v>-2.724247867578353</v>
       </c>
       <c r="G77">
-        <v>-0.009859190110789867</v>
+        <v>-0.009859190110774435</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2189,7 +2189,7 @@
         <v>-2.726017709818239</v>
       </c>
       <c r="G78">
-        <v>-0.00492959505540369</v>
+        <v>-0.004929595055387759</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2212,7 +2212,7 @@
         <v>-2.727787552058123</v>
       </c>
       <c r="G79">
-        <v>-1.643130076445232e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2235,7 +2235,7 @@
         <v>-2.501904555654492</v>
       </c>
       <c r="G80">
-        <v>1.110223024625157e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,10 +2255,10 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.552416700895052</v>
+        <v>-2.552990841190292</v>
       </c>
       <c r="G81">
-        <v>-0.001850703291928379</v>
+        <v>-0.005556532694267702</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2278,10 +2278,10 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.606631191101225</v>
+        <v>-2.59186860766349</v>
       </c>
       <c r="G82">
-        <v>-0.0135360630299588</v>
+        <v>0.00109545367406616</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,10 +2301,10 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-2.667615008214498</v>
+        <v>-2.64042135244132</v>
       </c>
       <c r="G83">
-        <v>-0.02912119403541324</v>
+        <v>-0.001927538262233464</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-2.725322079334733</v>
+        <v>-2.687127801149026</v>
       </c>
       <c r="G84">
-        <v>-0.04103701444501806</v>
+        <v>-0.003104234128407324</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-2.766701298707629</v>
+        <v>-2.735461360142438</v>
       </c>
       <c r="G85">
-        <v>-0.03589100384590305</v>
+        <v>-0.005908040280287352</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-2.808342015949625</v>
+        <v>-2.792463205073472</v>
       </c>
       <c r="G86">
-        <v>-0.03325894324595757</v>
+        <v>-0.01738013236978975</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-2.853652629498526</v>
+        <v>-2.842088898233716</v>
       </c>
       <c r="G87">
-        <v>-0.03303980395333139</v>
+        <v>-0.02147607268850238</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>136</v>
       </c>
       <c r="F88">
-        <v>-2.900686806304248</v>
+        <v>-2.883942947174651</v>
       </c>
       <c r="G88">
-        <v>-0.03454422791752509</v>
+        <v>-0.0178003687879057</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,10 +2439,10 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-2.928965494510091</v>
+        <v>-2.927997217214089</v>
       </c>
       <c r="G89">
-        <v>-0.01729316328184061</v>
+        <v>-0.01632488598581178</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2465,7 +2465,7 @@
         <v>-2.959880304825194</v>
       </c>
       <c r="G90">
-        <v>-3.197442310920451e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2488,7 +2488,7 @@
         <v>-2.592059019968109</v>
       </c>
       <c r="G91">
-        <v>8.482103908136196e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2508,10 +2508,10 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-2.638337293328131</v>
+        <v>-2.635981608823821</v>
       </c>
       <c r="G92">
-        <v>0.001472148754973368</v>
+        <v>0.002875300485549293</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,10 +2531,10 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-2.68995871515376</v>
+        <v>-2.680056023582048</v>
       </c>
       <c r="G93">
-        <v>-0.001193347373614095</v>
+        <v>0.006898716439174724</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-2.746272219381207</v>
+        <v>-2.725329835109921</v>
       </c>
       <c r="G94">
-        <v>-0.01251959001869851</v>
+        <v>0.008422794252564536</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2577,10 +2577,10 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.808803419724365</v>
+        <v>-2.774394876582092</v>
       </c>
       <c r="G95">
-        <v>-0.02688356720853369</v>
+        <v>0.007455583492246065</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-2.865255285382468</v>
+        <v>-2.828008983551579</v>
       </c>
       <c r="G96">
-        <v>-0.03656901217915975</v>
+        <v>0.0006393658640209132</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,10 +2623,10 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-2.908350940600901</v>
+        <v>-2.887140792310731</v>
       </c>
       <c r="G97">
-        <v>-0.03160476047348793</v>
+        <v>-0.01039461218327919</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-2.951718026691986</v>
+        <v>-2.931371417484655</v>
       </c>
       <c r="G98">
-        <v>-0.02662865898578737</v>
+        <v>-0.007827348015940983</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-2.997747240032194</v>
+        <v>-2.984802681893106</v>
       </c>
       <c r="G99">
-        <v>-0.02610533985170804</v>
+        <v>-0.01316078171253943</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>328</v>
       </c>
       <c r="F100">
-        <v>-3.042243221394119</v>
+        <v>-3.032968000169626</v>
       </c>
       <c r="G100">
-        <v>-0.02380343187239109</v>
+        <v>-0.01452821064779691</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2718,7 +2718,7 @@
         <v>-3.066537620233681</v>
       </c>
       <c r="G101">
-        <v>-1.221245327087672e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2741,7 +2741,7 @@
         <v>-2.660274568436135</v>
       </c>
       <c r="G102">
-        <v>-9.50350909079134e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,10 +2761,10 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-2.705195923832435</v>
+        <v>-2.701281964443073</v>
       </c>
       <c r="G103">
-        <v>0.003409056541445299</v>
+        <v>0.007323015930877474</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2784,10 +2784,10 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.754815584653407</v>
+        <v>-2.74482430795167</v>
       </c>
       <c r="G104">
-        <v>0.004229738077058176</v>
+        <v>0.01284336332884983</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.809216538835108</v>
+        <v>-2.788920923886768</v>
       </c>
       <c r="G105">
-        <v>-0.00321845561679357</v>
+        <v>0.01707715933156617</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,10 +2830,10 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-2.868744856141875</v>
+        <v>-2.843791605668897</v>
       </c>
       <c r="G106">
-        <v>-0.01339169588389066</v>
+        <v>0.01126916845600712</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2853,10 +2853,10 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-2.931802939788077</v>
+        <v>-2.90132330732049</v>
       </c>
       <c r="G107">
-        <v>-0.02841175372532767</v>
+        <v>0.002067878742228579</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2876,10 +2876,10 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-2.984737539349571</v>
+        <v>-2.947140974896483</v>
       </c>
       <c r="G108">
-        <v>-0.03201469314343863</v>
+        <v>0.005312902072805992</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.026268955374659</v>
+        <v>-3.002990794855685</v>
       </c>
       <c r="G109">
-        <v>-0.02548466646747527</v>
+        <v>-0.002206505948580961</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,10 +2922,10 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.06980467322245</v>
+        <v>-3.052124244458397</v>
       </c>
       <c r="G110">
-        <v>-0.01995769340867137</v>
+        <v>-0.00227726464472322</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2945,10 +2945,10 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.116417020296531</v>
+        <v>-3.103996063674282</v>
       </c>
       <c r="G111">
-        <v>-0.01823962854491246</v>
+        <v>-0.005818671922793284</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2971,7 +2971,7 @@
         <v>-3.147240082658058</v>
       </c>
       <c r="G112">
-        <v>1.554312234475219e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2994,7 +2994,7 @@
         <v>-2.701887504222825</v>
       </c>
       <c r="G113">
-        <v>-1.194599974496668e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,10 +3014,10 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.74440288877992</v>
+        <v>-2.7423225713039</v>
       </c>
       <c r="G114">
-        <v>0.007688200043905802</v>
+        <v>0.008618185798599409</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3037,10 +3037,10 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-2.791804455846859</v>
+        <v>-2.786515481870801</v>
       </c>
       <c r="G115">
-        <v>0.008639583978122367</v>
+        <v>0.01392855795430625</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-2.846285329796368</v>
+        <v>-2.832428507456026</v>
       </c>
       <c r="G116">
-        <v>0.003661992751218479</v>
+        <v>0.01751881509168851</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-2.90346280997185</v>
+        <v>-2.883000860665958</v>
       </c>
       <c r="G117">
-        <v>-0.003942663553359038</v>
+        <v>0.01644974460436455</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,10 +3106,10 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-2.966214554277652</v>
+        <v>-2.934749442642344</v>
       </c>
       <c r="G118">
-        <v>-0.01726066628485623</v>
+        <v>0.01420444535058607</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3129,10 +3129,10 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.031612925249329</v>
+        <v>-2.985757435082704</v>
       </c>
       <c r="G119">
-        <v>-0.03312968194180499</v>
+        <v>0.01269973563283333</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3152,10 +3152,10 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.072672477991586</v>
+        <v>-3.040497577689951</v>
       </c>
       <c r="G120">
-        <v>-0.02471202455358135</v>
+        <v>0.00746287574819382</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3175,10 +3175,10 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.116511799059511</v>
+        <v>-3.099319584802688</v>
       </c>
       <c r="G121">
-        <v>-0.01867310534008826</v>
+        <v>-0.00185584864193522</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,10 +3198,10 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.16198901736749</v>
+        <v>-3.153315495318466</v>
       </c>
       <c r="G122">
-        <v>-0.01502199848427571</v>
+        <v>-0.006348476435105721</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3224,7 +3224,7 @@
         <v>-3.196470301605968</v>
       </c>
       <c r="G123">
-        <v>-1.49213974509621e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3247,7 +3247,7 @@
         <v>-2.736201143285282</v>
       </c>
       <c r="G124">
-        <v>-3.907985046680551e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.778645490332376</v>
+        <v>-2.776366991597363</v>
       </c>
       <c r="G125">
-        <v>0.00743421940159017</v>
+        <v>0.009712718137036447</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,10 +3290,10 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.825933647379637</v>
+        <v>-2.820947405657256</v>
       </c>
       <c r="G126">
-        <v>0.01033252583912736</v>
+        <v>0.01530776675512513</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3313,10 +3313,10 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-2.878005349301303</v>
+        <v>-2.867002741567617</v>
       </c>
       <c r="G127">
-        <v>0.008425285788538961</v>
+        <v>0.01942789352274477</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,10 +3336,10 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-2.934278858791391</v>
+        <v>-2.914367653775439</v>
       </c>
       <c r="G128">
-        <v>0.002523585028792796</v>
+        <v>0.02194154776404145</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3359,10 +3359,10 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-2.995732188308214</v>
+        <v>-2.965537709981187</v>
       </c>
       <c r="G129">
-        <v>-0.009247524091359205</v>
+        <v>0.0209469542362748</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.059249373568137</v>
+        <v>-3.019087097854288</v>
       </c>
       <c r="G130">
-        <v>-0.0225892466733435</v>
+        <v>0.01757302904115465</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.112205567479747</v>
+        <v>-3.074397328148494</v>
       </c>
       <c r="G131">
-        <v>-0.02566687413587865</v>
+        <v>0.01214136519606612</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.153991461976192</v>
+        <v>-3.131085892846298</v>
       </c>
       <c r="G132">
-        <v>-0.01684001156951631</v>
+        <v>0.005628263176243653</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.198972758256181</v>
+        <v>-3.189613213035178</v>
       </c>
       <c r="G133">
-        <v>-0.01208313955643697</v>
+        <v>-0.002723594334655077</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3477,7 +3477,7 @@
         <v>-3.237065081378505</v>
       </c>
       <c r="G134">
-        <v>-8.220091274324659e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3500,7 +3500,7 @@
         <v>-2.760064722716048</v>
       </c>
       <c r="G135">
-        <v>-6.425970866530406e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.801411370662623</v>
+        <v>-2.799506941585689</v>
       </c>
       <c r="G136">
-        <v>0.009032629911988721</v>
+        <v>0.01093705898962138</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.847725245747595</v>
+        <v>-2.84322056252443</v>
       </c>
       <c r="G137">
-        <v>0.01330366239177128</v>
+        <v>0.01780834561569034</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-2.89867808742506</v>
+        <v>-2.888090731690167</v>
       </c>
       <c r="G138">
-        <v>0.01293572827905987</v>
+        <v>0.02352308401476289</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,10 +3589,10 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-2.95401535701661</v>
+        <v>-2.936400166312652</v>
       </c>
       <c r="G139">
-        <v>0.008042974904201694</v>
+        <v>0.02559292725153917</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3612,10 +3612,10 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.014152010877314</v>
+        <v>-2.986909372614624</v>
       </c>
       <c r="G140">
-        <v>-0.001574009749234051</v>
+        <v>0.02566862851437746</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.077679219140669</v>
+        <v>-3.039040629910281</v>
       </c>
       <c r="G141">
-        <v>-0.01451631044783452</v>
+        <v>0.02412227878353068</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.140863410598465</v>
+        <v>-3.094755925023768</v>
       </c>
       <c r="G142">
-        <v>-0.02732122404642368</v>
+        <v>0.01878626152930563</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.180667833715784</v>
+        <v>-3.153995516170166</v>
       </c>
       <c r="G143">
-        <v>-0.01654073959898916</v>
+        <v>0.01013157794771746</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.22544806304739</v>
+        <v>-3.214368649697549</v>
       </c>
       <c r="G144">
-        <v>-0.01073606136584071</v>
+        <v>0.0003433519851438471</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3730,7 +3730,7 @@
         <v>-3.265296909247503</v>
       </c>
       <c r="G145">
-        <v>-1.199929045014869e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3753,7 +3753,7 @@
         <v>-2.780662555016065</v>
       </c>
       <c r="G146">
-        <v>6.155076448521868e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3773,10 +3773,10 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.82123575314287</v>
+        <v>-2.820152364540585</v>
       </c>
       <c r="G147">
-        <v>0.01031550629932809</v>
+        <v>0.01127685770165332</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,10 +3796,10 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.86748614561843</v>
+        <v>-2.862778076015065</v>
       </c>
       <c r="G148">
-        <v>0.01546303491422218</v>
+        <v>0.01956625400079348</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3819,10 +3819,10 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-2.917182262801904</v>
+        <v>-2.906290183215405</v>
       </c>
       <c r="G149">
-        <v>0.01629100709821985</v>
+        <v>0.02696925457407273</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3842,10 +3842,10 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-2.972011744537615</v>
+        <v>-2.953393695039791</v>
       </c>
       <c r="G150">
-        <v>0.01216280102636103</v>
+        <v>0.0307808505233067</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.030498671056763</v>
+        <v>-3.003981355301814</v>
       </c>
       <c r="G151">
-        <v>0.004590982280898492</v>
+        <v>0.03110829803490334</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.093857369682861</v>
+        <v>-3.057434593926319</v>
       </c>
       <c r="G152">
-        <v>-0.007457378796005276</v>
+        <v>0.02857016718401684</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.160903318665614</v>
+        <v>-3.113561300564671</v>
       </c>
       <c r="G153">
-        <v>-0.02398344978058242</v>
+        <v>0.02335856831928451</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.204505826406441</v>
+        <v>-3.172035727596449</v>
       </c>
       <c r="G154">
-        <v>-0.01662120653123411</v>
+        <v>0.01579924906112617</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.248199724519035</v>
+        <v>-3.234842410489179</v>
       </c>
       <c r="G155">
-        <v>-0.009449640086633571</v>
+        <v>0.003907673942015522</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3983,7 +3983,7 @@
         <v>-3.289665192204814</v>
       </c>
       <c r="G156">
-        <v>1.27320376464013e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4006,7 +4006,7 @@
         <v>-2.796116500105523</v>
       </c>
       <c r="G157">
-        <v>2.986499936241671e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,10 +4026,10 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.836484741203019</v>
+        <v>-2.834973101073067</v>
       </c>
       <c r="G158">
-        <v>0.01080385611016332</v>
+        <v>0.01231549623711725</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4049,10 +4049,10 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-2.881458196905871</v>
+        <v>-2.876216606850764</v>
       </c>
       <c r="G159">
-        <v>0.01700249761198291</v>
+        <v>0.02224408766408148</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-2.930508541526209</v>
+        <v>-2.92056264203591</v>
       </c>
       <c r="G160">
-        <v>0.01922227814748068</v>
+        <v>0.02907014968359767</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-2.984072484740635</v>
+        <v>-2.96705818556298</v>
       </c>
       <c r="G161">
-        <v>0.01688341098687052</v>
+        <v>0.03374670336118868</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.042921635516987</v>
+        <v>-3.017363751427511</v>
       </c>
       <c r="G162">
-        <v>0.009644648145843426</v>
+        <v>0.03461323470131883</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.105450815720777</v>
+        <v>-3.070216948134135</v>
       </c>
       <c r="G163">
-        <v>-0.001870382931316694</v>
+        <v>0.03293213519935612</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.172284313151099</v>
+        <v>-3.128128137411281</v>
       </c>
       <c r="G164">
-        <v>-0.01778876148557884</v>
+        <v>0.02619304312687232</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.222660149618042</v>
+        <v>-3.18708611027721</v>
       </c>
       <c r="G165">
-        <v>-0.01716687187215293</v>
+        <v>0.018407167465604</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,10 +4210,10 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.265540889479107</v>
+        <v>-3.250307208707595</v>
       </c>
       <c r="G166">
-        <v>-0.008865432934524298</v>
+        <v>0.00635816623988078</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4236,7 +4236,7 @@
         <v>-3.307947995040268</v>
       </c>
       <c r="G167">
-        <v>3.096634060284487e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4259,7 +4259,7 @@
         <v>-2.809837959111862</v>
       </c>
       <c r="G168">
-        <v>4.18198808915804e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,10 +4279,10 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.849809508592532</v>
+        <v>-2.848321231314283</v>
       </c>
       <c r="G169">
-        <v>0.0116662248196433</v>
+        <v>0.01292568350006063</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4302,10 +4302,10 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-2.894384317555606</v>
+        <v>-2.889583550426884</v>
       </c>
       <c r="G170">
-        <v>0.01863277214988601</v>
+        <v>0.02307232008994164</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-2.943192514163045</v>
+        <v>-2.932247131110976</v>
       </c>
       <c r="G171">
-        <v>0.02123223965667864</v>
+        <v>0.03181769510833155</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,10 +4348,10 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-2.995915778813097</v>
+        <v>-2.979411573978583</v>
       </c>
       <c r="G172">
-        <v>0.01986977336316453</v>
+        <v>0.03614676214666401</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4371,10 +4371,10 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.053388667710648</v>
+        <v>-3.02958196275116</v>
       </c>
       <c r="G173">
-        <v>0.01369232798671405</v>
+        <v>0.03738532907656933</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4394,10 +4394,10 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.11604141310621</v>
+        <v>-3.08270336916735</v>
       </c>
       <c r="G174">
-        <v>0.002334834427811794</v>
+        <v>0.03567287836286015</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.18237547846506</v>
+        <v>-3.140596234691552</v>
       </c>
       <c r="G175">
-        <v>-0.01235947797159553</v>
+        <v>0.02927352274459816</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,10 +4440,10 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.239254919986201</v>
+        <v>-3.200820320326145</v>
       </c>
       <c r="G176">
-        <v>-0.0178894148540345</v>
+        <v>0.02045839281248663</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4463,10 +4463,10 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.28093163516573</v>
+        <v>-3.263998704280904</v>
       </c>
       <c r="G177">
-        <v>-0.008177807317097829</v>
+        <v>0.008688964560209955</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4489,7 +4489,7 @@
         <v>-3.324181178747053</v>
       </c>
       <c r="G178">
-        <v>3.563371819836902e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4512,7 +4512,7 @@
         <v>-2.820655808524256</v>
       </c>
       <c r="G179">
-        <v>1.575184427338172e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,10 +4532,10 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.860110210263781</v>
+        <v>-2.858277259259864</v>
       </c>
       <c r="G180">
-        <v>0.0121581163246316</v>
+        <v>0.01399106732669608</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4555,10 +4555,10 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-2.904095355234135</v>
+        <v>-2.89907622017323</v>
       </c>
       <c r="G181">
-        <v>0.01978548941685832</v>
+        <v>0.02480462447563481</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-2.952217033025073</v>
+        <v>-2.941617669000195</v>
       </c>
       <c r="G182">
-        <v>0.02351158953069543</v>
+        <v>0.03387569371097432</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.004812859867897</v>
+        <v>-2.988521353653134</v>
       </c>
       <c r="G183">
-        <v>0.02287202512554654</v>
+        <v>0.0386506122907142</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.061758009630257</v>
+        <v>-3.038879299658421</v>
       </c>
       <c r="G184">
-        <v>0.01721935486822357</v>
+        <v>0.03990518434773116</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.1237110833177</v>
+        <v>-3.092903857922992</v>
       </c>
       <c r="G185">
-        <v>0.006685918753992715</v>
+        <v>0.03749314414546467</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,10 +4670,10 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.190228107939677</v>
+        <v>-3.150636582203668</v>
       </c>
       <c r="G186">
-        <v>-0.007949114086797882</v>
+        <v>0.0314390230974676</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4693,10 +4693,10 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.252413119688048</v>
+        <v>-3.210756287581215</v>
       </c>
       <c r="G187">
-        <v>-0.01872499632081737</v>
+        <v>0.02293183578222491</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.293439247989419</v>
+        <v>-3.274925786193126</v>
       </c>
       <c r="G188">
-        <v>-0.008138606559607686</v>
+        <v>0.01037485523261805</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4742,7 +4742,7 @@
         <v>-3.336979244658423</v>
       </c>
       <c r="G189">
-        <v>4.344524739963163e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4765,7 +4765,7 @@
         <v>-2.830446960794371</v>
       </c>
       <c r="G190">
-        <v>-5.329070518200751e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.869711712865356</v>
+        <v>-2.868317697030848</v>
       </c>
       <c r="G191">
-        <v>0.0128288925815836</v>
+        <v>0.01393557038012982</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,10 +4808,10 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-2.912842475833563</v>
+        <v>-2.908014175756817</v>
       </c>
       <c r="G192">
-        <v>0.02160689630867063</v>
+        <v>0.02604539827076868</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4831,10 +4831,10 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-2.960646010968215</v>
+        <v>-2.950813481897096</v>
       </c>
       <c r="G193">
-        <v>0.02546406607854412</v>
+        <v>0.03505239874709587</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4854,10 +4854,10 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.013135001891096</v>
+        <v>-2.996853495470543</v>
       </c>
       <c r="G194">
-        <v>0.02517206067095112</v>
+        <v>0.04081869179025621</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.069594264861521</v>
+        <v>-3.046931010760896</v>
       </c>
       <c r="G195">
-        <v>0.01996134733106181</v>
+        <v>0.04254748311650891</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.131234246290242</v>
+        <v>-3.101680157010965</v>
       </c>
       <c r="G196">
-        <v>0.01028160157383851</v>
+        <v>0.03960464348304771</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.197072040487365</v>
+        <v>-3.15945891228188</v>
       </c>
       <c r="G197">
-        <v>-0.003980933373296081</v>
+        <v>0.03363219482873903</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,10 +4946,10 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.264746040343312</v>
+        <v>-3.220583242468579</v>
       </c>
       <c r="G198">
-        <v>-0.01984862661206699</v>
+        <v>0.02431417125864743</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4969,10 +4969,10 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.304570956304672</v>
+        <v>-3.285292488999269</v>
       </c>
       <c r="G199">
-        <v>-0.007867235956251384</v>
+        <v>0.01141123134456351</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4995,7 +4995,7 @@
         <v>-3.348562675646026</v>
       </c>
       <c r="G200">
-        <v>5.157652083198627e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5018,7 +5018,7 @@
         <v>-2.838440671075613</v>
       </c>
       <c r="G201">
-        <v>-2.074340699209642e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.877073252327542</v>
+        <v>-2.876012143218532</v>
       </c>
       <c r="G202">
-        <v>0.01333226780037178</v>
+        <v>0.01436512193533446</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-2.920233914296593</v>
+        <v>-2.915179202354677</v>
       </c>
       <c r="G203">
-        <v>0.02239281356426792</v>
+        <v>0.02717726277906651</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-2.967442981400243</v>
+        <v>-2.958418231823536</v>
       </c>
       <c r="G204">
-        <v>0.02685007781191295</v>
+        <v>0.03587482738846082</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.019169252866815</v>
+        <v>-3.004479635950961</v>
       </c>
       <c r="G205">
-        <v>0.02711874030699302</v>
+        <v>0.04179262324091271</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.075965824123115</v>
+        <v>-3.05472044671296</v>
       </c>
       <c r="G206">
-        <v>0.02250096536097823</v>
+        <v>0.0434884065571679</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.137145207631041</v>
+        <v>-3.108568483407432</v>
       </c>
       <c r="G207">
-        <v>0.01304284562135627</v>
+        <v>0.04161956984257209</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,10 +5176,10 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.202592248326473</v>
+        <v>-3.166469067847065</v>
       </c>
       <c r="G208">
-        <v>-0.0004676009950771443</v>
+        <v>0.03565557948119291</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5199,10 +5199,10 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.272459307611997</v>
+        <v>-3.227906881182811</v>
       </c>
       <c r="G209">
-        <v>-0.01835546029997981</v>
+        <v>0.02619696612532418</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.313841091110136</v>
+        <v>-3.293285081337127</v>
       </c>
       <c r="G210">
-        <v>-0.0078006497191212</v>
+        <v>0.01275536004926148</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5248,7 +5248,7 @@
         <v>-3.358019641366265</v>
       </c>
       <c r="G211">
-        <v>5.371703082346357e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.349091129328612</v>
+        <v>-2.349648272185756</v>
       </c>
       <c r="G21">
         <v>-0.009870940396263794</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.367552665791947</v>
+        <v>-2.368109808649089</v>
       </c>
       <c r="G23">
         <v>-0.01493360226905471</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.37500980864909</v>
+        <v>-2.376783434023615</v>
       </c>
       <c r="G24">
         <v>-0.01569130783092554</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.38311597164392</v>
+        <v>-2.3843324541613</v>
       </c>
       <c r="G25">
         <v>-0.01709803353048334</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.409412052194663</v>
+        <v>-2.420585867905181</v>
       </c>
       <c r="G29">
         <v>-0.01659636490013883</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.420353838300969</v>
+        <v>-2.423667425663171</v>
       </c>
       <c r="G30">
         <v>-0.02083871371117207</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.431752399750131</v>
+        <v>-2.440482808455025</v>
       </c>
       <c r="G32">
         <v>-0.01883840056979058</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.446109970021731</v>
+        <v>-2.446419973622497</v>
       </c>
       <c r="G33">
         <v>-0.02649653354611847</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.455050718950641</v>
+        <v>-2.455168905171035</v>
       </c>
       <c r="G34">
         <v>-0.02873784517975686</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.454759372589711</v>
+        <v>-2.458128281827924</v>
       </c>
       <c r="G35">
         <v>-0.02174706152355466</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.465525073888449</v>
+        <v>-2.46853290937509</v>
       </c>
       <c r="G36">
         <v>-0.02581332552702054</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.502877040773814</v>
+        <v>-2.509411304177774</v>
       </c>
       <c r="G40">
         <v>-0.03636754323129776</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.500430559267695</v>
+        <v>-2.506214442923099</v>
       </c>
       <c r="G41">
         <v>-0.02722162442990728</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.516812749355885</v>
+        <v>-2.537315501662524</v>
       </c>
       <c r="G44">
         <v>-0.02350550263228124</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.5400412634529</v>
+        <v>-2.546090119230279</v>
       </c>
       <c r="G46">
         <v>-0.03333514213875244</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.544800546640323</v>
+        <v>-2.562883810883627</v>
       </c>
       <c r="G47">
         <v>-0.03139498803090346</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.559602009731559</v>
+        <v>-2.57031090676471</v>
       </c>
       <c r="G48">
         <v>-0.03949701382686688</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.568699800472204</v>
+        <v>-2.571573488553983</v>
       </c>
       <c r="G49">
         <v>-0.04189536727224041</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.572483293308479</v>
+        <v>-2.586965032841244</v>
       </c>
       <c r="G50">
         <v>-0.03897942281324318</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.574694620091083</v>
+        <v>-2.593768830777631</v>
       </c>
       <c r="G51">
         <v>-0.03449131230057523</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.614044772767753</v>
+        <v>-2.61751562196456</v>
       </c>
       <c r="G55">
         <v>-0.04704371579615763</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.616711402729575</v>
+        <v>-2.623240480802455</v>
       </c>
       <c r="G56">
         <v>-0.04301090846270794</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.626923451400676</v>
+        <v>-2.632279431653752</v>
       </c>
       <c r="G57">
         <v>-0.04652351983853609</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.622756191351625</v>
+        <v>-2.638813278362771</v>
       </c>
       <c r="G58">
         <v>-0.03565682249421365</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.634670477065916</v>
+        <v>-2.645774093033165</v>
       </c>
       <c r="G59">
         <v>-0.04087167091323252</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.645465799092145</v>
+        <v>-2.651746091127429</v>
       </c>
       <c r="G60">
         <v>-0.04496755564418964</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.655181922469277</v>
+        <v>-2.658248875226303</v>
       </c>
       <c r="G61">
         <v>-0.04798424172604943</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.653255370400428</v>
+        <v>-2.670596732759923</v>
       </c>
       <c r="G62">
         <v>-0.03935825236192891</v>
@@ -1841,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.661181707396372</v>
+        <v>-2.673259824171872</v>
       </c>
       <c r="G63">
         <v>-0.04058515206260016</v>
@@ -1864,7 +1864,7 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-2.667505167904801</v>
+        <v>-2.683071514953063</v>
       </c>
       <c r="G64">
         <v>-0.04020917527575707</v>
@@ -1910,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.685462560365227</v>
+        <v>-2.688058046580476</v>
       </c>
       <c r="G66">
         <v>-0.04476769314563972</v>
@@ -1933,7 +1933,7 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-2.690721137992429</v>
+        <v>-2.69616750031848</v>
       </c>
       <c r="G67">
         <v>-0.04332683347756916</v>
@@ -2002,7 +2002,7 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-2.704072513253391</v>
+        <v>-2.709263485683898</v>
       </c>
       <c r="G70">
         <v>-0.03657989685271584</v>
@@ -2071,7 +2071,7 @@
         <v>57</v>
       </c>
       <c r="F73">
-        <v>-2.714573012403556</v>
+        <v>-2.717168498618808</v>
       </c>
       <c r="G73">
         <v>-0.02698208411706471</v>
@@ -2094,7 +2094,7 @@
         <v>58</v>
       </c>
       <c r="F74">
-        <v>-2.716342854643444</v>
+        <v>-2.718938340858696</v>
       </c>
       <c r="G74">
         <v>-0.02205248906168111</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.59186860766349</v>
+        <v>-2.598172641155528</v>
       </c>
       <c r="G82">
         <v>0.00109545367406616</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-2.64042135244132</v>
+        <v>-2.641955507780406</v>
       </c>
       <c r="G83">
         <v>-0.001927538262233464</v>
@@ -2324,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-2.687127801149026</v>
+        <v>-2.688554140518475</v>
       </c>
       <c r="G84">
         <v>-0.003104234128407324</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-2.735461360142438</v>
+        <v>-2.738855370998668</v>
       </c>
       <c r="G85">
         <v>-0.005908040280287352</v>
@@ -2439,7 +2439,7 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-2.927997217214089</v>
+        <v>-2.929395910502844</v>
       </c>
       <c r="G89">
         <v>-0.01632488598581178</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-2.725329835109921</v>
+        <v>-2.726356326001451</v>
       </c>
       <c r="G94">
         <v>0.008422794252564536</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.774394876582092</v>
+        <v>-2.779164846439915</v>
       </c>
       <c r="G95">
         <v>0.007455583492246065</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-2.828008983551579</v>
+        <v>-2.830180630500621</v>
       </c>
       <c r="G96">
         <v>0.0006393658640209132</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-2.931371417484655</v>
+        <v>-2.936914993038444</v>
       </c>
       <c r="G98">
         <v>-0.007827348015940983</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-2.984802681893106</v>
+        <v>-2.987766745675359</v>
       </c>
       <c r="G99">
         <v>-0.01316078171253943</v>
@@ -2692,7 +2692,7 @@
         <v>328</v>
       </c>
       <c r="F100">
-        <v>-3.032968000169626</v>
+        <v>-3.034284751588802</v>
       </c>
       <c r="G100">
         <v>-0.01452821064779691</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-2.701281964443073</v>
+        <v>-2.703177631847244</v>
       </c>
       <c r="G103">
         <v>0.007323015930877474</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.74482430795167</v>
+        <v>-2.747709196668912</v>
       </c>
       <c r="G104">
         <v>0.01284336332884983</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.788920923886768</v>
+        <v>-2.796015904887811</v>
       </c>
       <c r="G105">
         <v>0.01707715933156617</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-2.843791605668897</v>
+        <v>-2.84483660773738</v>
       </c>
       <c r="G106">
         <v>0.01126916845600712</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-2.947140974896483</v>
+        <v>-2.950737429942385</v>
       </c>
       <c r="G108">
         <v>0.005312902072805992</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.052124244458397</v>
+        <v>-3.059301430581334</v>
       </c>
       <c r="G110">
         <v>-0.00227726464472322</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.103996063674282</v>
+        <v>-3.106812457811352</v>
       </c>
       <c r="G111">
         <v>-0.005818671922793284</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.7423225713039</v>
+        <v>-2.742679176857312</v>
       </c>
       <c r="G114">
         <v>0.008618185798599409</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-2.832428507456026</v>
+        <v>-2.835072072776722</v>
       </c>
       <c r="G116">
         <v>0.01751881509168851</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-2.883000860665958</v>
+        <v>-2.884703791762313</v>
       </c>
       <c r="G117">
         <v>0.01644974460436455</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-2.934749442642344</v>
+        <v>-2.936708992417926</v>
       </c>
       <c r="G118">
         <v>0.01420444535058607</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-2.985757435082704</v>
+        <v>-2.988455583040241</v>
       </c>
       <c r="G119">
         <v>0.01269973563283333</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.040497577689951</v>
+        <v>-3.045411136167934</v>
       </c>
       <c r="G120">
         <v>0.00746287574819382</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.099319584802688</v>
+        <v>-3.101456316365162</v>
       </c>
       <c r="G121">
         <v>-0.00185584864193522</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.776366991597363</v>
+        <v>-2.777364456245955</v>
       </c>
       <c r="G125">
         <v>0.009712718137036447</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-2.867002741567617</v>
+        <v>-2.86797705816827</v>
       </c>
       <c r="G127">
         <v>0.01942789352274477</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-2.914367653775439</v>
+        <v>-2.915786814460953</v>
       </c>
       <c r="G128">
         <v>0.02194154776404145</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-2.965537709981187</v>
+        <v>-2.96711231326316</v>
       </c>
       <c r="G129">
         <v>0.0209469542362748</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.019087097854288</v>
+        <v>-3.019435401203694</v>
       </c>
       <c r="G130">
         <v>0.01757302904115465</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.131085892846298</v>
+        <v>-3.133124833905483</v>
       </c>
       <c r="G132">
         <v>0.005628263176243653</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.189613213035178</v>
+        <v>-3.189694422762355</v>
       </c>
       <c r="G133">
         <v>-0.002723594334655077</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.799506941585689</v>
+        <v>-2.80008832012893</v>
       </c>
       <c r="G136">
         <v>0.01093705898962138</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-2.888090731690167</v>
+        <v>-2.889127887752382</v>
       </c>
       <c r="G138">
         <v>0.02352308401476289</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-2.936400166312652</v>
+        <v>-2.936938551462407</v>
       </c>
       <c r="G139">
         <v>0.02559292725153917</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-2.986909372614624</v>
+        <v>-2.987646941108987</v>
       </c>
       <c r="G140">
         <v>0.02566862851437746</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.039040629910281</v>
+        <v>-3.040498161706536</v>
       </c>
       <c r="G141">
         <v>0.02412227878353068</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.094755925023768</v>
+        <v>-3.097727232878441</v>
       </c>
       <c r="G142">
         <v>0.01878626152930563</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.153995516170166</v>
+        <v>-3.15482555998565</v>
       </c>
       <c r="G143">
         <v>0.01013157794771746</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.214368649697549</v>
+        <v>-3.21450067587261</v>
       </c>
       <c r="G144">
         <v>0.0003433519851438471</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.862778076015065</v>
+        <v>-2.862908399661157</v>
       </c>
       <c r="G148">
         <v>0.01956625400079348</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-2.906290183215405</v>
+        <v>-2.907506750742893</v>
       </c>
       <c r="G149">
         <v>0.02696925457407273</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-2.953393695039791</v>
+        <v>-2.954789591614572</v>
       </c>
       <c r="G150">
         <v>0.0307808505233067</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.003981355301814</v>
+        <v>-3.005082869807285</v>
       </c>
       <c r="G151">
         <v>0.03110829803490334</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.057434593926319</v>
+        <v>-3.057484266476415</v>
       </c>
       <c r="G152">
         <v>0.02857016718401684</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.113561300564671</v>
+        <v>-3.11481117355711</v>
       </c>
       <c r="G153">
         <v>0.02335856831928451</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.172035727596449</v>
+        <v>-3.173553799697333</v>
       </c>
       <c r="G154">
         <v>0.01579924906112617</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.834973101073067</v>
+        <v>-2.835395942130353</v>
       </c>
       <c r="G158">
         <v>0.01231549623711725</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-2.876216606850764</v>
+        <v>-2.876282456082528</v>
       </c>
       <c r="G159">
         <v>0.02224408766408148</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-2.96705818556298</v>
+        <v>-2.96743005541098</v>
       </c>
       <c r="G161">
         <v>0.03374670336118868</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.017363751427511</v>
+        <v>-3.017679903172262</v>
       </c>
       <c r="G162">
         <v>0.03461323470131883</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.070216948134135</v>
+        <v>-3.071744347277336</v>
       </c>
       <c r="G163">
         <v>0.03293213519935612</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.18708611027721</v>
+        <v>-3.188009369529822</v>
       </c>
       <c r="G165">
         <v>0.018407167465604</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.250307208707595</v>
+        <v>-3.250429172508638</v>
       </c>
       <c r="G166">
         <v>0.00635816623988078</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-2.932247131110976</v>
+        <v>-2.933392568684186</v>
       </c>
       <c r="G171">
         <v>0.03181769510833155</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-2.979411573978583</v>
+        <v>-2.979521849811723</v>
       </c>
       <c r="G172">
         <v>0.03614676214666401</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.08270336916735</v>
+        <v>-3.083039235306934</v>
       </c>
       <c r="G174">
         <v>0.03567287836286015</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.140596234691552</v>
+        <v>-3.14076851060391</v>
       </c>
       <c r="G175">
         <v>0.02927352274459816</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.263998704280904</v>
+        <v>-3.264051237610057</v>
       </c>
       <c r="G177">
         <v>0.008688964560209955</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.858277259259864</v>
+        <v>-2.85877499928102</v>
       </c>
       <c r="G180">
         <v>0.01399106732669608</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-2.89907622017323</v>
+        <v>-2.89921218433041</v>
       </c>
       <c r="G181">
         <v>0.02480462447563481</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-2.941617669000195</v>
+        <v>-2.941993504784392</v>
       </c>
       <c r="G182">
         <v>0.03387569371097432</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-2.988521353653134</v>
+        <v>-2.988778607546368</v>
       </c>
       <c r="G183">
         <v>0.0386506122907142</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.038879299658421</v>
+        <v>-3.039054842342528</v>
       </c>
       <c r="G184">
         <v>0.03990518434773116</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.092903857922992</v>
+        <v>-3.09361778735938</v>
       </c>
       <c r="G185">
         <v>0.03749314414546467</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.150636582203668</v>
+        <v>-3.150711593252427</v>
       </c>
       <c r="G186">
         <v>0.0314390230974676</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.274925786193126</v>
+        <v>-3.2752812884611</v>
       </c>
       <c r="G188">
         <v>0.01037485523261805</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.868317697030848</v>
+        <v>-2.868334518258368</v>
       </c>
       <c r="G191">
         <v>0.01393557038012982</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-2.908014175756817</v>
+        <v>-2.9081195526928</v>
       </c>
       <c r="G192">
         <v>0.02604539827076868</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-2.950813481897096</v>
+        <v>-2.95090094949013</v>
       </c>
       <c r="G193">
         <v>0.03505239874709587</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-2.996853495470543</v>
+        <v>-2.997213616483758</v>
       </c>
       <c r="G194">
         <v>0.04081869179025621</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.046931010760896</v>
+        <v>-3.047499457761634</v>
       </c>
       <c r="G195">
         <v>0.04254748311650891</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-2.915179202354677</v>
+        <v>-2.915432953831704</v>
       </c>
       <c r="G203">
         <v>0.02717726277906651</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.004479635950961</v>
+        <v>-3.004681459623628</v>
       </c>
       <c r="G205">
         <v>0.04179262324091271</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.05472044671296</v>
+        <v>-3.054986595682447</v>
       </c>
       <c r="G206">
         <v>0.0434884065571679</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.108568483407432</v>
+        <v>-3.109213788794329</v>
       </c>
       <c r="G207">
         <v>0.04161956984257209</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.166469067847065</v>
+        <v>-3.166848793693372</v>
       </c>
       <c r="G208">
         <v>0.03565557948119291</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.227906881182811</v>
+        <v>-3.228459968776472</v>
       </c>
       <c r="G209">
         <v>0.02619696612532418</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.293285081337127</v>
+        <v>-3.293695001232593</v>
       </c>
       <c r="G210">
         <v>0.01275536004926148</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.357764754703136</v>
+        <v>-2.358879040417423</v>
       </c>
       <c r="G22">
         <v>-0.01184512847551522</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.3843324541613</v>
+        <v>-2.38646914830933</v>
       </c>
       <c r="G25">
         <v>-0.01709803353048334</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.391324331441843</v>
+        <v>-2.396257059398141</v>
       </c>
       <c r="G26">
         <v>-0.018606956033135</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.399997956816368</v>
+        <v>-2.407159256201237</v>
       </c>
       <c r="G27">
         <v>-0.02058114411238798</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.407444780150958</v>
+        <v>-2.417504310147192</v>
       </c>
       <c r="G28">
         <v>-0.0213285301517061</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.420585867905181</v>
+        <v>-2.428406506950289</v>
       </c>
       <c r="G29">
         <v>-0.01659636490013883</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.423667425663171</v>
+        <v>-2.435398384230832</v>
       </c>
       <c r="G30">
         <v>-0.02083871371117207</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.438479941988822</v>
+        <v>-2.442390261511375</v>
       </c>
       <c r="G31">
         <v>-0.03226538010375357</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.440482808455025</v>
+        <v>-2.450064496648837</v>
       </c>
       <c r="G32">
         <v>-0.01883840056979058</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.446419973622497</v>
+        <v>-2.456374016072462</v>
       </c>
       <c r="G33">
         <v>-0.02649653354611847</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.455168905171035</v>
+        <v>-2.464730609066841</v>
       </c>
       <c r="G34">
         <v>-0.02873784517975686</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.458128281827924</v>
+        <v>-2.471040128490467</v>
       </c>
       <c r="G35">
         <v>-0.02174706152355466</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.46853290937509</v>
+        <v>-2.480761437198681</v>
       </c>
       <c r="G36">
         <v>-0.02581332552702054</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.481858528885803</v>
+        <v>-2.488435672336144</v>
       </c>
       <c r="G37">
         <v>-0.03544734322910292</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.486057663101252</v>
+        <v>-2.496109907473605</v>
       </c>
       <c r="G38">
         <v>-0.03294704014927974</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.490006110472649</v>
+        <v>-2.502419426897231</v>
       </c>
       <c r="G39">
         <v>-0.03019605022540461</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.509411304177774</v>
+        <v>-2.510093662034693</v>
       </c>
       <c r="G40">
         <v>-0.03636754323129776</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.506214442923099</v>
+        <v>-2.519132612885989</v>
       </c>
       <c r="G41">
         <v>-0.02722162442990728</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.519798033560245</v>
+        <v>-2.526559708767075</v>
       </c>
       <c r="G42">
         <v>-0.03988966142718509</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.519272495765265</v>
+        <v>-2.532869228190695</v>
       </c>
       <c r="G43">
         <v>-0.03266468633693309</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.537315501662524</v>
+        <v>-2.541908179041994</v>
       </c>
       <c r="G44">
         <v>-0.02350550263228124</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.548217698465619</v>
+        <v>-2.549829553435836</v>
       </c>
       <c r="G45">
         <v>-0.04821101444674336</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.546090119230279</v>
+        <v>-2.556574291459998</v>
       </c>
       <c r="G46">
         <v>-0.03333514213875244</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.562883810883627</v>
+        <v>-2.564930884454377</v>
       </c>
       <c r="G47">
         <v>-0.03139498803090346</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.57031090676471</v>
+        <v>-2.570993264621629</v>
       </c>
       <c r="G48">
         <v>-0.03949701382686688</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.571573488553983</v>
+        <v>-2.579785076216541</v>
       </c>
       <c r="G49">
         <v>-0.04189536727224041</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.586965032841244</v>
+        <v>-2.588388808467301</v>
       </c>
       <c r="G50">
         <v>-0.03897942281324318</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.593768830777631</v>
+        <v>-2.59445118863455</v>
       </c>
       <c r="G51">
         <v>-0.03449131230057523</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.590639762353928</v>
+        <v>-2.60417249734276</v>
       </c>
       <c r="G52">
         <v>-0.0437370172681486</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.607855467940989</v>
+        <v>-2.611599593223846</v>
       </c>
       <c r="G53">
         <v>-0.05425328555993725</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.611448056466229</v>
+        <v>-2.620450464730982</v>
       </c>
       <c r="G54">
         <v>-0.0511464367899056</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.61751562196456</v>
+        <v>-2.62787756061207</v>
       </c>
       <c r="G55">
         <v>-0.04704371579615763</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.623240480802455</v>
+        <v>-2.63598701435007</v>
       </c>
       <c r="G56">
         <v>-0.04301090846270794</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.632279431653752</v>
+        <v>-2.644778825944981</v>
       </c>
       <c r="G57">
         <v>-0.04652351983853609</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-2.638813278362771</v>
+        <v>-2.653135418939363</v>
       </c>
       <c r="G58">
         <v>-0.03565682249421365</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-2.645774093033165</v>
+        <v>-2.661244872677367</v>
       </c>
       <c r="G59">
         <v>-0.04087167091323252</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-2.651746091127429</v>
+        <v>-2.665610201132506</v>
       </c>
       <c r="G60">
         <v>-0.04496755564418964</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-2.658248875226303</v>
+        <v>-2.669975529587645</v>
       </c>
       <c r="G61">
         <v>-0.04798424172604943</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-2.670596732759923</v>
+        <v>-2.674340858042785</v>
       </c>
       <c r="G62">
         <v>-0.03935825236192891</v>
@@ -1841,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-2.673259824171872</v>
+        <v>-2.678706186497924</v>
       </c>
       <c r="G63">
         <v>-0.04058515206260016</v>
@@ -1887,7 +1887,7 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-2.68199048108215</v>
+        <v>-2.687436843408202</v>
       </c>
       <c r="G65">
         <v>-0.04799505115783431</v>
@@ -1910,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-2.688058046580476</v>
+        <v>-2.691802171863341</v>
       </c>
       <c r="G66">
         <v>-0.04476769314563972</v>
@@ -2025,7 +2025,7 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-2.708437841708533</v>
+        <v>-2.713628814139036</v>
       </c>
       <c r="G71">
         <v>-0.03424578801258538</v>
@@ -2048,7 +2048,7 @@
         <v>56</v>
       </c>
       <c r="F72">
-        <v>-2.71280317016367</v>
+        <v>-2.715398656378923</v>
       </c>
       <c r="G72">
         <v>-0.03191167917245114</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.552990841190292</v>
+        <v>-2.554623280602192</v>
       </c>
       <c r="G81">
         <v>-0.005556532694267702</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.598172641155528</v>
+        <v>-2.607843413953285</v>
       </c>
       <c r="G82">
         <v>0.00109545367406616</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-2.641955507780406</v>
+        <v>-2.668173790139098</v>
       </c>
       <c r="G83">
         <v>-0.001927538262233464</v>
@@ -2324,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-2.688554140518475</v>
+        <v>-2.725311976465548</v>
       </c>
       <c r="G84">
         <v>-0.003104234128407324</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-2.738855370998668</v>
+        <v>-2.765424117969673</v>
       </c>
       <c r="G85">
         <v>-0.005908040280287352</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-2.792463205073472</v>
+        <v>-2.809065892341823</v>
       </c>
       <c r="G86">
         <v>-0.01738013236978975</v>
@@ -2393,7 +2393,7 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-2.842088898233716</v>
+        <v>-2.854175625236731</v>
       </c>
       <c r="G87">
         <v>-0.02147607268850238</v>
@@ -2416,7 +2416,7 @@
         <v>136</v>
       </c>
       <c r="F88">
-        <v>-2.883942947174651</v>
+        <v>-2.900686806304248</v>
       </c>
       <c r="G88">
         <v>-0.0178003687879057</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-2.635981608823821</v>
+        <v>-2.638538733157197</v>
       </c>
       <c r="G92">
         <v>0.002875300485549293</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-2.680056023582048</v>
+        <v>-2.688472377821874</v>
       </c>
       <c r="G93">
         <v>0.006898716439174724</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-2.726356326001451</v>
+        <v>-2.745923359123243</v>
       </c>
       <c r="G94">
         <v>0.008422794252564536</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.779164846439915</v>
+        <v>-2.808374954907436</v>
       </c>
       <c r="G95">
         <v>0.007455583492246065</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-2.830180630500621</v>
+        <v>-2.866085184009156</v>
       </c>
       <c r="G96">
         <v>0.0006393658640209132</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-2.887140792310731</v>
+        <v>-2.908411802361093</v>
       </c>
       <c r="G97">
         <v>-0.01039461218327919</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-2.936914993038444</v>
+        <v>-2.950662040644183</v>
       </c>
       <c r="G98">
         <v>-0.007827348015940983</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-2.987766745675359</v>
+        <v>-2.998845155340123</v>
       </c>
       <c r="G99">
         <v>-0.01316078171253943</v>
@@ -2692,7 +2692,7 @@
         <v>328</v>
       </c>
       <c r="F100">
-        <v>-3.034284751588802</v>
+        <v>-3.042243221394119</v>
       </c>
       <c r="G100">
         <v>-0.01452821064779691</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-2.703177631847244</v>
+        <v>-2.704213015419688</v>
       </c>
       <c r="G103">
         <v>0.007323015930877474</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.747709196668912</v>
+        <v>-2.754186905715485</v>
       </c>
       <c r="G104">
         <v>0.01284336332884983</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.796015904887811</v>
+        <v>-2.809394260067954</v>
       </c>
       <c r="G105">
         <v>0.01707715933156617</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-2.84483660773738</v>
+        <v>-2.869388170637011</v>
       </c>
       <c r="G106">
         <v>0.01126916845600712</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-2.90132330732049</v>
+        <v>-2.931491248867191</v>
       </c>
       <c r="G107">
         <v>0.002067878742228579</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-2.950737429942385</v>
+        <v>-2.984799585897474</v>
       </c>
       <c r="G108">
         <v>0.005312902072805992</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.002990794855685</v>
+        <v>-3.025692351278989</v>
       </c>
       <c r="G109">
         <v>-0.002206505948580961</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.059301430581334</v>
+        <v>-3.070244194819058</v>
       </c>
       <c r="G110">
         <v>-0.00227726464472322</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.106812457811352</v>
+        <v>-3.116479066844434</v>
       </c>
       <c r="G111">
         <v>-0.005818671922793284</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.742679176857312</v>
+        <v>-2.743912785833856</v>
       </c>
       <c r="G114">
         <v>0.008618185798599409</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-2.786515481870801</v>
+        <v>-2.792269344133564</v>
       </c>
       <c r="G115">
         <v>0.01392855795430625</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-2.835072072776722</v>
+        <v>-2.846447121507417</v>
       </c>
       <c r="G116">
         <v>0.01751881509168851</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-2.884703791762313</v>
+        <v>-2.904275640226203</v>
       </c>
       <c r="G117">
         <v>0.01644974460436455</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-2.936708992417926</v>
+        <v>-2.966023090570637</v>
       </c>
       <c r="G118">
         <v>0.01420444535058607</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-2.988455583040241</v>
+        <v>-3.031546216549622</v>
       </c>
       <c r="G119">
         <v>0.01269973563283333</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.045411136167934</v>
+        <v>-3.072968559096603</v>
       </c>
       <c r="G120">
         <v>0.00746287574819382</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.101456316365162</v>
+        <v>-3.116201995023014</v>
       </c>
       <c r="G121">
         <v>-0.00185584864193522</v>
@@ -3198,7 +3198,7 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.153315495318466</v>
+        <v>-3.162148625521456</v>
       </c>
       <c r="G122">
         <v>-0.006348476435105721</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.777364456245955</v>
+        <v>-2.777773436051201</v>
       </c>
       <c r="G125">
         <v>0.009712718137036447</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.820947405657256</v>
+        <v>-2.821567277984136</v>
       </c>
       <c r="G126">
         <v>0.01530776675512513</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-2.86797705816827</v>
+        <v>-2.879134557794186</v>
       </c>
       <c r="G127">
         <v>0.01942789352274477</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-2.915786814460953</v>
+        <v>-2.936401676206434</v>
       </c>
       <c r="G128">
         <v>0.02194154776404145</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-2.96711231326316</v>
+        <v>-2.995764546790229</v>
       </c>
       <c r="G129">
         <v>0.0209469542362748</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.019435401203694</v>
+        <v>-3.059228572040379</v>
       </c>
       <c r="G130">
         <v>0.01757302904115465</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.074397328148494</v>
+        <v>-3.112334002758685</v>
       </c>
       <c r="G131">
         <v>0.01214136519606612</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.133124833905483</v>
+        <v>-3.153947665914814</v>
       </c>
       <c r="G132">
         <v>0.005628263176243653</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.189694422762355</v>
+        <v>-3.199020650560917</v>
       </c>
       <c r="G133">
         <v>-0.002723594334655077</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.80008832012893</v>
+        <v>-2.800945636508173</v>
       </c>
       <c r="G136">
         <v>0.01093705898962138</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.84322056252443</v>
+        <v>-2.848916277902985</v>
       </c>
       <c r="G137">
         <v>0.01780834561569034</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-2.889127887752382</v>
+        <v>-2.899792767730811</v>
       </c>
       <c r="G138">
         <v>0.02352308401476289</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-2.936938551462407</v>
+        <v>-2.955477102384745</v>
       </c>
       <c r="G139">
         <v>0.02559292725153917</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-2.987646941108987</v>
+        <v>-3.016210587421444</v>
       </c>
       <c r="G140">
         <v>0.02566862851437746</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.040498161706536</v>
+        <v>-3.079206286241935</v>
       </c>
       <c r="G141">
         <v>0.02412227878353068</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.097727232878441</v>
+        <v>-3.14093831793031</v>
       </c>
       <c r="G142">
         <v>0.01878626152930563</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.15482555998565</v>
+        <v>-3.181397858091336</v>
       </c>
       <c r="G143">
         <v>0.01013157794771746</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.21450067587261</v>
+        <v>-3.225659326207907</v>
       </c>
       <c r="G144">
         <v>0.0003433519851438471</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.820152364540585</v>
+        <v>-2.820610434302915</v>
       </c>
       <c r="G147">
         <v>0.01127685770165332</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.862908399661157</v>
+        <v>-2.868014847340862</v>
       </c>
       <c r="G148">
         <v>0.01956625400079348</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-2.907506750742893</v>
+        <v>-2.919570498955114</v>
       </c>
       <c r="G149">
         <v>0.02696925457407273</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-2.954789591614572</v>
+        <v>-2.97402453155156</v>
       </c>
       <c r="G150">
         <v>0.0307808505233067</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.005082869807285</v>
+        <v>-3.033498177800559</v>
       </c>
       <c r="G151">
         <v>0.03110829803490334</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.057484266476415</v>
+        <v>-3.095710408327107</v>
       </c>
       <c r="G152">
         <v>0.02857016718401684</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.11481117355711</v>
+        <v>-3.161026091288348</v>
       </c>
       <c r="G153">
         <v>0.02335856831928451</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.173553799697333</v>
+        <v>-3.20499677525946</v>
       </c>
       <c r="G154">
         <v>0.01579924906112617</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.234842410489179</v>
+        <v>-3.248544766628343</v>
       </c>
       <c r="G155">
         <v>0.003907673942015522</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.835395942130353</v>
+        <v>-2.836102870905893</v>
       </c>
       <c r="G158">
         <v>0.01231549623711725</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-2.876282456082528</v>
+        <v>-2.882366370261538</v>
       </c>
       <c r="G159">
         <v>0.02224408766408148</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-2.92056264203591</v>
+        <v>-2.932511564241693</v>
       </c>
       <c r="G160">
         <v>0.02907014968359767</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-2.96743005541098</v>
+        <v>-2.987282083624219</v>
       </c>
       <c r="G161">
         <v>0.03374670336118868</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.017679903172262</v>
+        <v>-3.045870051124028</v>
       </c>
       <c r="G162">
         <v>0.03461323470131883</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.071744347277336</v>
+        <v>-3.107748197925712</v>
       </c>
       <c r="G163">
         <v>0.03293213519935612</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.128128137411281</v>
+        <v>-3.173148232154773</v>
       </c>
       <c r="G164">
         <v>0.02619304312687232</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.188009369529822</v>
+        <v>-3.223056745812864</v>
       </c>
       <c r="G165">
         <v>0.018407167465604</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.250429172508638</v>
+        <v>-3.266091509690916</v>
       </c>
       <c r="G166">
         <v>0.00635816623988078</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.848321231314283</v>
+        <v>-2.848926194106371</v>
       </c>
       <c r="G169">
         <v>0.01292568350006063</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-2.889583550426884</v>
+        <v>-2.895550053131974</v>
       </c>
       <c r="G170">
         <v>0.02307232008994164</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-2.933392568684186</v>
+        <v>-2.945905020400408</v>
       </c>
       <c r="G171">
         <v>0.03181769510833155</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-2.979521849811723</v>
+        <v>-2.999350130103176</v>
       </c>
       <c r="G172">
         <v>0.03614676214666401</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.02958196275116</v>
+        <v>-3.057363648859906</v>
       </c>
       <c r="G173">
         <v>0.03738532907656933</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.083039235306934</v>
+        <v>-3.11932252692836</v>
       </c>
       <c r="G174">
         <v>0.03567287836286015</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.14076851060391</v>
+        <v>-3.183170316168831</v>
       </c>
       <c r="G175">
         <v>0.02927352274459816</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.200820320326145</v>
+        <v>-3.239410393928282</v>
       </c>
       <c r="G176">
         <v>0.02045839281248663</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.264051237610057</v>
+        <v>-3.281545327924439</v>
       </c>
       <c r="G177">
         <v>0.008688964560209955</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.85877499928102</v>
+        <v>-2.8600177616961</v>
       </c>
       <c r="G180">
         <v>0.01399106732669608</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-2.89921218433041</v>
+        <v>-2.905508549992137</v>
       </c>
       <c r="G181">
         <v>0.02480462447563481</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-2.941993504784392</v>
+        <v>-2.954064978687852</v>
       </c>
       <c r="G182">
         <v>0.03387569371097432</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-2.988778607546368</v>
+        <v>-3.008007033236834</v>
       </c>
       <c r="G183">
         <v>0.0386506122907142</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.039054842342528</v>
+        <v>-3.065411470232486</v>
       </c>
       <c r="G184">
         <v>0.03990518434773116</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.09361778735938</v>
+        <v>-3.126758929234306</v>
       </c>
       <c r="G185">
         <v>0.03749314414546467</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.150711593252427</v>
+        <v>-3.191546707751685</v>
       </c>
       <c r="G186">
         <v>0.0314390230974676</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.210756287581215</v>
+        <v>-3.252564774236037</v>
       </c>
       <c r="G187">
         <v>0.02293183578222491</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.2752812884611</v>
+        <v>-3.293928908159701</v>
       </c>
       <c r="G188">
         <v>0.01037485523261805</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.868334518258368</v>
+        <v>-2.869176252664726</v>
       </c>
       <c r="G191">
         <v>0.01393557038012982</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-2.9081195526928</v>
+        <v>-2.915034855396202</v>
       </c>
       <c r="G192">
         <v>0.02604539827076868</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-2.95090094949013</v>
+        <v>-2.963491711993393</v>
       </c>
       <c r="G193">
         <v>0.03505239874709587</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-2.997213616483758</v>
+        <v>-3.016616627269749</v>
       </c>
       <c r="G194">
         <v>0.04081869179025621</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.047499457761634</v>
+        <v>-3.073561443303764</v>
       </c>
       <c r="G195">
         <v>0.04254748311650891</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.101680157010965</v>
+        <v>-3.13415183486944</v>
       </c>
       <c r="G196">
         <v>0.03960464348304771</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.15945891228188</v>
+        <v>-3.19855868220079</v>
       </c>
       <c r="G197">
         <v>0.03363219482873903</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.220583242468579</v>
+        <v>-3.264768759648063</v>
       </c>
       <c r="G198">
         <v>0.02431417125864743</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.285292488999269</v>
+        <v>-3.305109662915616</v>
       </c>
       <c r="G199">
         <v>0.01141123134456351</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.876012143218532</v>
+        <v>-2.877301792559807</v>
       </c>
       <c r="G202">
         <v>0.01436512193533446</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-2.915432953831704</v>
+        <v>-2.922090901141269</v>
       </c>
       <c r="G203">
         <v>0.02717726277906651</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-2.958418231823536</v>
+        <v>-2.970674542844674</v>
       </c>
       <c r="G204">
         <v>0.03587482738846082</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.004681459623628</v>
+        <v>-3.022941327458493</v>
       </c>
       <c r="G205">
         <v>0.04179262324091271</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.054986595682447</v>
+        <v>-3.079518343575935</v>
       </c>
       <c r="G206">
         <v>0.0434884065571679</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.109213788794329</v>
+        <v>-3.139962755791331</v>
       </c>
       <c r="G207">
         <v>0.04161956984257209</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.166848793693372</v>
+        <v>-3.204569016358693</v>
       </c>
       <c r="G208">
         <v>0.03565557948119291</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.228459968776472</v>
+        <v>-3.272547191150109</v>
       </c>
       <c r="G209">
         <v>0.02619696612532418</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.293695001232593</v>
+        <v>-3.314332069333171</v>
       </c>
       <c r="G210">
         <v>0.01275536004926148</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.376783434023615</v>
+        <v>-2.377340576880758</v>
       </c>
       <c r="G24">
         <v>-0.01569130783092554</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.38646914830933</v>
+        <v>-2.387026291166473</v>
       </c>
       <c r="G25">
         <v>-0.01709803353048334</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.396257059398141</v>
+        <v>-2.397371345112427</v>
       </c>
       <c r="G26">
         <v>-0.018606956033135</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.442390261511375</v>
+        <v>-2.443072619368293</v>
       </c>
       <c r="G31">
         <v>-0.03226538010375357</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.456374016072462</v>
+        <v>-2.45705637392938</v>
       </c>
       <c r="G33">
         <v>-0.02649653354611847</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.464730609066841</v>
+        <v>-2.46541296692376</v>
       </c>
       <c r="G34">
         <v>-0.02873784517975686</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.471040128490467</v>
+        <v>-2.472404844204302</v>
       </c>
       <c r="G35">
         <v>-0.02174706152355466</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.502419426897231</v>
+        <v>-2.503784142611067</v>
       </c>
       <c r="G39">
         <v>-0.03019605022540461</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.526559708767075</v>
+        <v>-2.526806848023451</v>
       </c>
       <c r="G42">
         <v>-0.03988966142718509</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.532869228190695</v>
+        <v>-2.535163441017831</v>
       </c>
       <c r="G43">
         <v>-0.03266468633693309</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.556574291459998</v>
+        <v>-2.557503788573297</v>
       </c>
       <c r="G46">
         <v>-0.03333514213875244</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.570993264621629</v>
+        <v>-2.572605119591844</v>
       </c>
       <c r="G48">
         <v>-0.03949701382686688</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.579785076216541</v>
+        <v>-2.580714573329839</v>
       </c>
       <c r="G49">
         <v>-0.04189536727224041</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.59445118863455</v>
+        <v>-2.595815904348386</v>
       </c>
       <c r="G51">
         <v>-0.03449131230057523</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.60417249734276</v>
+        <v>-2.605101994456062</v>
       </c>
       <c r="G52">
         <v>-0.0437370172681486</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.611599593223846</v>
+        <v>-2.61321144819406</v>
       </c>
       <c r="G53">
         <v>-0.05425328555993725</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.620450464730982</v>
+        <v>-2.620697603987363</v>
       </c>
       <c r="G54">
         <v>-0.0511464367899056</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-2.62787756061207</v>
+        <v>-2.628807057725366</v>
       </c>
       <c r="G55">
         <v>-0.04704371579615763</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-2.63598701435007</v>
+        <v>-2.636916511463366</v>
       </c>
       <c r="G56">
         <v>-0.04301090846270794</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-2.644778825944981</v>
+        <v>-2.645025965201365</v>
       </c>
       <c r="G57">
         <v>-0.04652351983853609</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.554623280602192</v>
+        <v>-2.555854905296076</v>
       </c>
       <c r="G81">
         <v>-0.005556532694267702</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.607843413953285</v>
+        <v>-2.610513124475343</v>
       </c>
       <c r="G82">
         <v>0.00109545367406616</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-2.668173790139098</v>
+        <v>-2.668566112589453</v>
       </c>
       <c r="G83">
         <v>-0.001927538262233464</v>
@@ -2324,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-2.725311976465548</v>
+        <v>-2.725573474334651</v>
       </c>
       <c r="G84">
         <v>-0.003104234128407324</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-2.765424117969673</v>
+        <v>-2.766711401576814</v>
       </c>
       <c r="G85">
         <v>-0.005908040280287352</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-2.809065892341823</v>
+        <v>-2.809568682341658</v>
       </c>
       <c r="G86">
         <v>-0.01738013236978975</v>
@@ -2393,7 +2393,7 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-2.854175625236731</v>
+        <v>-2.855191308105585</v>
       </c>
       <c r="G87">
         <v>-0.02147607268850238</v>
@@ -2416,7 +2416,7 @@
         <v>136</v>
       </c>
       <c r="F88">
-        <v>-2.900686806304248</v>
+        <v>-2.900892374945193</v>
       </c>
       <c r="G88">
         <v>-0.0178003687879057</v>
@@ -2439,7 +2439,7 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-2.929395910502844</v>
+        <v>-2.929826326495588</v>
       </c>
       <c r="G89">
         <v>-0.01632488598581178</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-2.638538733157197</v>
+        <v>-2.638783419025197</v>
       </c>
       <c r="G92">
         <v>0.002875300485549293</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-2.688472377821874</v>
+        <v>-2.689967761919911</v>
       </c>
       <c r="G93">
         <v>0.006898716439174724</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-2.745923359123243</v>
+        <v>-2.747575793091995</v>
       </c>
       <c r="G94">
         <v>0.008422794252564536</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.808374954907436</v>
+        <v>-2.808523476391878</v>
       </c>
       <c r="G95">
         <v>0.007455583492246065</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-2.866085184009156</v>
+        <v>-2.867070783259148</v>
       </c>
       <c r="G96">
         <v>0.0006393658640209132</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-2.908411802361093</v>
+        <v>-2.908572236109416</v>
       </c>
       <c r="G97">
         <v>-0.01039461218327919</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-2.950662040644183</v>
+        <v>-2.951402619972989</v>
       </c>
       <c r="G98">
         <v>-0.007827348015940983</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-2.704213015419688</v>
+        <v>-2.704812980528246</v>
       </c>
       <c r="G103">
         <v>0.007323015930877474</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.754186905715485</v>
+        <v>-2.754556379399696</v>
       </c>
       <c r="G104">
         <v>0.01284336332884983</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.809394260067954</v>
+        <v>-2.809514186774096</v>
       </c>
       <c r="G105">
         <v>0.01707715933156617</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-2.869388170637011</v>
+        <v>-2.870242387244383</v>
       </c>
       <c r="G106">
         <v>0.01126916845600712</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-2.984799585897474</v>
+        <v>-2.984928874754575</v>
       </c>
       <c r="G108">
         <v>0.005312902072805992</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.025692351278989</v>
+        <v>-3.026085413611586</v>
       </c>
       <c r="G109">
         <v>-0.002206505948580961</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.116479066844434</v>
+        <v>-3.11661095358218</v>
       </c>
       <c r="G111">
         <v>-0.005818671922793284</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.743912785833856</v>
+        <v>-2.744485239639226</v>
       </c>
       <c r="G114">
         <v>0.008618185798599409</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-2.792269344133564</v>
+        <v>-2.792620663514821</v>
       </c>
       <c r="G115">
         <v>0.01392855795430625</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-2.846447121507417</v>
+        <v>-2.846670688386399</v>
       </c>
       <c r="G116">
         <v>0.01751881509168851</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-2.904275640226203</v>
+        <v>-2.904420781574539</v>
       </c>
       <c r="G117">
         <v>0.01644974460436455</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-2.966023090570637</v>
+        <v>-2.966037639850144</v>
       </c>
       <c r="G118">
         <v>0.01420444535058607</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.031546216549622</v>
+        <v>-3.031569463811147</v>
       </c>
       <c r="G119">
         <v>0.01269973563283333</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.072968559096603</v>
+        <v>-3.073098502515601</v>
       </c>
       <c r="G120">
         <v>0.00746287574819382</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.116201995023014</v>
+        <v>-3.116280227133998</v>
       </c>
       <c r="G121">
         <v>-0.00185584864193522</v>
@@ -3198,7 +3198,7 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.162148625521456</v>
+        <v>-3.162187741576948</v>
       </c>
       <c r="G122">
         <v>-0.006348476435105721</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.777773436051201</v>
+        <v>-2.777985314177221</v>
       </c>
       <c r="G125">
         <v>0.009712718137036447</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.821567277984136</v>
+        <v>-2.827099273694523</v>
       </c>
       <c r="G126">
         <v>0.01530776675512513</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-2.879134557794186</v>
+        <v>-2.879301007112503</v>
       </c>
       <c r="G127">
         <v>0.01942789352274477</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-2.936401676206434</v>
+        <v>-2.93652269671705</v>
       </c>
       <c r="G128">
         <v>0.02194154776404145</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-2.995764546790229</v>
+        <v>-2.995842105129155</v>
       </c>
       <c r="G129">
         <v>0.0209469542362748</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.059228572040379</v>
+        <v>-3.05931179669954</v>
       </c>
       <c r="G130">
         <v>0.01757302904115465</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.112334002758685</v>
+        <v>-3.11251545064653</v>
       </c>
       <c r="G131">
         <v>0.01214136519606612</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.153947665914814</v>
+        <v>-3.15407507713291</v>
       </c>
       <c r="G132">
         <v>0.005628263176243653</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.199020650560917</v>
+        <v>-3.199047156865372</v>
       </c>
       <c r="G133">
         <v>-0.002723594334655077</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.800945636508173</v>
+        <v>-2.801219854808824</v>
       </c>
       <c r="G136">
         <v>0.01093705898962138</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.848916277902985</v>
+        <v>-2.849146116267252</v>
       </c>
       <c r="G137">
         <v>0.01780834561569034</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-2.899792767730811</v>
+        <v>-2.90011745179285</v>
       </c>
       <c r="G138">
         <v>0.02352308401476289</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-2.955477102384745</v>
+        <v>-2.955545910525329</v>
       </c>
       <c r="G139">
         <v>0.02559292725153917</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.016210587421444</v>
+        <v>-3.01672876050228</v>
       </c>
       <c r="G140">
         <v>0.02566862851437746</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.14093831793031</v>
+        <v>-3.141043404158687</v>
       </c>
       <c r="G142">
         <v>0.01878626152930563</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.181397858091336</v>
+        <v>-3.181503539353261</v>
       </c>
       <c r="G143">
         <v>0.01013157794771746</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.225659326207907</v>
+        <v>-3.225694318918519</v>
       </c>
       <c r="G144">
         <v>0.0003433519851438471</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.820610434302915</v>
+        <v>-2.820907948410536</v>
       </c>
       <c r="G147">
         <v>0.01127685770165332</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.868014847340862</v>
+        <v>-2.868258641281974</v>
       </c>
       <c r="G148">
         <v>0.01956625400079348</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-2.919570498955114</v>
+        <v>-2.920071168235274</v>
       </c>
       <c r="G149">
         <v>0.02696925457407273</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-2.97402453155156</v>
+        <v>-2.974201332735456</v>
       </c>
       <c r="G150">
         <v>0.0307808505233067</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.033498177800559</v>
+        <v>-3.034439967544306</v>
       </c>
       <c r="G151">
         <v>0.03110829803490334</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.095710408327107</v>
+        <v>-3.096348806978193</v>
       </c>
       <c r="G152">
         <v>0.02857016718401684</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.161026091288348</v>
+        <v>-3.16103632750882</v>
       </c>
       <c r="G153">
         <v>0.02335856831928451</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.20499677525946</v>
+        <v>-3.205161264573169</v>
       </c>
       <c r="G154">
         <v>0.01579924906112617</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.248544766628343</v>
+        <v>-3.248670134213604</v>
       </c>
       <c r="G155">
         <v>0.003907673942015522</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.836102870905893</v>
+        <v>-2.836690200076005</v>
       </c>
       <c r="G158">
         <v>0.01231549623711725</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-2.882366370261538</v>
+        <v>-2.8825289911816</v>
       </c>
       <c r="G159">
         <v>0.02224408766408148</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-2.932511564241693</v>
+        <v>-2.933066921417714</v>
       </c>
       <c r="G160">
         <v>0.02907014968359767</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-2.987282083624219</v>
+        <v>-2.988122044460464</v>
       </c>
       <c r="G161">
         <v>0.03374670336118868</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.045870051124028</v>
+        <v>-3.047077905138944</v>
       </c>
       <c r="G162">
         <v>0.03461323470131883</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.107748197925712</v>
+        <v>-3.109092480357824</v>
       </c>
       <c r="G163">
         <v>0.03293213519935612</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.173148232154773</v>
+        <v>-3.173524421104336</v>
       </c>
       <c r="G164">
         <v>0.02619304312687232</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.223056745812864</v>
+        <v>-3.223141409962457</v>
       </c>
       <c r="G165">
         <v>0.018407167465604</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.266091509690916</v>
+        <v>-3.266448736478761</v>
       </c>
       <c r="G166">
         <v>0.00635816623988078</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.848926194106371</v>
+        <v>-2.849191314752157</v>
       </c>
       <c r="G169">
         <v>0.01292568350006063</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-2.895550053131974</v>
+        <v>-2.895723159793592</v>
       </c>
       <c r="G170">
         <v>0.02307232008994164</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-2.945905020400408</v>
+        <v>-2.946485757715549</v>
       </c>
       <c r="G171">
         <v>0.03181769510833155</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-2.999350130103176</v>
+        <v>-3.000875126022288</v>
       </c>
       <c r="G172">
         <v>0.03614676214666401</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.057363648859906</v>
+        <v>-3.059336025393691</v>
       </c>
       <c r="G173">
         <v>0.03738532907656933</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.11932252692836</v>
+        <v>-3.120542665889938</v>
       </c>
       <c r="G174">
         <v>0.03567287836286015</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.183170316168831</v>
+        <v>-3.183781956448725</v>
       </c>
       <c r="G175">
         <v>0.02927352274459816</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.239410393928282</v>
+        <v>-3.239488414902386</v>
       </c>
       <c r="G176">
         <v>0.02045839281248663</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.281545327924439</v>
+        <v>-3.281842709819992</v>
       </c>
       <c r="G177">
         <v>0.008688964560209955</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.8600177616961</v>
+        <v>-2.860776776997048</v>
       </c>
       <c r="G180">
         <v>0.01399106732669608</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-2.905508549992137</v>
+        <v>-2.90568745164742</v>
       </c>
       <c r="G181">
         <v>0.02480462447563481</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-2.954064978687852</v>
+        <v>-2.95516606888557</v>
       </c>
       <c r="G182">
         <v>0.03387569371097432</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.008007033236834</v>
+        <v>-3.00976485431879</v>
       </c>
       <c r="G183">
         <v>0.0386506122907142</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.065411470232486</v>
+        <v>-3.067646694901834</v>
       </c>
       <c r="G184">
         <v>0.03990518434773116</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.126758929234306</v>
+        <v>-3.129012524376728</v>
       </c>
       <c r="G185">
         <v>0.03749314414546467</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.191546707751685</v>
+        <v>-3.193284412366115</v>
       </c>
       <c r="G186">
         <v>0.0314390230974676</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.252564774236037</v>
+        <v>-3.25258150189834</v>
       </c>
       <c r="G187">
         <v>0.02293183578222491</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.293928908159701</v>
+        <v>-3.294306154900428</v>
       </c>
       <c r="G188">
         <v>0.01037485523261805</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.869176252664726</v>
+        <v>-2.869309079276188</v>
       </c>
       <c r="G191">
         <v>0.01393557038012982</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-2.915034855396202</v>
+        <v>-2.915651936390275</v>
       </c>
       <c r="G192">
         <v>0.02604539827076868</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-2.963491711993393</v>
+        <v>-2.964937262833909</v>
       </c>
       <c r="G193">
         <v>0.03505239874709587</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.016616627269749</v>
+        <v>-3.01957124912034</v>
       </c>
       <c r="G194">
         <v>0.04081869179025621</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.073561443303764</v>
+        <v>-3.076730010116646</v>
       </c>
       <c r="G195">
         <v>0.04254748311650891</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.13415183486944</v>
+        <v>-3.136858987517387</v>
       </c>
       <c r="G196">
         <v>0.03960464348304771</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.19855868220079</v>
+        <v>-3.199977598838597</v>
       </c>
       <c r="G197">
         <v>0.03363219482873903</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.264768759648063</v>
+        <v>-3.264781864579976</v>
       </c>
       <c r="G198">
         <v>0.02431417125864743</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.305109662915616</v>
+        <v>-3.305403568580527</v>
       </c>
       <c r="G199">
         <v>0.01141123134456351</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.877301792559807</v>
+        <v>-2.878272504965496</v>
       </c>
       <c r="G202">
         <v>0.01436512193533446</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-2.922090901141269</v>
+        <v>-2.922773600988631</v>
       </c>
       <c r="G203">
         <v>0.02717726277906651</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-2.970674542844674</v>
+        <v>-2.972472940834557</v>
       </c>
       <c r="G204">
         <v>0.03587482738846082</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.022941327458493</v>
+        <v>-3.025768292874824</v>
       </c>
       <c r="G205">
         <v>0.04179262324091271</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.079518343575935</v>
+        <v>-3.082848215176539</v>
       </c>
       <c r="G206">
         <v>0.0434884065571679</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.139962755791331</v>
+        <v>-3.143360313575414</v>
       </c>
       <c r="G207">
         <v>0.04161956984257209</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.204569016358693</v>
+        <v>-3.20665773158599</v>
       </c>
       <c r="G208">
         <v>0.03565557948119291</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.272547191150109</v>
+        <v>-3.27260133402774</v>
       </c>
       <c r="G209">
         <v>0.02619696612532418</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.314332069333171</v>
+        <v>-3.314798656971851</v>
       </c>
       <c r="G210">
         <v>0.01275536004926148</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.387026291166473</v>
+        <v>-2.387128487969568</v>
       </c>
       <c r="G25">
         <v>-0.01709803353048334</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.450064496648837</v>
+        <v>-2.451429212362672</v>
       </c>
       <c r="G32">
         <v>-0.01883840056979058</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.45705637392938</v>
+        <v>-2.457738731786297</v>
       </c>
       <c r="G33">
         <v>-0.02649653354611847</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.510093662034693</v>
+        <v>-2.51077601989161</v>
       </c>
       <c r="G40">
         <v>-0.03636754323129776</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.519132612885989</v>
+        <v>-2.520497328599825</v>
       </c>
       <c r="G41">
         <v>-0.02722162442990728</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.564930884454377</v>
+        <v>-2.565613242311295</v>
       </c>
       <c r="G47">
         <v>-0.03139498803090346</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.572605119591844</v>
+        <v>-2.573287477448762</v>
       </c>
       <c r="G48">
         <v>-0.03949701382686688</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.588388808467301</v>
+        <v>-2.589318305580599</v>
       </c>
       <c r="G50">
         <v>-0.03897942281324318</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.595815904348386</v>
+        <v>-2.596498262205307</v>
       </c>
       <c r="G51">
         <v>-0.03449131230057523</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.555854905296076</v>
+        <v>-2.556470740516276</v>
       </c>
       <c r="G81">
         <v>-0.005556532694267702</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.610513124475343</v>
+        <v>-2.611483630692133</v>
       </c>
       <c r="G82">
         <v>0.00109545367406616</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-2.668566112589453</v>
+        <v>-2.669387165221033</v>
       </c>
       <c r="G83">
         <v>-0.001927538262233464</v>
@@ -2324,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="F84">
-        <v>-2.725573474334651</v>
+        <v>-2.725824869334567</v>
       </c>
       <c r="G84">
         <v>-0.003104234128407324</v>
@@ -2439,7 +2439,7 @@
         <v>153</v>
       </c>
       <c r="F89">
-        <v>-2.929826326495588</v>
+        <v>-2.929919471460635</v>
       </c>
       <c r="G89">
         <v>-0.01632488598581178</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-2.638783419025197</v>
+        <v>-2.638923390691441</v>
       </c>
       <c r="G92">
         <v>0.002875300485549293</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-2.747575793091995</v>
+        <v>-2.748056636441731</v>
       </c>
       <c r="G94">
         <v>0.008422794252564536</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.808523476391878</v>
+        <v>-2.808575833492759</v>
       </c>
       <c r="G95">
         <v>0.007455583492246065</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-2.704812980528246</v>
+        <v>-2.70491854443802</v>
       </c>
       <c r="G103">
         <v>0.007323015930877474</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.754556379399696</v>
+        <v>-2.754796244575369</v>
       </c>
       <c r="G104">
         <v>0.01284336332884983</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.809514186774096</v>
+        <v>-2.809739677390013</v>
       </c>
       <c r="G105">
         <v>0.01707715933156617</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-2.870242387244383</v>
+        <v>-2.870376688510281</v>
       </c>
       <c r="G106">
         <v>0.01126916845600712</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-2.984928874754575</v>
+        <v>-2.984996117063773</v>
       </c>
       <c r="G108">
         <v>0.005312902072805992</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.070244194819058</v>
+        <v>-3.070311437128256</v>
       </c>
       <c r="G110">
         <v>-0.00227726464472322</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.744485239639226</v>
+        <v>-2.74469727608761</v>
       </c>
       <c r="G114">
         <v>0.008618185798599409</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-2.792620663514821</v>
+        <v>-2.792983692609029</v>
       </c>
       <c r="G115">
         <v>0.01392855795430625</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-2.846670688386399</v>
+        <v>-2.846781052042612</v>
       </c>
       <c r="G116">
         <v>0.01751881509168851</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-2.904420781574539</v>
+        <v>-2.904435330854046</v>
       </c>
       <c r="G117">
         <v>0.01644974460436455</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-2.966037639850144</v>
+        <v>-2.966539958995198</v>
       </c>
       <c r="G118">
         <v>0.01420444535058607</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.031569463811147</v>
+        <v>-3.031586845539234</v>
       </c>
       <c r="G119">
         <v>0.01269973563283333</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.073098502515601</v>
+        <v>-3.073137618571093</v>
       </c>
       <c r="G120">
         <v>0.00746287574819382</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.116280227133998</v>
+        <v>-3.116436691355967</v>
       </c>
       <c r="G121">
         <v>-0.00185584864193522</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.777985314177221</v>
+        <v>-2.778006120342011</v>
       </c>
       <c r="G125">
         <v>0.009712718137036447</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.827099273694523</v>
+        <v>-2.827734908072582</v>
       </c>
       <c r="G126">
         <v>0.01530776675512513</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-2.879301007112503</v>
+        <v>-2.879395559775111</v>
       </c>
       <c r="G127">
         <v>0.01942789352274477</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-2.93652269671705</v>
+        <v>-2.936689146035367</v>
       </c>
       <c r="G128">
         <v>0.02194154776404145</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-2.995842105129155</v>
+        <v>-2.995925329788314</v>
       </c>
       <c r="G129">
         <v>0.0209469542362748</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.05931179669954</v>
+        <v>-3.059343926230764</v>
       </c>
       <c r="G130">
         <v>0.01757302904115465</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.199047156865372</v>
+        <v>-3.199072639108992</v>
       </c>
       <c r="G133">
         <v>-0.002723594334655077</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.801219854808824</v>
+        <v>-2.801305569094541</v>
       </c>
       <c r="G136">
         <v>0.01093705898962138</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.849146116267252</v>
+        <v>-2.849190243529622</v>
       </c>
       <c r="G137">
         <v>0.01780834561569034</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-2.90011745179285</v>
+        <v>-2.900160308935706</v>
       </c>
       <c r="G138">
         <v>0.02352308401476289</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.01672876050228</v>
+        <v>-3.016765109847753</v>
       </c>
       <c r="G140">
         <v>0.02566862851437746</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.079206286241935</v>
+        <v>-3.079234857670507</v>
       </c>
       <c r="G141">
         <v>0.02412227878353068</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.141043404158687</v>
+        <v>-3.141084733773308</v>
       </c>
       <c r="G142">
         <v>0.01878626152930563</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.225694318918519</v>
+        <v>-3.225888185087063</v>
       </c>
       <c r="G144">
         <v>0.0003433519851438471</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.820907948410536</v>
+        <v>-2.821040109191043</v>
       </c>
       <c r="G147">
         <v>0.01127685770165332</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.868258641281974</v>
+        <v>-2.868317273168938</v>
       </c>
       <c r="G148">
         <v>0.01956625400079348</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-2.920071168235274</v>
+        <v>-2.920142821778582</v>
       </c>
       <c r="G149">
         <v>0.02696925457407273</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-2.974201332735456</v>
+        <v>-2.97424409550729</v>
       </c>
       <c r="G150">
         <v>0.0307808505233067</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.034439967544306</v>
+        <v>-3.034502294952776</v>
       </c>
       <c r="G151">
         <v>0.03110829803490334</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.096348806978193</v>
+        <v>-3.096359043198667</v>
       </c>
       <c r="G152">
         <v>0.02857016718401684</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.836690200076005</v>
+        <v>-2.836747203114248</v>
       </c>
       <c r="G158">
         <v>0.01231549623711725</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-2.8825289911816</v>
+        <v>-2.88265026257496</v>
       </c>
       <c r="G159">
         <v>0.02224408766408148</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-2.933066921417714</v>
+        <v>-2.93313791450226</v>
       </c>
       <c r="G160">
         <v>0.02907014968359767</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-2.988122044460464</v>
+        <v>-2.988137203173485</v>
       </c>
       <c r="G161">
         <v>0.03374670336118868</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.047077905138944</v>
+        <v>-3.047123381278006</v>
       </c>
       <c r="G162">
         <v>0.03461323470131883</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.849191314752157</v>
+        <v>-2.849228564408277</v>
       </c>
       <c r="G169">
         <v>0.01292568350006063</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-2.895723159793592</v>
+        <v>-2.895859015513107</v>
       </c>
       <c r="G170">
         <v>0.02307232008994164</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.000875126022288</v>
+        <v>-3.00094436817254</v>
       </c>
       <c r="G172">
         <v>0.03614676214666401</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.059336025393691</v>
+        <v>-3.059376416648004</v>
       </c>
       <c r="G173">
         <v>0.03738532907656933</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.183781956448725</v>
+        <v>-3.183809235902576</v>
       </c>
       <c r="G175">
         <v>0.02927352274459816</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.239488414902386</v>
+        <v>-3.239524033892286</v>
       </c>
       <c r="G176">
         <v>0.02045839281248663</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.281842709819992</v>
+        <v>-3.281878612812953</v>
       </c>
       <c r="G177">
         <v>0.008688964560209955</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.860776776997048</v>
+        <v>-2.860810564411628</v>
       </c>
       <c r="G180">
         <v>0.01399106732669608</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-2.90568745164742</v>
+        <v>-2.905730330226941</v>
       </c>
       <c r="G181">
         <v>0.02480462447563481</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-2.95516606888557</v>
+        <v>-2.955193023960444</v>
       </c>
       <c r="G182">
         <v>0.03387569371097432</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.00976485431879</v>
+        <v>-3.009793855938934</v>
       </c>
       <c r="G183">
         <v>0.0386506122907142</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.067646694901834</v>
+        <v>-3.067848458541456</v>
       </c>
       <c r="G184">
         <v>0.03990518434773116</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.129012524376728</v>
+        <v>-3.129294753819027</v>
       </c>
       <c r="G185">
         <v>0.03749314414546467</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.193284412366115</v>
+        <v>-3.193451034749784</v>
       </c>
       <c r="G186">
         <v>0.0314390230974676</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.25258150189834</v>
+        <v>-3.252603952859712</v>
       </c>
       <c r="G187">
         <v>0.02293183578222491</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.294306154900428</v>
+        <v>-3.29432838474435</v>
       </c>
       <c r="G188">
         <v>0.01037485523261805</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.869309079276188</v>
+        <v>-2.869373429440081</v>
       </c>
       <c r="G191">
         <v>0.01393557038012982</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-2.915651936390275</v>
+        <v>-2.915666203233075</v>
       </c>
       <c r="G192">
         <v>0.02604539827076868</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-2.964937262833909</v>
+        <v>-2.965061127150584</v>
       </c>
       <c r="G193">
         <v>0.03505239874709587</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.01957124912034</v>
+        <v>-3.019603349516641</v>
       </c>
       <c r="G194">
         <v>0.04081869179025621</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.076730010116646</v>
+        <v>-3.076797777619948</v>
       </c>
       <c r="G195">
         <v>0.04254748311650891</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.136858987517387</v>
+        <v>-3.136942647458534</v>
       </c>
       <c r="G196">
         <v>0.03960464348304771</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.199977598838597</v>
+        <v>-3.200124151087722</v>
       </c>
       <c r="G197">
         <v>0.03363219482873903</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.305403568580527</v>
+        <v>-3.305416849062753</v>
       </c>
       <c r="G199">
         <v>0.01141123134456351</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.878272504965496</v>
+        <v>-2.8784143183672</v>
       </c>
       <c r="G202">
         <v>0.01436512193533446</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-2.922773600988631</v>
+        <v>-2.922818341484063</v>
       </c>
       <c r="G203">
         <v>0.02717726277906651</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-2.972472940834557</v>
+        <v>-2.972513236037508</v>
       </c>
       <c r="G204">
         <v>0.03587482738846082</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.025768292874824</v>
+        <v>-3.025924500440182</v>
       </c>
       <c r="G205">
         <v>0.04179262324091271</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.082848215176539</v>
+        <v>-3.083156985024082</v>
       </c>
       <c r="G206">
         <v>0.0434884065571679</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.143360313575414</v>
+        <v>-3.144018116801459</v>
       </c>
       <c r="G207">
         <v>0.04161956984257209</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.20665773158599</v>
+        <v>-3.207160653927024</v>
       </c>
       <c r="G208">
         <v>0.03565557948119291</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.27260133402774</v>
+        <v>-3.272624359857997</v>
       </c>
       <c r="G209">
         <v>0.02619696612532418</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.314798656971851</v>
+        <v>-3.31480923225967</v>
       </c>
       <c r="G210">
         <v>0.01275536004926148</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.457738731786297</v>
+        <v>-2.458421089643216</v>
       </c>
       <c r="G33">
         <v>-0.02649653354611847</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.46541296692376</v>
+        <v>-2.466095324780679</v>
       </c>
       <c r="G34">
         <v>-0.02873784517975686</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.472404844204302</v>
+        <v>-2.473087202061221</v>
       </c>
       <c r="G35">
         <v>-0.02174706152355466</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-2.809568682341658</v>
+        <v>-2.809578785210844</v>
       </c>
       <c r="G86">
         <v>-0.01738013236978975</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-2.638923390691441</v>
+        <v>-2.639037194523208</v>
       </c>
       <c r="G92">
         <v>0.002875300485549293</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-2.689967761919911</v>
+        <v>-2.690063926303471</v>
       </c>
       <c r="G93">
         <v>0.006898716439174724</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-2.748056636441731</v>
+        <v>-2.748301322309733</v>
       </c>
       <c r="G94">
         <v>0.008422794252564536</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-2.998845155340123</v>
+        <v>-2.99919848584686</v>
       </c>
       <c r="G99">
         <v>-0.01316078171253943</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-2.70491854443802</v>
+        <v>-2.705000063749029</v>
       </c>
       <c r="G103">
         <v>0.007323015930877474</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.754796244575369</v>
+        <v>-2.755103266265683</v>
       </c>
       <c r="G104">
         <v>0.01284336332884983</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.809739677390013</v>
+        <v>-2.810051676361978</v>
       </c>
       <c r="G105">
         <v>0.01707715933156617</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-2.870376688510281</v>
+        <v>-2.870640598284717</v>
       </c>
       <c r="G106">
         <v>0.01126916845600712</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-2.984996117063773</v>
+        <v>-2.985060761492324</v>
       </c>
       <c r="G108">
         <v>0.005312902072805992</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.74469727608761</v>
+        <v>-2.744886065274468</v>
       </c>
       <c r="G114">
         <v>0.008618185798599409</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-2.792983692609029</v>
+        <v>-2.793079506985735</v>
       </c>
       <c r="G115">
         <v>0.01392855795430625</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-2.904435330854046</v>
+        <v>-2.905643300492549</v>
       </c>
       <c r="G117">
         <v>0.01644974460436455</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.073137618571093</v>
+        <v>-3.07333477081455</v>
       </c>
       <c r="G120">
         <v>0.00746287574819382</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.116436691355967</v>
+        <v>-3.116514923466951</v>
       </c>
       <c r="G121">
         <v>-0.00185584864193522</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.778006120342011</v>
+        <v>-2.778408424881381</v>
       </c>
       <c r="G125">
         <v>0.009712718137036447</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.827734908072582</v>
+        <v>-2.827869223222658</v>
       </c>
       <c r="G126">
         <v>0.01530776675512513</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-2.879395559775111</v>
+        <v>-2.879509068760398</v>
       </c>
       <c r="G127">
         <v>0.01942789352274477</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-2.936689146035367</v>
+        <v>-2.936721280203608</v>
       </c>
       <c r="G128">
         <v>0.02194154776404145</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.11251545064653</v>
+        <v>-3.112541956950985</v>
       </c>
       <c r="G131">
         <v>0.01214136519606612</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.15407507713291</v>
+        <v>-3.15412604162015</v>
       </c>
       <c r="G132">
         <v>0.005628263176243653</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.801305569094541</v>
+        <v>-2.801344538870859</v>
       </c>
       <c r="G136">
         <v>0.01093705898962138</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.016765109847753</v>
+        <v>-3.016828760502282</v>
       </c>
       <c r="G140">
         <v>0.02566862851437746</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.079234857670507</v>
+        <v>-3.07939200052765</v>
       </c>
       <c r="G141">
         <v>0.02412227878353068</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.141084733773308</v>
+        <v>-3.141102230128614</v>
       </c>
       <c r="G142">
         <v>0.01878626152930563</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.181503539353261</v>
+        <v>-3.181539235193962</v>
       </c>
       <c r="G143">
         <v>0.01013157794771746</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.225888185087063</v>
+        <v>-3.225958170508287</v>
       </c>
       <c r="G144">
         <v>0.0003433519851438471</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.821040109191043</v>
+        <v>-2.821060581631988</v>
       </c>
       <c r="G147">
         <v>0.01127685770165332</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-2.920142821778582</v>
+        <v>-2.920193092795309</v>
       </c>
       <c r="G149">
         <v>0.02696925457407273</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-2.97424409550729</v>
+        <v>-2.974279467236125</v>
       </c>
       <c r="G150">
         <v>0.0307808505233067</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.034502294952776</v>
+        <v>-3.034543239834667</v>
       </c>
       <c r="G151">
         <v>0.03110829803490334</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.205161264573169</v>
+        <v>-3.205173801331695</v>
       </c>
       <c r="G154">
         <v>0.01579924906112617</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.836747203114248</v>
+        <v>-2.836769267315579</v>
       </c>
       <c r="G158">
         <v>0.01231549623711725</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-2.88265026257496</v>
+        <v>-2.882716414321973</v>
       </c>
       <c r="G159">
         <v>0.02224408766408148</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-2.93313791450226</v>
+        <v>-2.93315307321528</v>
       </c>
       <c r="G160">
         <v>0.02907014968359767</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-2.988137203173485</v>
+        <v>-2.98814823527415</v>
       </c>
       <c r="G161">
         <v>0.03374670336118868</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.047123381278006</v>
+        <v>-3.047138539991026</v>
       </c>
       <c r="G162">
         <v>0.03461323470131883</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.266448736478761</v>
+        <v>-3.266467302034792</v>
       </c>
       <c r="G166">
         <v>0.00635816623988078</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-2.895859015513107</v>
+        <v>-2.895876326050669</v>
       </c>
       <c r="G170">
         <v>0.02307232008994164</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-2.946485757715549</v>
+        <v>-2.946514608611486</v>
       </c>
       <c r="G171">
         <v>0.03181769510833155</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-2.905730330226941</v>
+        <v>-2.905821403960748</v>
       </c>
       <c r="G181">
         <v>0.02480462447563481</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-2.955193023960444</v>
+        <v>-2.955356800954959</v>
       </c>
       <c r="G182">
         <v>0.03387569371097432</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.009793855938934</v>
+        <v>-3.00980733347637</v>
       </c>
       <c r="G183">
         <v>0.0386506122907142</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.129294753819027</v>
+        <v>-3.129324154861111</v>
       </c>
       <c r="G185">
         <v>0.03749314414546467</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.193451034749784</v>
+        <v>-3.193464512287222</v>
       </c>
       <c r="G186">
         <v>0.0314390230974676</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.869373429440081</v>
+        <v>-2.869414288057923</v>
       </c>
       <c r="G191">
         <v>0.01393557038012982</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-2.915666203233075</v>
+        <v>-2.915710312246106</v>
       </c>
       <c r="G192">
         <v>0.02604539827076868</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-2.965061127150584</v>
+        <v>-2.965118194521784</v>
       </c>
       <c r="G193">
         <v>0.03505239874709587</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.076797777619948</v>
+        <v>-3.076859383054583</v>
       </c>
       <c r="G195">
         <v>0.04254748311650891</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.136942647458534</v>
+        <v>-3.136955289501195</v>
       </c>
       <c r="G196">
         <v>0.03960464348304771</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.200124151087722</v>
+        <v>-3.200149118062623</v>
       </c>
       <c r="G197">
         <v>0.03363219482873903</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.025924500440182</v>
+        <v>-3.025950148600606</v>
       </c>
       <c r="G205">
         <v>0.04179262324091271</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.083156985024082</v>
+        <v>-3.083201725519516</v>
       </c>
       <c r="G206">
         <v>0.0434884065571679</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.144018116801459</v>
+        <v>-3.144114137461006</v>
       </c>
       <c r="G207">
         <v>0.04161956984257209</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.207160653927024</v>
+        <v>-3.207412882793388</v>
       </c>
       <c r="G208">
         <v>0.03565557948119291</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.31480923225967</v>
+        <v>-3.314823474307278</v>
       </c>
       <c r="G210">
         <v>0.01275536004926148</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.526806848023451</v>
+        <v>-2.527489205880368</v>
       </c>
       <c r="G42">
         <v>-0.03988966142718509</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.541908179041994</v>
+        <v>-2.542343397642536</v>
       </c>
       <c r="G44">
         <v>-0.02350550263228124</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.589318305580599</v>
+        <v>-2.589753524181142</v>
       </c>
       <c r="G50">
         <v>-0.03897942281324318</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-2.690063926303471</v>
+        <v>-2.690203897969714</v>
       </c>
       <c r="G93">
         <v>0.006898716439174724</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-2.908572236109416</v>
+        <v>-2.908968223528889</v>
       </c>
       <c r="G97">
         <v>-0.01039461218327919</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-2.951402619972989</v>
+        <v>-2.951916384228046</v>
       </c>
       <c r="G98">
         <v>-0.007827348015940983</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.810051676361978</v>
+        <v>-2.810075720960742</v>
       </c>
       <c r="G105">
         <v>0.01707715933156617</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-2.793079506985735</v>
+        <v>-2.793268296172594</v>
       </c>
       <c r="G115">
         <v>0.01392855795430625</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-2.905643300492549</v>
+        <v>-2.905802991120392</v>
       </c>
       <c r="G117">
         <v>0.01644974460436455</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-2.966539958995198</v>
+        <v>-2.966667711497474</v>
       </c>
       <c r="G118">
         <v>0.01420444535058607</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.116514923466951</v>
+        <v>-3.11655561148844</v>
       </c>
       <c r="G121">
         <v>-0.00185584864193522</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.778408424881381</v>
+        <v>-2.778894474828246</v>
       </c>
       <c r="G125">
         <v>0.009712718137036447</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-2.879509068760398</v>
+        <v>-2.879533691403312</v>
       </c>
       <c r="G127">
         <v>0.01942789352274477</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-2.936721280203608</v>
+        <v>-2.937173354145762</v>
       </c>
       <c r="G128">
         <v>0.02194154776404145</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-2.995925329788314</v>
+        <v>-2.995946135953103</v>
       </c>
       <c r="G129">
         <v>0.0209469542362748</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.801344538870859</v>
+        <v>-2.801408189525389</v>
       </c>
       <c r="G136">
         <v>0.01093705898962138</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-2.900160308935706</v>
+        <v>-2.900282372566892</v>
       </c>
       <c r="G138">
         <v>0.02352308401476289</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-2.955545910525329</v>
+        <v>-2.955766704037001</v>
       </c>
       <c r="G139">
         <v>0.02559292725153917</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.016828760502282</v>
+        <v>-3.017014474788</v>
       </c>
       <c r="G140">
         <v>0.02566862851437746</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.181539235193962</v>
+        <v>-3.181556731549267</v>
       </c>
       <c r="G143">
         <v>0.01013157794771746</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.225958170508287</v>
+        <v>-3.225975666863593</v>
       </c>
       <c r="G144">
         <v>0.0003433519851438471</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.821060581631988</v>
+        <v>-2.821099891347039</v>
       </c>
       <c r="G147">
         <v>0.01127685770165332</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.868317273168938</v>
+        <v>-2.868419635373665</v>
       </c>
       <c r="G148">
         <v>0.01956625400079348</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-2.974279467236125</v>
+        <v>-2.974310175897542</v>
       </c>
       <c r="G150">
         <v>0.0307808505233067</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.034543239834667</v>
+        <v>-3.034645602039392</v>
       </c>
       <c r="G151">
         <v>0.03110829803490334</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.248670134213604</v>
+        <v>-3.248682670972129</v>
       </c>
       <c r="G155">
         <v>0.003907673942015522</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.836769267315579</v>
+        <v>-2.8367844260286</v>
       </c>
       <c r="G158">
         <v>0.01231549623711725</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-2.882716414321973</v>
+        <v>-2.882754311104526</v>
       </c>
       <c r="G159">
         <v>0.02224408766408148</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.047138539991026</v>
+        <v>-3.047309412446609</v>
       </c>
       <c r="G162">
         <v>0.03461323470131883</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.173524421104336</v>
+        <v>-3.173536127073202</v>
       </c>
       <c r="G164">
         <v>0.02619304312687232</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-2.895876326050669</v>
+        <v>-2.895893636588233</v>
       </c>
       <c r="G170">
         <v>0.02307232008994164</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-2.946514608611486</v>
+        <v>-2.94652614896986</v>
       </c>
       <c r="G171">
         <v>0.03181769510833155</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.00094436817254</v>
+        <v>-3.000984759426852</v>
       </c>
       <c r="G172">
         <v>0.03614676214666401</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.120542665889938</v>
+        <v>-3.120556834829306</v>
       </c>
       <c r="G174">
         <v>0.03567287836286015</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.860810564411628</v>
+        <v>-2.860837519486503</v>
       </c>
       <c r="G180">
         <v>0.01399106732669608</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-2.905821403960748</v>
+        <v>-2.905873267565228</v>
       </c>
       <c r="G181">
         <v>0.02480462447563481</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-2.955356800954959</v>
+        <v>-2.955446651204538</v>
       </c>
       <c r="G182">
         <v>0.03387569371097432</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.00980733347637</v>
+        <v>-3.009865736138601</v>
       </c>
       <c r="G183">
         <v>0.0386506122907142</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.129324154861111</v>
+        <v>-3.129348663968778</v>
       </c>
       <c r="G185">
         <v>0.03749314414546467</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.193464512287222</v>
+        <v>-3.19347798982466</v>
       </c>
       <c r="G186">
         <v>0.0314390230974676</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.252603952859712</v>
+        <v>-3.252633898806127</v>
       </c>
       <c r="G187">
         <v>0.02293183578222491</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.29432838474435</v>
+        <v>-3.294339610225037</v>
       </c>
       <c r="G188">
         <v>0.01037485523261805</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-2.915710312246106</v>
+        <v>-2.915810200962093</v>
       </c>
       <c r="G192">
         <v>0.02604539827076868</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-2.965118194521784</v>
+        <v>-2.965128894653884</v>
       </c>
       <c r="G193">
         <v>0.03505239874709587</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.076859383054583</v>
+        <v>-3.076920017136485</v>
       </c>
       <c r="G195">
         <v>0.04254748311650891</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.8784143183672</v>
+        <v>-2.878432763369055</v>
       </c>
       <c r="G202">
         <v>0.01436512193533446</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.025950148600606</v>
+        <v>-3.025978930888426</v>
       </c>
       <c r="G205">
         <v>0.04179262324091271</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.144114137461006</v>
+        <v>-3.144182686997813</v>
       </c>
       <c r="G207">
         <v>0.04161956984257209</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.207412882793388</v>
+        <v>-3.20748039322046</v>
       </c>
       <c r="G208">
         <v>0.03565557948119291</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.473087202061221</v>
+        <v>-2.474451917775058</v>
       </c>
       <c r="G35">
         <v>-0.02174706152355466</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.480761437198681</v>
+        <v>-2.4814437950556</v>
       </c>
       <c r="G36">
         <v>-0.02581332552702054</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.488435672336144</v>
+        <v>-2.489118030193063</v>
       </c>
       <c r="G37">
         <v>-0.03544734322910292</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.496109907473605</v>
+        <v>-2.497474623187442</v>
       </c>
       <c r="G38">
         <v>-0.03294704014927974</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.503784142611067</v>
+        <v>-2.504901719068524</v>
       </c>
       <c r="G39">
         <v>-0.03019605022540461</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.51077601989161</v>
+        <v>-2.512140735605447</v>
       </c>
       <c r="G40">
         <v>-0.03636754323129776</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.527489205880368</v>
+        <v>-2.528606782337825</v>
       </c>
       <c r="G42">
         <v>-0.03988966142718509</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.535163441017831</v>
+        <v>-2.535598659618369</v>
       </c>
       <c r="G43">
         <v>-0.03266468633693309</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.542343397642536</v>
+        <v>-2.54352003401221</v>
       </c>
       <c r="G44">
         <v>-0.02350550263228124</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.549829553435836</v>
+        <v>-2.551629487750215</v>
       </c>
       <c r="G45">
         <v>-0.04821101444674336</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.557503788573297</v>
+        <v>-2.559056583631296</v>
       </c>
       <c r="G46">
         <v>-0.03333514213875244</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.565613242311295</v>
+        <v>-2.566542739424595</v>
       </c>
       <c r="G47">
         <v>-0.03139498803090346</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.573287477448762</v>
+        <v>-2.574652193162594</v>
       </c>
       <c r="G48">
         <v>-0.03949701382686688</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.580714573329839</v>
+        <v>-2.582761646900595</v>
       </c>
       <c r="G49">
         <v>-0.04189536727224041</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.596498262205307</v>
+        <v>-2.597862977919144</v>
       </c>
       <c r="G51">
         <v>-0.03449131230057523</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.605101994456062</v>
+        <v>-2.605784352312977</v>
       </c>
       <c r="G52">
         <v>-0.0437370172681486</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-2.61321144819406</v>
+        <v>-2.613893806050984</v>
       </c>
       <c r="G53">
         <v>-0.05425328555993725</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-2.620697603987363</v>
+        <v>-2.621320901932065</v>
       </c>
       <c r="G54">
         <v>-0.0511464367899056</v>
@@ -2255,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="F81">
-        <v>-2.556470740516276</v>
+        <v>-2.558505259722823</v>
       </c>
       <c r="G81">
         <v>-0.005556532694267702</v>
@@ -2278,7 +2278,7 @@
         <v>34</v>
       </c>
       <c r="F82">
-        <v>-2.611483630692133</v>
+        <v>-2.613125735955284</v>
       </c>
       <c r="G82">
         <v>0.00109545367406616</v>
@@ -2301,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="F83">
-        <v>-2.669387165221033</v>
+        <v>-2.670506987783486</v>
       </c>
       <c r="G83">
         <v>-0.001927538262233464</v>
@@ -2347,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="F85">
-        <v>-2.766711401576814</v>
+        <v>-2.768461063707048</v>
       </c>
       <c r="G85">
         <v>-0.005908040280287352</v>
@@ -2370,7 +2370,7 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>-2.809578785210844</v>
+        <v>-2.812082632340831</v>
       </c>
       <c r="G86">
         <v>-0.01738013236978975</v>
@@ -2393,7 +2393,7 @@
         <v>119</v>
       </c>
       <c r="F87">
-        <v>-2.855191308105585</v>
+        <v>-2.856930867366638</v>
       </c>
       <c r="G87">
         <v>-0.02147607268850238</v>
@@ -2508,7 +2508,7 @@
         <v>36</v>
       </c>
       <c r="F92">
-        <v>-2.639037194523208</v>
+        <v>-2.645096737470864</v>
       </c>
       <c r="G92">
         <v>0.002875300485549293</v>
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-2.690203897969714</v>
+        <v>-2.699096597998986</v>
       </c>
       <c r="G93">
         <v>0.006898716439174724</v>
@@ -2554,7 +2554,7 @@
         <v>109</v>
       </c>
       <c r="F94">
-        <v>-2.748301322309733</v>
+        <v>-2.754692000339417</v>
       </c>
       <c r="G94">
         <v>0.008422794252564536</v>
@@ -2577,7 +2577,7 @@
         <v>146</v>
       </c>
       <c r="F95">
-        <v>-2.808575833492759</v>
+        <v>-2.812947599279458</v>
       </c>
       <c r="G95">
         <v>0.007455583492246065</v>
@@ -2600,7 +2600,7 @@
         <v>182</v>
       </c>
       <c r="F96">
-        <v>-2.867070783259148</v>
+        <v>-2.868480099813693</v>
       </c>
       <c r="G96">
         <v>0.0006393658640209132</v>
@@ -2623,7 +2623,7 @@
         <v>219</v>
       </c>
       <c r="F97">
-        <v>-2.908968223528889</v>
+        <v>-2.913253757132945</v>
       </c>
       <c r="G97">
         <v>-0.01039461218327919</v>
@@ -2646,7 +2646,7 @@
         <v>255</v>
       </c>
       <c r="F98">
-        <v>-2.951916384228046</v>
+        <v>-2.955945917568026</v>
       </c>
       <c r="G98">
         <v>-0.007827348015940983</v>
@@ -2669,7 +2669,7 @@
         <v>292</v>
       </c>
       <c r="F99">
-        <v>-2.99919848584686</v>
+        <v>-3.00094214162047</v>
       </c>
       <c r="G99">
         <v>-0.01316078171253943</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-2.705000063749029</v>
+        <v>-2.713915989792761</v>
       </c>
       <c r="G103">
         <v>0.007323015930877474</v>
@@ -2784,7 +2784,7 @@
         <v>133</v>
       </c>
       <c r="F104">
-        <v>-2.755103266265683</v>
+        <v>-2.767839347684372</v>
       </c>
       <c r="G104">
         <v>0.01284336332884983</v>
@@ -2807,7 +2807,7 @@
         <v>199</v>
       </c>
       <c r="F105">
-        <v>-2.810075720960742</v>
+        <v>-2.822615060882911</v>
       </c>
       <c r="G105">
         <v>0.01707715933156617</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-2.870640598284717</v>
+        <v>-2.878658774433729</v>
       </c>
       <c r="G106">
         <v>0.01126916845600712</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-2.931491248867191</v>
+        <v>-2.935421146364162</v>
       </c>
       <c r="G107">
         <v>0.002067878742228579</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-2.985060761492324</v>
+        <v>-2.986578757916763</v>
       </c>
       <c r="G108">
         <v>0.005312902072805992</v>
@@ -2899,7 +2899,7 @@
         <v>465</v>
       </c>
       <c r="F109">
-        <v>-3.026085413611586</v>
+        <v>-3.028950551513024</v>
       </c>
       <c r="G109">
         <v>-0.002206505948580961</v>
@@ -2922,7 +2922,7 @@
         <v>532</v>
       </c>
       <c r="F110">
-        <v>-3.070311437128256</v>
+        <v>-3.072742249194393</v>
       </c>
       <c r="G110">
         <v>-0.00227726464472322</v>
@@ -2945,7 +2945,7 @@
         <v>598</v>
       </c>
       <c r="F111">
-        <v>-3.11661095358218</v>
+        <v>-3.116872129177024</v>
       </c>
       <c r="G111">
         <v>-0.005818671922793284</v>
@@ -3014,7 +3014,7 @@
         <v>109</v>
       </c>
       <c r="F114">
-        <v>-2.744886065274468</v>
+        <v>-2.754578114113495</v>
       </c>
       <c r="G114">
         <v>0.008618185798599409</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-2.793268296172594</v>
+        <v>-2.807845289465562</v>
       </c>
       <c r="G115">
         <v>0.01392855795430625</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-2.846781052042612</v>
+        <v>-2.859121085979382</v>
       </c>
       <c r="G116">
         <v>0.01751881509168851</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-2.905802991120392</v>
+        <v>-2.917666950668647</v>
       </c>
       <c r="G117">
         <v>0.01644974460436455</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-2.966667711497474</v>
+        <v>-2.973610553659908</v>
       </c>
       <c r="G118">
         <v>0.01420444535058607</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.031586845539234</v>
+        <v>-3.031720456456978</v>
       </c>
       <c r="G119">
         <v>0.01269973563283333</v>
@@ -3152,7 +3152,7 @@
         <v>769</v>
       </c>
       <c r="F120">
-        <v>-3.07333477081455</v>
+        <v>-3.076424275331069</v>
       </c>
       <c r="G120">
         <v>0.00746287574819382</v>
@@ -3175,7 +3175,7 @@
         <v>879</v>
       </c>
       <c r="F121">
-        <v>-3.11655561148844</v>
+        <v>-3.119548000777475</v>
       </c>
       <c r="G121">
         <v>-0.00185584864193522</v>
@@ -3198,7 +3198,7 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.162187741576948</v>
+        <v>-3.163582216167744</v>
       </c>
       <c r="G122">
         <v>-0.006348476435105721</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.778894474828246</v>
+        <v>-2.788584805932618</v>
       </c>
       <c r="G125">
         <v>0.009712718137036447</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.827869223222658</v>
+        <v>-2.841858066267444</v>
       </c>
       <c r="G126">
         <v>0.01530776675512513</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-2.879533691403312</v>
+        <v>-2.896101910275515</v>
       </c>
       <c r="G127">
         <v>0.01942789352274477</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-2.937173354145762</v>
+        <v>-2.950707437300936</v>
       </c>
       <c r="G128">
         <v>0.02194154776404145</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-2.995946135953103</v>
+        <v>-3.006470958170002</v>
       </c>
       <c r="G129">
         <v>0.0209469542362748</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.059343926230764</v>
+        <v>-3.062727936360075</v>
       </c>
       <c r="G130">
         <v>0.01757302904115465</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.112541956950985</v>
+        <v>-3.114135288123573</v>
       </c>
       <c r="G131">
         <v>0.01214136519606612</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.15412604162015</v>
+        <v>-3.157012822852406</v>
       </c>
       <c r="G132">
         <v>0.005628263176243653</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.199072639108992</v>
+        <v>-3.20053946384706</v>
       </c>
       <c r="G133">
         <v>-0.002723594334655077</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.801408189525389</v>
+        <v>-2.812227221411305</v>
       </c>
       <c r="G136">
         <v>0.01093705898962138</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.849190243529622</v>
+        <v>-2.864706399126527</v>
       </c>
       <c r="G137">
         <v>0.01780834561569034</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-2.900282372566892</v>
+        <v>-2.916983844674297</v>
       </c>
       <c r="G138">
         <v>0.02352308401476289</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-2.955766704037001</v>
+        <v>-2.972565592774685</v>
       </c>
       <c r="G139">
         <v>0.02559292725153917</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.017014474788</v>
+        <v>-3.027487821381273</v>
       </c>
       <c r="G140">
         <v>0.02566862851437746</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.07939200052765</v>
+        <v>-3.084367390289853</v>
       </c>
       <c r="G141">
         <v>0.02412227878353068</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.141102230128614</v>
+        <v>-3.141838906964608</v>
       </c>
       <c r="G142">
         <v>0.01878626152930563</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.181556731549267</v>
+        <v>-3.184269154705247</v>
       </c>
       <c r="G143">
         <v>0.01013157794771746</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.225975666863593</v>
+        <v>-3.227776674556784</v>
       </c>
       <c r="G144">
         <v>0.0003433519851438471</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.821099891347039</v>
+        <v>-2.832489980898743</v>
       </c>
       <c r="G147">
         <v>0.01127685770165332</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.868419635373665</v>
+        <v>-2.883972078524685</v>
       </c>
       <c r="G148">
         <v>0.01956625400079348</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-2.920193092795309</v>
+        <v>-2.936730587200261</v>
       </c>
       <c r="G149">
         <v>0.02696925457407273</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-2.974310175897542</v>
+        <v>-2.988663485158066</v>
       </c>
       <c r="G150">
         <v>0.0307808505233067</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.034645602039392</v>
+        <v>-3.046076118672538</v>
       </c>
       <c r="G151">
         <v>0.03110829803490334</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.096359043198667</v>
+        <v>-3.102722513496122</v>
       </c>
       <c r="G152">
         <v>0.02857016718401684</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.16103632750882</v>
+        <v>-3.161612226370578</v>
       </c>
       <c r="G153">
         <v>0.02335856831928451</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.205173801331695</v>
+        <v>-3.207227486688069</v>
       </c>
       <c r="G154">
         <v>0.01579924906112617</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.248682670972129</v>
+        <v>-3.25030299440986</v>
       </c>
       <c r="G155">
         <v>0.003907673942015522</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.8367844260286</v>
+        <v>-2.847618439783126</v>
       </c>
       <c r="G158">
         <v>0.01231549623711725</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-2.882754311104526</v>
+        <v>-2.899033232366425</v>
       </c>
       <c r="G159">
         <v>0.02224408766408148</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-2.93315307321528</v>
+        <v>-2.950200078939421</v>
       </c>
       <c r="G160">
         <v>0.02907014968359767</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-2.98814823527415</v>
+        <v>-3.003212002989778</v>
       </c>
       <c r="G161">
         <v>0.03374670336118868</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.047309412446609</v>
+        <v>-3.058908103099831</v>
       </c>
       <c r="G162">
         <v>0.03461323470131883</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.109092480357824</v>
+        <v>-3.115855674263634</v>
       </c>
       <c r="G163">
         <v>0.03293213519935612</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.173536127073202</v>
+        <v>-3.174906054089296</v>
       </c>
       <c r="G164">
         <v>0.02619304312687232</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.223141409962457</v>
+        <v>-3.225024738811097</v>
       </c>
       <c r="G165">
         <v>0.018407167465604</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.266467302034792</v>
+        <v>-3.267659759314567</v>
       </c>
       <c r="G166">
         <v>0.00635816623988078</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.849228564408277</v>
+        <v>-2.861082916410609</v>
       </c>
       <c r="G169">
         <v>0.01292568350006063</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-2.895893636588233</v>
+        <v>-2.912124220513491</v>
       </c>
       <c r="G170">
         <v>0.02307232008994164</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-2.94652614896986</v>
+        <v>-2.96218244988479</v>
       </c>
       <c r="G171">
         <v>0.03181769510833155</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.000984759426852</v>
+        <v>-3.01557492310028</v>
       </c>
       <c r="G172">
         <v>0.03614676214666401</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.059376416648004</v>
+        <v>-3.070320051149699</v>
       </c>
       <c r="G173">
         <v>0.03738532907656933</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.120556834829306</v>
+        <v>-3.127437491041535</v>
       </c>
       <c r="G174">
         <v>0.03567287836286015</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.183809235902576</v>
+        <v>-3.186620212211471</v>
       </c>
       <c r="G175">
         <v>0.02927352274459816</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.239524033892286</v>
+        <v>-3.240642990738449</v>
       </c>
       <c r="G176">
         <v>0.02045839281248663</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.281878612812953</v>
+        <v>-3.283257311464205</v>
       </c>
       <c r="G177">
         <v>0.008688964560209955</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.860837519486503</v>
+        <v>-2.871333072897983</v>
       </c>
       <c r="G180">
         <v>0.01399106732669608</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-2.905873267565228</v>
+        <v>-2.920218306848614</v>
       </c>
       <c r="G181">
         <v>0.02480462447563481</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-2.955446651204538</v>
+        <v>-2.972251535708022</v>
       </c>
       <c r="G182">
         <v>0.03387569371097432</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.009865736138601</v>
+        <v>-3.024248683206123</v>
       </c>
       <c r="G183">
         <v>0.0386506122907142</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.067848458541456</v>
+        <v>-3.078909829184266</v>
       </c>
       <c r="G184">
         <v>0.03990518434773116</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.129348663968778</v>
+        <v>-3.137040609887663</v>
       </c>
       <c r="G185">
         <v>0.03749314414546467</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.19347798982466</v>
+        <v>-3.196715147652993</v>
       </c>
       <c r="G186">
         <v>0.0314390230974676</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.252633898806127</v>
+        <v>-3.253306900269987</v>
       </c>
       <c r="G187">
         <v>0.02293183578222491</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.294339610225037</v>
+        <v>-3.295585249564823</v>
       </c>
       <c r="G188">
         <v>0.01037485523261805</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.869414288057923</v>
+        <v>-2.880726833488755</v>
       </c>
       <c r="G191">
         <v>0.01393557038012982</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-2.915810200962093</v>
+        <v>-2.929079179246594</v>
       </c>
       <c r="G192">
         <v>0.02604539827076868</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-2.965128894653884</v>
+        <v>-2.979511554689026</v>
       </c>
       <c r="G193">
         <v>0.03505239874709587</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.019603349516641</v>
+        <v>-3.032701747877713</v>
       </c>
       <c r="G194">
         <v>0.04081869179025621</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.076920017136485</v>
+        <v>-3.087793898648273</v>
       </c>
       <c r="G195">
         <v>0.04254748311650891</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.136955289501195</v>
+        <v>-3.144340303716703</v>
       </c>
       <c r="G196">
         <v>0.03960464348304771</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.200149118062623</v>
+        <v>-3.203421241999518</v>
       </c>
       <c r="G197">
         <v>0.03363219482873903</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.264781864579976</v>
+        <v>-3.264957319653926</v>
       </c>
       <c r="G198">
         <v>0.02431417125864743</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.305416849062753</v>
+        <v>-3.306662230036727</v>
       </c>
       <c r="G199">
         <v>0.01141123134456351</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.878432763369055</v>
+        <v>-2.887976249321166</v>
       </c>
       <c r="G202">
         <v>0.01436512193533446</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-2.922818341484063</v>
+        <v>-2.936444977148717</v>
       </c>
       <c r="G203">
         <v>0.02717726277906651</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-2.972513236037508</v>
+        <v>-2.98618627581132</v>
       </c>
       <c r="G204">
         <v>0.03587482738846082</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.025978930888426</v>
+        <v>-3.038414680868706</v>
       </c>
       <c r="G205">
         <v>0.04179262324091271</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.083201725519516</v>
+        <v>-3.093464661611373</v>
       </c>
       <c r="G206">
         <v>0.0434884065571679</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.144182686997813</v>
+        <v>-3.151109305509923</v>
       </c>
       <c r="G207">
         <v>0.04161956984257209</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.20748039322046</v>
+        <v>-3.210782470897806</v>
       </c>
       <c r="G208">
         <v>0.03565557948119291</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.272624359857997</v>
+        <v>-3.272718795372747</v>
       </c>
       <c r="G209">
         <v>0.02619696612532418</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.314823474307278</v>
+        <v>-3.315805959360634</v>
       </c>
       <c r="G210">
         <v>0.01275536004926148</v>

--- a/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
+++ b/data/bimetallic_results/fcc-cube/fcc-cube_AgCu_data.xlsx
@@ -2531,7 +2531,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <v>-2.699096597998986</v>
+        <v>-2.699358901883267</v>
       </c>
       <c r="G93">
         <v>0.006898716439174724</v>
@@ -2761,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="F103">
-        <v>-2.713915989792761</v>
+        <v>-2.713954408951281</v>
       </c>
       <c r="G103">
         <v>0.007323015930877474</v>
@@ -2830,7 +2830,7 @@
         <v>266</v>
       </c>
       <c r="F106">
-        <v>-2.878658774433729</v>
+        <v>-2.87894672880693</v>
       </c>
       <c r="G106">
         <v>0.01126916845600712</v>
@@ -2853,7 +2853,7 @@
         <v>332</v>
       </c>
       <c r="F107">
-        <v>-2.935421146364162</v>
+        <v>-2.935473928319049</v>
       </c>
       <c r="G107">
         <v>0.002067878742228579</v>
@@ -2876,7 +2876,7 @@
         <v>399</v>
       </c>
       <c r="F108">
-        <v>-2.986578757916763</v>
+        <v>-2.986640804464668</v>
       </c>
       <c r="G108">
         <v>0.005312902072805992</v>
@@ -3037,7 +3037,7 @@
         <v>219</v>
       </c>
       <c r="F115">
-        <v>-2.807845289465562</v>
+        <v>-2.807880060039707</v>
       </c>
       <c r="G115">
         <v>0.01392855795430625</v>
@@ -3060,7 +3060,7 @@
         <v>329</v>
       </c>
       <c r="F116">
-        <v>-2.859121085979382</v>
+        <v>-2.859870398547322</v>
       </c>
       <c r="G116">
         <v>0.01751881509168851</v>
@@ -3083,7 +3083,7 @@
         <v>439</v>
       </c>
       <c r="F117">
-        <v>-2.917666950668647</v>
+        <v>-2.917797535619505</v>
       </c>
       <c r="G117">
         <v>0.01644974460436455</v>
@@ -3106,7 +3106,7 @@
         <v>549</v>
       </c>
       <c r="F118">
-        <v>-2.973610553659908</v>
+        <v>-2.973680288326508</v>
       </c>
       <c r="G118">
         <v>0.01420444535058607</v>
@@ -3129,7 +3129,7 @@
         <v>659</v>
       </c>
       <c r="F119">
-        <v>-3.031720456456978</v>
+        <v>-3.031807579969643</v>
       </c>
       <c r="G119">
         <v>0.01269973563283333</v>
@@ -3198,7 +3198,7 @@
         <v>989</v>
       </c>
       <c r="F122">
-        <v>-3.163582216167744</v>
+        <v>-3.163621332223235</v>
       </c>
       <c r="G122">
         <v>-0.006348476435105721</v>
@@ -3267,7 +3267,7 @@
         <v>168</v>
       </c>
       <c r="F125">
-        <v>-2.788584805932618</v>
+        <v>-2.788660397635529</v>
       </c>
       <c r="G125">
         <v>0.009712718137036447</v>
@@ -3290,7 +3290,7 @@
         <v>337</v>
       </c>
       <c r="F126">
-        <v>-2.841858066267444</v>
+        <v>-2.842050983433773</v>
       </c>
       <c r="G126">
         <v>0.01530776675512513</v>
@@ -3313,7 +3313,7 @@
         <v>506</v>
       </c>
       <c r="F127">
-        <v>-2.896101910275515</v>
+        <v>-2.896298639282947</v>
       </c>
       <c r="G127">
         <v>0.01942789352274477</v>
@@ -3336,7 +3336,7 @@
         <v>674</v>
       </c>
       <c r="F128">
-        <v>-2.950707437300936</v>
+        <v>-2.951325955924389</v>
       </c>
       <c r="G128">
         <v>0.02194154776404145</v>
@@ -3359,7 +3359,7 @@
         <v>843</v>
       </c>
       <c r="F129">
-        <v>-3.006470958170002</v>
+        <v>-3.006688502616254</v>
       </c>
       <c r="G129">
         <v>0.0209469542362748</v>
@@ -3382,7 +3382,7 @@
         <v>1012</v>
       </c>
       <c r="F130">
-        <v>-3.062727936360075</v>
+        <v>-3.062935998007976</v>
       </c>
       <c r="G130">
         <v>0.01757302904115465</v>
@@ -3405,7 +3405,7 @@
         <v>1180</v>
       </c>
       <c r="F131">
-        <v>-3.114135288123573</v>
+        <v>-3.114159746306358</v>
       </c>
       <c r="G131">
         <v>0.01214136519606612</v>
@@ -3428,7 +3428,7 @@
         <v>1349</v>
       </c>
       <c r="F132">
-        <v>-3.157012822852406</v>
+        <v>-3.157062763278813</v>
       </c>
       <c r="G132">
         <v>0.005628263176243653</v>
@@ -3451,7 +3451,7 @@
         <v>1518</v>
       </c>
       <c r="F133">
-        <v>-3.20053946384706</v>
+        <v>-3.20056494609068</v>
       </c>
       <c r="G133">
         <v>-0.002723594334655077</v>
@@ -3520,7 +3520,7 @@
         <v>245</v>
       </c>
       <c r="F136">
-        <v>-2.812227221411305</v>
+        <v>-2.812431111961664</v>
       </c>
       <c r="G136">
         <v>0.01093705898962138</v>
@@ -3543,7 +3543,7 @@
         <v>491</v>
       </c>
       <c r="F137">
-        <v>-2.864706399126527</v>
+        <v>-2.865023305271661</v>
       </c>
       <c r="G137">
         <v>0.01780834561569034</v>
@@ -3566,7 +3566,7 @@
         <v>737</v>
       </c>
       <c r="F138">
-        <v>-2.916983844674297</v>
+        <v>-2.917607255433007</v>
       </c>
       <c r="G138">
         <v>0.02352308401476289</v>
@@ -3589,7 +3589,7 @@
         <v>982</v>
       </c>
       <c r="F139">
-        <v>-2.972565592774685</v>
+        <v>-2.973207287201356</v>
       </c>
       <c r="G139">
         <v>0.02559292725153917</v>
@@ -3612,7 +3612,7 @@
         <v>1228</v>
       </c>
       <c r="F140">
-        <v>-3.027487821381273</v>
+        <v>-3.028837186321527</v>
       </c>
       <c r="G140">
         <v>0.02566862851437746</v>
@@ -3635,7 +3635,7 @@
         <v>1474</v>
       </c>
       <c r="F141">
-        <v>-3.084367390289853</v>
+        <v>-3.08464794708951</v>
       </c>
       <c r="G141">
         <v>0.02412227878353068</v>
@@ -3658,7 +3658,7 @@
         <v>1719</v>
       </c>
       <c r="F142">
-        <v>-3.141838906964608</v>
+        <v>-3.14187953344914</v>
       </c>
       <c r="G142">
         <v>0.01878626152930563</v>
@@ -3681,7 +3681,7 @@
         <v>1965</v>
       </c>
       <c r="F143">
-        <v>-3.184269154705247</v>
+        <v>-3.184443415128223</v>
       </c>
       <c r="G143">
         <v>0.01013157794771746</v>
@@ -3704,7 +3704,7 @@
         <v>2211</v>
       </c>
       <c r="F144">
-        <v>-3.227776674556784</v>
+        <v>-3.227845956847927</v>
       </c>
       <c r="G144">
         <v>0.0003433519851438471</v>
@@ -3773,7 +3773,7 @@
         <v>342</v>
       </c>
       <c r="F147">
-        <v>-2.832489980898743</v>
+        <v>-2.832702946695218</v>
       </c>
       <c r="G147">
         <v>0.01127685770165332</v>
@@ -3796,7 +3796,7 @@
         <v>685</v>
       </c>
       <c r="F148">
-        <v>-2.883972078524685</v>
+        <v>-2.884732286815259</v>
       </c>
       <c r="G148">
         <v>0.01956625400079348</v>
@@ -3819,7 +3819,7 @@
         <v>1028</v>
       </c>
       <c r="F149">
-        <v>-2.936730587200261</v>
+        <v>-2.937594182701729</v>
       </c>
       <c r="G149">
         <v>0.02696925457407273</v>
@@ -3842,7 +3842,7 @@
         <v>1371</v>
       </c>
       <c r="F150">
-        <v>-2.988663485158066</v>
+        <v>-2.989481472710227</v>
       </c>
       <c r="G150">
         <v>0.0307808505233067</v>
@@ -3865,7 +3865,7 @@
         <v>1714</v>
       </c>
       <c r="F151">
-        <v>-3.046076118672538</v>
+        <v>-3.046713549777678</v>
       </c>
       <c r="G151">
         <v>0.03110829803490334</v>
@@ -3888,7 +3888,7 @@
         <v>2057</v>
       </c>
       <c r="F152">
-        <v>-3.102722513496122</v>
+        <v>-3.10313668284272</v>
       </c>
       <c r="G152">
         <v>0.02857016718401684</v>
@@ -3911,7 +3911,7 @@
         <v>2400</v>
       </c>
       <c r="F153">
-        <v>-3.161612226370578</v>
+        <v>-3.161695083680274</v>
       </c>
       <c r="G153">
         <v>0.02335856831928451</v>
@@ -3934,7 +3934,7 @@
         <v>2743</v>
       </c>
       <c r="F154">
-        <v>-3.207227486688069</v>
+        <v>-3.207303211056849</v>
       </c>
       <c r="G154">
         <v>0.01579924906112617</v>
@@ -3957,7 +3957,7 @@
         <v>3086</v>
       </c>
       <c r="F155">
-        <v>-3.25030299440986</v>
+        <v>-3.2504539393298</v>
       </c>
       <c r="G155">
         <v>0.003907673942015522</v>
@@ -4026,7 +4026,7 @@
         <v>463</v>
       </c>
       <c r="F158">
-        <v>-2.847618439783126</v>
+        <v>-2.848071729177208</v>
       </c>
       <c r="G158">
         <v>0.01231549623711725</v>
@@ -4049,7 +4049,7 @@
         <v>926</v>
       </c>
       <c r="F159">
-        <v>-2.899033232366425</v>
+        <v>-2.899885987373997</v>
       </c>
       <c r="G159">
         <v>0.02224408766408148</v>
@@ -4072,7 +4072,7 @@
         <v>1389</v>
       </c>
       <c r="F160">
-        <v>-2.950200078939421</v>
+        <v>-2.9513129391562</v>
       </c>
       <c r="G160">
         <v>0.02907014968359767</v>
@@ -4095,7 +4095,7 @@
         <v>1852</v>
       </c>
       <c r="F161">
-        <v>-3.003212002989778</v>
+        <v>-3.004464961355707</v>
       </c>
       <c r="G161">
         <v>0.03374670336118868</v>
@@ -4118,7 +4118,7 @@
         <v>2315</v>
       </c>
       <c r="F162">
-        <v>-3.058908103099831</v>
+        <v>-3.059937494243835</v>
       </c>
       <c r="G162">
         <v>0.03461323470131883</v>
@@ -4141,7 +4141,7 @@
         <v>2778</v>
       </c>
       <c r="F163">
-        <v>-3.115855674263634</v>
+        <v>-3.116783767645068</v>
       </c>
       <c r="G163">
         <v>0.03293213519935612</v>
@@ -4164,7 +4164,7 @@
         <v>3241</v>
       </c>
       <c r="F164">
-        <v>-3.174906054089296</v>
+        <v>-3.175150700194568</v>
       </c>
       <c r="G164">
         <v>0.02619304312687232</v>
@@ -4187,7 +4187,7 @@
         <v>3704</v>
       </c>
       <c r="F165">
-        <v>-3.225024738811097</v>
+        <v>-3.22521487559468</v>
       </c>
       <c r="G165">
         <v>0.018407167465604</v>
@@ -4210,7 +4210,7 @@
         <v>4167</v>
       </c>
       <c r="F166">
-        <v>-3.267659759314567</v>
+        <v>-3.267753706242186</v>
       </c>
       <c r="G166">
         <v>0.00635816623988078</v>
@@ -4279,7 +4279,7 @@
         <v>608</v>
       </c>
       <c r="F169">
-        <v>-2.861082916410609</v>
+        <v>-2.861497794085937</v>
       </c>
       <c r="G169">
         <v>0.01292568350006063</v>
@@ -4302,7 +4302,7 @@
         <v>1216</v>
       </c>
       <c r="F170">
-        <v>-2.912124220513491</v>
+        <v>-2.913009591910715</v>
       </c>
       <c r="G170">
         <v>0.02307232008994164</v>
@@ -4325,7 +4325,7 @@
         <v>1824</v>
       </c>
       <c r="F171">
-        <v>-2.96218244988479</v>
+        <v>-2.963695806988119</v>
       </c>
       <c r="G171">
         <v>0.03181769510833155</v>
@@ -4348,7 +4348,7 @@
         <v>2433</v>
       </c>
       <c r="F172">
-        <v>-3.01557492310028</v>
+        <v>-3.016780475990764</v>
       </c>
       <c r="G172">
         <v>0.03614676214666401</v>
@@ -4371,7 +4371,7 @@
         <v>3041</v>
       </c>
       <c r="F173">
-        <v>-3.070320051149699</v>
+        <v>-3.071759519129434</v>
       </c>
       <c r="G173">
         <v>0.03738532907656933</v>
@@ -4394,7 +4394,7 @@
         <v>3649</v>
       </c>
       <c r="F174">
-        <v>-3.127437491041535</v>
+        <v>-3.128301962066787</v>
       </c>
       <c r="G174">
         <v>0.03567287836286015</v>
@@ -4417,7 +4417,7 @@
         <v>4258</v>
       </c>
       <c r="F175">
-        <v>-3.186620212211471</v>
+        <v>-3.187135394382228</v>
       </c>
       <c r="G175">
         <v>0.02927352274459816</v>
@@ -4440,7 +4440,7 @@
         <v>4866</v>
       </c>
       <c r="F176">
-        <v>-3.240642990738449</v>
+        <v>-3.240723283737051</v>
       </c>
       <c r="G176">
         <v>0.02045839281248663</v>
@@ -4463,7 +4463,7 @@
         <v>5474</v>
       </c>
       <c r="F177">
-        <v>-3.283257311464205</v>
+        <v>-3.283427203404092</v>
       </c>
       <c r="G177">
         <v>0.008688964560209955</v>
@@ -4532,7 +4532,7 @@
         <v>781</v>
       </c>
       <c r="F180">
-        <v>-2.871333072897983</v>
+        <v>-2.871722600129577</v>
       </c>
       <c r="G180">
         <v>0.01399106732669608</v>
@@ -4555,7 +4555,7 @@
         <v>1562</v>
       </c>
       <c r="F181">
-        <v>-2.920218306848614</v>
+        <v>-2.921248365126094</v>
       </c>
       <c r="G181">
         <v>0.02480462447563481</v>
@@ -4578,7 +4578,7 @@
         <v>2343</v>
       </c>
       <c r="F182">
-        <v>-2.972251535708022</v>
+        <v>-2.974186211900126</v>
       </c>
       <c r="G182">
         <v>0.03387569371097432</v>
@@ -4601,7 +4601,7 @@
         <v>3125</v>
       </c>
       <c r="F183">
-        <v>-3.024248683206123</v>
+        <v>-3.026089330844241</v>
       </c>
       <c r="G183">
         <v>0.0386506122907142</v>
@@ -4624,7 +4624,7 @@
         <v>3906</v>
       </c>
       <c r="F184">
-        <v>-3.078909829184266</v>
+        <v>-3.080345461286406</v>
       </c>
       <c r="G184">
         <v>0.03990518434773116</v>
@@ -4647,7 +4647,7 @@
         <v>4687</v>
       </c>
       <c r="F185">
-        <v>-3.137040609887663</v>
+        <v>-3.13809437894275</v>
       </c>
       <c r="G185">
         <v>0.03749314414546467</v>
@@ -4670,7 +4670,7 @@
         <v>5469</v>
       </c>
       <c r="F186">
-        <v>-3.196715147652993</v>
+        <v>-3.197243957430073</v>
       </c>
       <c r="G186">
         <v>0.0314390230974676</v>
@@ -4693,7 +4693,7 @@
         <v>6250</v>
       </c>
       <c r="F187">
-        <v>-3.253306900269987</v>
+        <v>-3.253406413021393</v>
       </c>
       <c r="G187">
         <v>0.02293183578222491</v>
@@ -4716,7 +4716,7 @@
         <v>7031</v>
       </c>
       <c r="F188">
-        <v>-3.295585249564823</v>
+        <v>-3.295806663534276</v>
       </c>
       <c r="G188">
         <v>0.01037485523261805</v>
@@ -4785,7 +4785,7 @@
         <v>984</v>
       </c>
       <c r="F191">
-        <v>-2.880726833488755</v>
+        <v>-2.881221873537671</v>
       </c>
       <c r="G191">
         <v>0.01393557038012982</v>
@@ -4808,7 +4808,7 @@
         <v>1968</v>
       </c>
       <c r="F192">
-        <v>-2.929079179246594</v>
+        <v>-2.930523381559588</v>
       </c>
       <c r="G192">
         <v>0.02604539827076868</v>
@@ -4831,7 +4831,7 @@
         <v>2952</v>
       </c>
       <c r="F193">
-        <v>-2.979511554689026</v>
+        <v>-2.98127263752835</v>
       </c>
       <c r="G193">
         <v>0.03505239874709587</v>
@@ -4854,7 +4854,7 @@
         <v>3936</v>
       </c>
       <c r="F194">
-        <v>-3.032701747877713</v>
+        <v>-3.034956999727034</v>
       </c>
       <c r="G194">
         <v>0.04081869179025621</v>
@@ -4877,7 +4877,7 @@
         <v>4920</v>
       </c>
       <c r="F195">
-        <v>-3.087793898648273</v>
+        <v>-3.089327224684583</v>
       </c>
       <c r="G195">
         <v>0.04254748311650891</v>
@@ -4900,7 +4900,7 @@
         <v>5904</v>
       </c>
       <c r="F196">
-        <v>-3.144340303716703</v>
+        <v>-3.145727141982418</v>
       </c>
       <c r="G196">
         <v>0.03960464348304771</v>
@@ -4923,7 +4923,7 @@
         <v>6888</v>
       </c>
       <c r="F197">
-        <v>-3.203421241999518</v>
+        <v>-3.204064240504916</v>
       </c>
       <c r="G197">
         <v>0.03363219482873903</v>
@@ -4946,7 +4946,7 @@
         <v>7872</v>
       </c>
       <c r="F198">
-        <v>-3.264957319653926</v>
+        <v>-3.264975143997102</v>
       </c>
       <c r="G198">
         <v>0.02431417125864743</v>
@@ -4969,7 +4969,7 @@
         <v>8856</v>
       </c>
       <c r="F199">
-        <v>-3.306662230036727</v>
+        <v>-3.306828928042227</v>
       </c>
       <c r="G199">
         <v>0.01141123134456351</v>
@@ -5038,7 +5038,7 @@
         <v>1219</v>
       </c>
       <c r="F202">
-        <v>-2.887976249321166</v>
+        <v>-2.888600518652117</v>
       </c>
       <c r="G202">
         <v>0.01436512193533446</v>
@@ -5061,7 +5061,7 @@
         <v>2439</v>
       </c>
       <c r="F203">
-        <v>-2.936444977148717</v>
+        <v>-2.937945215137386</v>
       </c>
       <c r="G203">
         <v>0.02717726277906651</v>
@@ -5084,7 +5084,7 @@
         <v>3658</v>
       </c>
       <c r="F204">
-        <v>-2.98618627581132</v>
+        <v>-2.988268544825567</v>
       </c>
       <c r="G204">
         <v>0.03587482738846082</v>
@@ -5107,7 +5107,7 @@
         <v>4878</v>
       </c>
       <c r="F205">
-        <v>-3.038414680868706</v>
+        <v>-3.040298450597928</v>
       </c>
       <c r="G205">
         <v>0.04179262324091271</v>
@@ -5130,7 +5130,7 @@
         <v>6097</v>
       </c>
       <c r="F206">
-        <v>-3.093464661611373</v>
+        <v>-3.095047499399003</v>
       </c>
       <c r="G206">
         <v>0.0434884065571679</v>
@@ -5153,7 +5153,7 @@
         <v>7317</v>
       </c>
       <c r="F207">
-        <v>-3.151109305509923</v>
+        <v>-3.152516551956051</v>
       </c>
       <c r="G207">
         <v>0.04161956984257209</v>
@@ -5176,7 +5176,7 @@
         <v>8536</v>
       </c>
       <c r="F208">
-        <v>-3.210782470897806</v>
+        <v>-3.211474034170034</v>
       </c>
       <c r="G208">
         <v>0.03565557948119291</v>
@@ -5199,7 +5199,7 @@
         <v>9756</v>
       </c>
       <c r="F209">
-        <v>-3.272718795372747</v>
+        <v>-3.272731619452958</v>
       </c>
       <c r="G209">
         <v>0.02619696612532418</v>
@@ -5222,7 +5222,7 @@
         <v>10975</v>
       </c>
       <c r="F210">
-        <v>-3.315805959360634</v>
+        <v>-3.315930612693168</v>
       </c>
       <c r="G210">
         <v>0.01275536004926148</v>
